--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.0900000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>50</v>
+      </c>
       <c r="L12" t="n">
         <v>2.716</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333366</v>
+      </c>
       <c r="L13" t="n">
         <v>2.719</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1099999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>75.00000000000043</v>
+      </c>
       <c r="L14" t="n">
         <v>2.723</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.1099999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>66.66666666666717</v>
+      </c>
       <c r="L15" t="n">
         <v>2.729</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.1199999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>71.4285714285718</v>
+      </c>
       <c r="L16" t="n">
         <v>2.734</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.1199999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>71.4285714285718</v>
+      </c>
       <c r="L17" t="n">
         <v>2.739</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.1199999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>71.4285714285718</v>
+      </c>
       <c r="L18" t="n">
         <v>2.744</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.1299999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333383</v>
+      </c>
       <c r="L19" t="n">
         <v>2.748</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.1299999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333383</v>
+      </c>
       <c r="L20" t="n">
         <v>2.75</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.1299999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>2.752</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.1399999999999992</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>50</v>
+      </c>
       <c r="L22" t="n">
         <v>2.752999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.1399999999999992</v>
       </c>
       <c r="K23" t="n">
-        <v>38.46153846153862</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>2.754999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.149999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>28.57142857142884</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>2.754999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.149999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>50.00000000000055</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>2.754999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.149999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>40.00000000000053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>2.753999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.1799999999999988</v>
       </c>
       <c r="K27" t="n">
-        <v>7.692307692307955</v>
+        <v>-66.66666666666691</v>
       </c>
       <c r="L27" t="n">
         <v>2.749999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.1999999999999988</v>
       </c>
       <c r="K28" t="n">
-        <v>20.00000000000036</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L28" t="n">
         <v>2.748</v>
@@ -1711,7 +1733,7 @@
         <v>0.2099999999999986</v>
       </c>
       <c r="K29" t="n">
-        <v>25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>2.748</v>
@@ -1760,7 +1782,7 @@
         <v>0.2299999999999986</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L30" t="n">
         <v>2.746</v>
@@ -1809,7 +1831,7 @@
         <v>0.2399999999999989</v>
       </c>
       <c r="K31" t="n">
-        <v>5.882352941176655</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L31" t="n">
         <v>2.745</v>
@@ -1860,7 +1882,7 @@
         <v>0.2399999999999989</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.666666666666588</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L32" t="n">
         <v>2.743</v>
@@ -1911,7 +1933,7 @@
         <v>0.2599999999999985</v>
       </c>
       <c r="K33" t="n">
-        <v>12.49999999999986</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L33" t="n">
         <v>2.743</v>
@@ -1962,7 +1984,7 @@
         <v>0.2599999999999985</v>
       </c>
       <c r="K34" t="n">
-        <v>6.666666666666588</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L34" t="n">
         <v>2.744</v>
@@ -2013,7 +2035,7 @@
         <v>0.2599999999999985</v>
       </c>
       <c r="K35" t="n">
-        <v>6.666666666666588</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L35" t="n">
         <v>2.745</v>
@@ -2064,7 +2086,7 @@
         <v>0.2699999999999987</v>
       </c>
       <c r="K36" t="n">
-        <v>6.666666666666863</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L36" t="n">
         <v>2.746999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>0.2799999999999989</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L37" t="n">
         <v>2.751</v>
@@ -2166,7 +2188,7 @@
         <v>0.2899999999999991</v>
       </c>
       <c r="K38" t="n">
-        <v>5.882352941176625</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L38" t="n">
         <v>2.754</v>
@@ -2217,7 +2239,7 @@
         <v>0.2999999999999989</v>
       </c>
       <c r="K39" t="n">
-        <v>17.64705882352935</v>
+        <v>71.42857142857089</v>
       </c>
       <c r="L39" t="n">
         <v>2.757</v>
@@ -2268,7 +2290,7 @@
         <v>0.319999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>5.263157894736744</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L40" t="n">
         <v>2.76</v>
@@ -2319,7 +2341,7 @@
         <v>0.339999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571423</v>
+        <v>39.99999999999956</v>
       </c>
       <c r="L41" t="n">
         <v>2.764</v>
@@ -2370,7 +2392,7 @@
         <v>0.339999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>10.00000000000002</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L42" t="n">
         <v>2.768</v>
@@ -2421,7 +2443,7 @@
         <v>0.3499999999999992</v>
       </c>
       <c r="K43" t="n">
-        <v>14.28571428571441</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>2.771</v>
@@ -2472,7 +2494,7 @@
         <v>0.359999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>23.80952380952373</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L44" t="n">
         <v>2.775</v>
@@ -2523,7 +2545,7 @@
         <v>0.359999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>23.80952380952373</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>2.779</v>
@@ -2574,7 +2596,7 @@
         <v>0.359999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>23.80952380952373</v>
+        <v>50</v>
       </c>
       <c r="L46" t="n">
         <v>2.782</v>
@@ -2625,7 +2647,7 @@
         <v>0.359999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>44.4444444444442</v>
+        <v>42.85714285714268</v>
       </c>
       <c r="L47" t="n">
         <v>2.786</v>
@@ -2676,7 +2698,7 @@
         <v>0.359999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>37.49999999999972</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>2.789</v>
@@ -2727,7 +2749,7 @@
         <v>0.359999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>33.33333333333314</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>2.791</v>
@@ -2778,7 +2800,7 @@
         <v>0.399999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>17.64705882352926</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>2.791</v>
@@ -2829,7 +2851,7 @@
         <v>0.4399999999999991</v>
       </c>
       <c r="K51" t="n">
-        <v>29.99999999999978</v>
+        <v>20</v>
       </c>
       <c r="L51" t="n">
         <v>2.793</v>
@@ -2880,7 +2902,7 @@
         <v>0.4599999999999991</v>
       </c>
       <c r="K52" t="n">
-        <v>36.36363636363616</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L52" t="n">
         <v>2.797</v>
@@ -2931,7 +2953,7 @@
         <v>0.4599999999999991</v>
       </c>
       <c r="K53" t="n">
-        <v>29.99999999999993</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>2.8</v>
@@ -2982,7 +3004,7 @@
         <v>0.4899999999999993</v>
       </c>
       <c r="K54" t="n">
-        <v>39.13043478260868</v>
+        <v>38.46153846153857</v>
       </c>
       <c r="L54" t="n">
         <v>2.805000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>0.4999999999999996</v>
       </c>
       <c r="K55" t="n">
-        <v>33.33333333333321</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L55" t="n">
         <v>2.809</v>
@@ -3084,7 +3106,7 @@
         <v>0.5399999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>2.809</v>
@@ -3135,7 +3157,7 @@
         <v>0.5699999999999994</v>
       </c>
       <c r="K57" t="n">
-        <v>3.44827586206904</v>
+        <v>-14.28571428571417</v>
       </c>
       <c r="L57" t="n">
         <v>2.806</v>
@@ -3186,7 +3208,7 @@
         <v>0.6299999999999994</v>
       </c>
       <c r="K58" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L58" t="n">
         <v>2.809</v>
@@ -3237,7 +3259,7 @@
         <v>0.6399999999999992</v>
       </c>
       <c r="K59" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>2.813</v>
@@ -3288,7 +3310,7 @@
         <v>0.6399999999999992</v>
       </c>
       <c r="K60" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>2.821</v>
@@ -3339,7 +3361,7 @@
         <v>0.6599999999999993</v>
       </c>
       <c r="K61" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>2.823</v>
@@ -3390,7 +3412,7 @@
         <v>0.6899999999999995</v>
       </c>
       <c r="K62" t="n">
-        <v>20.00000000000005</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L62" t="n">
         <v>2.826</v>
@@ -3441,7 +3463,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K63" t="n">
-        <v>19.99999999999995</v>
+        <v>4.761904761904661</v>
       </c>
       <c r="L63" t="n">
         <v>2.83</v>
@@ -3492,7 +3514,7 @@
         <v>0.7099999999999995</v>
       </c>
       <c r="K64" t="n">
-        <v>20.00000000000005</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L64" t="n">
         <v>2.832</v>
@@ -3543,7 +3565,7 @@
         <v>0.7299999999999995</v>
       </c>
       <c r="K65" t="n">
-        <v>13.51351351351356</v>
+        <v>26.31578947368436</v>
       </c>
       <c r="L65" t="n">
         <v>2.833</v>
@@ -3594,7 +3616,7 @@
         <v>0.7799999999999994</v>
       </c>
       <c r="K66" t="n">
-        <v>23.80952380952381</v>
+        <v>61.90476190476186</v>
       </c>
       <c r="L66" t="n">
         <v>2.843</v>
@@ -3645,7 +3667,7 @@
         <v>0.7899999999999991</v>
       </c>
       <c r="K67" t="n">
-        <v>20.9302325581396</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L67" t="n">
         <v>2.855</v>
@@ -3696,7 +3718,7 @@
         <v>0.7899999999999991</v>
       </c>
       <c r="K68" t="n">
-        <v>20.9302325581396</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L68" t="n">
         <v>2.861</v>
@@ -3747,7 +3769,7 @@
         <v>0.7899999999999991</v>
       </c>
       <c r="K69" t="n">
-        <v>20.9302325581396</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L69" t="n">
         <v>2.866</v>
@@ -3798,7 +3820,7 @@
         <v>0.8199999999999994</v>
       </c>
       <c r="K70" t="n">
-        <v>23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L70" t="n">
         <v>2.868</v>
@@ -3849,7 +3871,7 @@
         <v>0.8199999999999994</v>
       </c>
       <c r="K71" t="n">
-        <v>15.78947368421053</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L71" t="n">
         <v>2.872</v>
@@ -3900,7 +3922,7 @@
         <v>0.8399999999999994</v>
       </c>
       <c r="K72" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>2.875</v>
@@ -3951,7 +3973,7 @@
         <v>0.8799999999999994</v>
       </c>
       <c r="K73" t="n">
-        <v>4.761904761904762</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L73" t="n">
         <v>2.873</v>
@@ -4002,7 +4024,7 @@
         <v>0.8799999999999994</v>
       </c>
       <c r="K74" t="n">
-        <v>-2.564102564102622</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L74" t="n">
         <v>2.87</v>
@@ -4053,7 +4075,7 @@
         <v>0.9399999999999995</v>
       </c>
       <c r="K75" t="n">
-        <v>13.63636363636365</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>2.874999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K76" t="n">
-        <v>21.95121951219521</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>2.874</v>
@@ -4155,7 +4177,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K77" t="n">
-        <v>31.57894736842109</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>2.874</v>
@@ -4206,7 +4228,7 @@
         <v>0.9699999999999993</v>
       </c>
       <c r="K78" t="n">
-        <v>11.76470588235296</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L78" t="n">
         <v>2.871999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>0.9699999999999993</v>
       </c>
       <c r="K79" t="n">
-        <v>9.090909090909165</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L79" t="n">
         <v>2.87</v>
@@ -4308,7 +4330,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="K80" t="n">
-        <v>16.66666666666669</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L80" t="n">
         <v>2.874</v>
@@ -4359,7 +4381,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="K81" t="n">
-        <v>23.52941176470591</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L81" t="n">
         <v>2.877999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>1.009999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>18.75000000000002</v>
+        <v>53.84615384615411</v>
       </c>
       <c r="L82" t="n">
         <v>2.880999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>1.009999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>16.1290322580646</v>
+        <v>53.84615384615411</v>
       </c>
       <c r="L83" t="n">
         <v>2.887999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>1.029999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>18.75000000000002</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L84" t="n">
         <v>2.896999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>1.049999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>18.75000000000002</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
         <v>2.898</v>
@@ -4614,7 +4636,7 @@
         <v>1.079999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>13.33333333333335</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L86" t="n">
         <v>2.903</v>
@@ -4665,7 +4687,7 @@
         <v>1.119999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>3.030303030302965</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L87" t="n">
         <v>2.903999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>1.119999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>3.030303030302965</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L88" t="n">
         <v>2.906999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>1.139999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.857142857142922</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>2.907999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>1.169999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.857142857142799</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L90" t="n">
         <v>2.903</v>
@@ -4869,7 +4891,7 @@
         <v>1.179999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-29.4117647058826</v>
       </c>
       <c r="L91" t="n">
         <v>2.899</v>
@@ -4920,7 +4942,7 @@
         <v>1.189999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-2.857142857142799</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L92" t="n">
         <v>2.895</v>
@@ -4971,7 +4993,7 @@
         <v>1.209999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>15.15151515151525</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L93" t="n">
         <v>2.893</v>
@@ -5022,7 +5044,7 @@
         <v>1.229999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>8.571428571428651</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L94" t="n">
         <v>2.887</v>
@@ -5073,7 +5095,7 @@
         <v>1.249999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-16.12903225806448</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L95" t="n">
         <v>2.881</v>
@@ -5124,7 +5146,7 @@
         <v>1.249999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-13.33333333333335</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L96" t="n">
         <v>2.872</v>
@@ -5175,7 +5197,7 @@
         <v>1.269999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>-6.250000000000008</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L97" t="n">
         <v>2.869</v>
@@ -5226,7 +5248,7 @@
         <v>1.279999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>3.225806451612839</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>2.867</v>
@@ -5277,7 +5299,7 @@
         <v>1.289999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>6.250000000000008</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>2.868</v>
@@ -5328,7 +5350,7 @@
         <v>1.289999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>-3.448275862068892</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L100" t="n">
         <v>2.872</v>
@@ -5379,7 +5401,7 @@
         <v>1.319999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>6.250000000000008</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L101" t="n">
         <v>2.878</v>
@@ -5430,7 +5452,7 @@
         <v>1.339999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.030303030303104</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L102" t="n">
         <v>2.881</v>
@@ -5481,7 +5503,7 @@
         <v>1.339999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>-3.030303030303104</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L103" t="n">
         <v>2.882</v>
@@ -5532,7 +5554,7 @@
         <v>1.339999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.677419354838802</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L104" t="n">
         <v>2.884999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>1.369999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>6.250000000000008</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>2.892999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>-6.666666666666667</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L106" t="n">
         <v>2.899999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>7.692307692307693</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L107" t="n">
         <v>2.904999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>7.692307692307693</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>2.908999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307693</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L109" t="n">
         <v>2.909999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>1.44</v>
       </c>
       <c r="K110" t="n">
-        <v>33.33333333333323</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L110" t="n">
         <v>2.914999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>1.44</v>
       </c>
       <c r="K111" t="n">
-        <v>30.76923076923072</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L111" t="n">
         <v>2.916999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>1.44</v>
       </c>
       <c r="K112" t="n">
-        <v>27.99999999999989</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L112" t="n">
         <v>2.920999999999998</v>
@@ -5991,7 +6013,7 @@
         <v>1.45</v>
       </c>
       <c r="K113" t="n">
-        <v>24.99999999999995</v>
+        <v>45.45454545454538</v>
       </c>
       <c r="L113" t="n">
         <v>2.925999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>1.45</v>
       </c>
       <c r="K114" t="n">
-        <v>36.3636363636363</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L114" t="n">
         <v>2.931</v>
@@ -6093,7 +6115,7 @@
         <v>1.47</v>
       </c>
       <c r="K115" t="n">
-        <v>54.54545454545443</v>
+        <v>55.55555555555567</v>
       </c>
       <c r="L115" t="n">
         <v>2.935</v>
@@ -6144,7 +6166,7 @@
         <v>1.48</v>
       </c>
       <c r="K116" t="n">
-        <v>56.52173913043463</v>
+        <v>60</v>
       </c>
       <c r="L116" t="n">
         <v>2.940999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>1.529999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>61.53846153846136</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>2.951999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>1.539999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>53.84615384615385</v>
+        <v>85.71428571428599</v>
       </c>
       <c r="L118" t="n">
         <v>2.961999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>1.549999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>46.15384615384598</v>
+        <v>63.63636363636355</v>
       </c>
       <c r="L119" t="n">
         <v>2.972999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>1.58</v>
       </c>
       <c r="K120" t="n">
-        <v>51.72413793103436</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L120" t="n">
         <v>2.982999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>1.589999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>48.14814814814803</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>2.993999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>1.609999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>48.14814814814803</v>
+        <v>49.99999999999986</v>
       </c>
       <c r="L122" t="n">
         <v>3.002999999999998</v>
@@ -6501,7 +6523,7 @@
         <v>1.619999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>42.85714285714285</v>
+        <v>41.17647058823533</v>
       </c>
       <c r="L123" t="n">
         <v>3.009999999999998</v>
@@ -6552,7 +6574,7 @@
         <v>1.629999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>37.93103448275851</v>
+        <v>24.99999999999979</v>
       </c>
       <c r="L124" t="n">
         <v>3.015999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>1.649999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>35.71428571428555</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L125" t="n">
         <v>3.021999999999998</v>
@@ -6654,7 +6676,7 @@
         <v>1.669999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>31.03448275862063</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>3.024999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>18.75000000000002</v>
+        <v>-25</v>
       </c>
       <c r="L127" t="n">
         <v>3.019999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>1.71</v>
       </c>
       <c r="K128" t="n">
-        <v>21.21212121212129</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L128" t="n">
         <v>3.016999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>1.74</v>
       </c>
       <c r="K129" t="n">
-        <v>17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>3.011999999999998</v>
@@ -6858,7 +6880,7 @@
         <v>1.79</v>
       </c>
       <c r="K130" t="n">
-        <v>-8.571428571428513</v>
+        <v>-69.99999999999977</v>
       </c>
       <c r="L130" t="n">
         <v>2.998999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>1.8</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111111</v>
+        <v>-68.42105263157875</v>
       </c>
       <c r="L131" t="n">
         <v>2.983999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>1.8</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.11111111111111</v>
+        <v>-66.6666666666665</v>
       </c>
       <c r="L132" t="n">
         <v>2.970999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>1.8</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.28571428571436</v>
+        <v>-64.70588235294096</v>
       </c>
       <c r="L133" t="n">
         <v>2.958999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>1.8</v>
       </c>
       <c r="K134" t="n">
-        <v>-14.28571428571436</v>
+        <v>-86.66666666666639</v>
       </c>
       <c r="L134" t="n">
         <v>2.947999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>1.81</v>
       </c>
       <c r="K135" t="n">
-        <v>-17.64705882352941</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L135" t="n">
         <v>2.935999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>1.85</v>
       </c>
       <c r="K136" t="n">
-        <v>-8.108108108108043</v>
+        <v>-19.99999999999976</v>
       </c>
       <c r="L136" t="n">
         <v>2.929999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>1.85</v>
       </c>
       <c r="K137" t="n">
-        <v>-24.99999999999983</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L137" t="n">
         <v>2.926999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>1.87</v>
       </c>
       <c r="K138" t="n">
-        <v>-27.27272727272715</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L138" t="n">
         <v>2.920999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>1.89</v>
       </c>
       <c r="K139" t="n">
-        <v>-17.64705882352926</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L139" t="n">
         <v>2.919999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>1.9</v>
       </c>
       <c r="K140" t="n">
-        <v>-25</v>
+        <v>60</v>
       </c>
       <c r="L140" t="n">
         <v>2.925</v>
@@ -7419,7 +7441,7 @@
         <v>1.9</v>
       </c>
       <c r="K141" t="n">
-        <v>-29.03225806451604</v>
+        <v>60</v>
       </c>
       <c r="L141" t="n">
         <v>2.931</v>
@@ -7470,7 +7492,7 @@
         <v>1.9</v>
       </c>
       <c r="K142" t="n">
-        <v>-24.13793103448266</v>
+        <v>60</v>
       </c>
       <c r="L142" t="n">
         <v>2.937</v>
@@ -7521,7 +7543,7 @@
         <v>1.93</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.677419354838618</v>
+        <v>69.23076923076928</v>
       </c>
       <c r="L143" t="n">
         <v>2.946</v>
@@ -7572,7 +7594,7 @@
         <v>1.93</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.666666666666508</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L144" t="n">
         <v>2.955000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>1.93</v>
       </c>
       <c r="K145" t="n">
-        <v>-14.28571428571411</v>
+        <v>50</v>
       </c>
       <c r="L145" t="n">
         <v>2.963000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>1.95</v>
       </c>
       <c r="K146" t="n">
-        <v>-14.28571428571411</v>
+        <v>20</v>
       </c>
       <c r="L146" t="n">
         <v>2.965000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>1.96</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.692307692307667</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>2.966000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>1.98</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.703703703703777</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>2.971000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>1.99</v>
       </c>
       <c r="K149" t="n">
-        <v>4.000000000000085</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L149" t="n">
         <v>2.973000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>1.99</v>
       </c>
       <c r="K150" t="n">
-        <v>29.99999999999993</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L150" t="n">
         <v>2.974000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="K151" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>2.976</v>
@@ -7980,7 +8002,7 @@
         <v>2.01</v>
       </c>
       <c r="K152" t="n">
-        <v>33.33333333333348</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L152" t="n">
         <v>2.977</v>
@@ -8031,7 +8053,7 @@
         <v>2.03</v>
       </c>
       <c r="K153" t="n">
-        <v>21.73913043478273</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L153" t="n">
         <v>2.973</v>
@@ -8082,7 +8104,7 @@
         <v>2.06</v>
       </c>
       <c r="K154" t="n">
-        <v>30.76923076923082</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L154" t="n">
         <v>2.972</v>
@@ -8133,7 +8155,7 @@
         <v>2.12</v>
       </c>
       <c r="K155" t="n">
-        <v>3.225806451612839</v>
+        <v>-29.4117647058826</v>
       </c>
       <c r="L155" t="n">
         <v>2.965</v>
@@ -8184,7 +8206,7 @@
         <v>2.149999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-20.00000000000006</v>
+        <v>-36.84210526315799</v>
       </c>
       <c r="L156" t="n">
         <v>2.957</v>
@@ -8235,7 +8257,7 @@
         <v>2.159999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-16.12903225806465</v>
+        <v>-44.44444444444478</v>
       </c>
       <c r="L157" t="n">
         <v>2.951</v>
@@ -8286,7 +8308,7 @@
         <v>2.179999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-3.225806451612987</v>
+        <v>-26.31578947368448</v>
       </c>
       <c r="L158" t="n">
         <v>2.945</v>
@@ -8337,7 +8359,7 @@
         <v>2.19</v>
       </c>
       <c r="K159" t="n">
-        <v>-6.666666666666686</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L159" t="n">
         <v>2.941</v>
@@ -8388,7 +8410,7 @@
         <v>2.19</v>
       </c>
       <c r="K160" t="n">
-        <v>-10.34482758620684</v>
+        <v>-26.31578947368419</v>
       </c>
       <c r="L160" t="n">
         <v>2.937</v>
@@ -8439,7 +8461,7 @@
         <v>2.19</v>
       </c>
       <c r="K161" t="n">
-        <v>-10.34482758620684</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L161" t="n">
         <v>2.932</v>
@@ -8490,7 +8512,7 @@
         <v>2.219999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L162" t="n">
         <v>2.931</v>
@@ -8541,7 +8563,7 @@
         <v>2.239999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>-16.12903225806465</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L163" t="n">
         <v>2.93</v>
@@ -8592,7 +8614,7 @@
         <v>2.239999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>-16.12903225806465</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L164" t="n">
         <v>2.926</v>
@@ -8643,7 +8665,7 @@
         <v>2.239999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-16.12903225806465</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L165" t="n">
         <v>2.928</v>
@@ -8694,7 +8716,7 @@
         <v>2.239999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>-10.34482758620701</v>
+        <v>50</v>
       </c>
       <c r="L166" t="n">
         <v>2.933</v>
@@ -8745,7 +8767,7 @@
         <v>2.249999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>-10.34482758620688</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L167" t="n">
         <v>2.936</v>
@@ -8796,7 +8818,7 @@
         <v>2.249999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.51851851851854</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>2.937</v>
@@ -8847,7 +8869,7 @@
         <v>2.259999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>-18.51851851851868</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L169" t="n">
         <v>2.936</v>
@@ -8898,7 +8920,7 @@
         <v>2.279999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>-10.34482758620701</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L170" t="n">
         <v>2.937</v>
@@ -8949,7 +8971,7 @@
         <v>2.29</v>
       </c>
       <c r="K171" t="n">
-        <v>-10.34482758620684</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L171" t="n">
         <v>2.939</v>
@@ -9000,7 +9022,7 @@
         <v>2.31</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L172" t="n">
         <v>2.94</v>
@@ -9051,7 +9073,7 @@
         <v>2.34</v>
       </c>
       <c r="K173" t="n">
-        <v>-3.225806451612977</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>2.94</v>
@@ -9102,7 +9124,7 @@
         <v>2.35</v>
       </c>
       <c r="K174" t="n">
-        <v>-17.24137931034477</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L174" t="n">
         <v>2.939</v>
@@ -9153,7 +9175,7 @@
         <v>2.359999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>8.333333333333348</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>2.939</v>
@@ -9204,7 +9226,7 @@
         <v>2.409999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L176" t="n">
         <v>2.933999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>13.33333333333335</v>
+        <v>4.761904761904661</v>
       </c>
       <c r="L177" t="n">
         <v>2.935</v>
@@ -9306,7 +9328,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>7.142857142857154</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L178" t="n">
         <v>2.935999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>3.70370370370363</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>2.937999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>3.70370370370363</v>
+        <v>-5.882352941176625</v>
       </c>
       <c r="L180" t="n">
         <v>2.937999999999998</v>
@@ -9459,7 +9481,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>3.70370370370363</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L181" t="n">
         <v>2.936999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>2.469999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.99999999999994</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L182" t="n">
         <v>2.932999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>2.489999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.99999999999994</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L183" t="n">
         <v>2.929999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>2.509999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>-3.70370370370363</v>
+        <v>-6.666666666666549</v>
       </c>
       <c r="L184" t="n">
         <v>2.93</v>
@@ -9663,7 +9685,7 @@
         <v>2.519999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L185" t="n">
         <v>2.929999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>2.519999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>3.70370370370363</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>2.934999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>2.529999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>7.142857142857154</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L188" t="n">
         <v>2.935999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>2.559999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>2.933999999999998</v>
@@ -9918,7 +9940,7 @@
         <v>2.579999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>-13.33333333333335</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>2.929999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>2.589999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>-13.33333333333335</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L191" t="n">
         <v>2.926999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>2.589999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>-21.42857142857146</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>2.924999999999998</v>
@@ -10071,7 +10093,7 @@
         <v>2.589999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>-11.99999999999994</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L193" t="n">
         <v>2.924999999999998</v>
@@ -10122,7 +10144,7 @@
         <v>2.6</v>
       </c>
       <c r="K194" t="n">
-        <v>-12.0000000000001</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L194" t="n">
         <v>2.921999999999998</v>
@@ -10173,7 +10195,7 @@
         <v>2.62</v>
       </c>
       <c r="K195" t="n">
-        <v>-23.07692307692308</v>
+        <v>-59.99999999999947</v>
       </c>
       <c r="L195" t="n">
         <v>2.915999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>2.64</v>
       </c>
       <c r="K196" t="n">
-        <v>-13.04347826086965</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L196" t="n">
         <v>2.907999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>2.65</v>
       </c>
       <c r="K197" t="n">
-        <v>-36.84210526315765</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L197" t="n">
         <v>2.900999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>2.65</v>
       </c>
       <c r="K198" t="n">
-        <v>-36.84210526315765</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L198" t="n">
         <v>2.892999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>2.65</v>
       </c>
       <c r="K199" t="n">
-        <v>-36.84210526315765</v>
+        <v>-42.85714285714214</v>
       </c>
       <c r="L199" t="n">
         <v>2.887999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>2.65</v>
       </c>
       <c r="K200" t="n">
-        <v>-36.84210526315765</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L200" t="n">
         <v>2.884999999999999</v>
@@ -10479,7 +10501,7 @@
         <v>2.66</v>
       </c>
       <c r="K201" t="n">
-        <v>-29.99999999999993</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L201" t="n">
         <v>2.881999999999999</v>
@@ -10530,7 +10552,7 @@
         <v>2.68</v>
       </c>
       <c r="K202" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="L202" t="n">
         <v>2.876999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>2.69</v>
       </c>
       <c r="K203" t="n">
-        <v>-29.99999999999993</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L203" t="n">
         <v>2.870999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>2.7</v>
       </c>
       <c r="K204" t="n">
-        <v>-47.36842105263153</v>
+        <v>-50</v>
       </c>
       <c r="L204" t="n">
         <v>2.864999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>2.7</v>
       </c>
       <c r="K205" t="n">
-        <v>-55.55555555555528</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>2.860999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>2.86</v>
       </c>
       <c r="K206" t="n">
-        <v>17.64705882352937</v>
+        <v>61.90476190476186</v>
       </c>
       <c r="L206" t="n">
         <v>2.874999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>2.92</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>25.92592592592586</v>
       </c>
       <c r="L207" t="n">
         <v>2.881999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>2.98</v>
       </c>
       <c r="K208" t="n">
-        <v>-15.55555555555558</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L208" t="n">
         <v>2.882999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>3</v>
       </c>
       <c r="K209" t="n">
-        <v>-13.63636363636362</v>
+        <v>-2.857142857142922</v>
       </c>
       <c r="L209" t="n">
         <v>2.881999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>3.08</v>
       </c>
       <c r="K210" t="n">
-        <v>7.999999999999993</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>2.888999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>3.09</v>
       </c>
       <c r="K211" t="n">
-        <v>7.999999999999993</v>
+        <v>21.95121951219516</v>
       </c>
       <c r="L211" t="n">
         <v>2.895999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>3.15</v>
       </c>
       <c r="K212" t="n">
-        <v>17.85714285714278</v>
+        <v>34.78260869565208</v>
       </c>
       <c r="L212" t="n">
         <v>2.910999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>3.17</v>
       </c>
       <c r="K213" t="n">
-        <v>20.68965517241372</v>
+        <v>40.42553191489359</v>
       </c>
       <c r="L213" t="n">
         <v>2.928999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>3.17</v>
       </c>
       <c r="K214" t="n">
-        <v>22.80701754385962</v>
+        <v>40.42553191489359</v>
       </c>
       <c r="L214" t="n">
         <v>2.948</v>
@@ -11193,7 +11215,7 @@
         <v>3.18</v>
       </c>
       <c r="K215" t="n">
-        <v>25.00000000000002</v>
+        <v>6.250000000000008</v>
       </c>
       <c r="L215" t="n">
         <v>2.965999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>3.2</v>
       </c>
       <c r="K216" t="n">
-        <v>32.14285714285717</v>
+        <v>35.71428571428577</v>
       </c>
       <c r="L216" t="n">
         <v>2.97</v>
@@ -11295,7 +11317,7 @@
         <v>3.2</v>
       </c>
       <c r="K217" t="n">
-        <v>30.90909090909091</v>
+        <v>72.72727272727288</v>
       </c>
       <c r="L217" t="n">
         <v>2.98</v>
@@ -11346,7 +11368,7 @@
         <v>3.2</v>
       </c>
       <c r="K218" t="n">
-        <v>30.90909090909091</v>
+        <v>90.0000000000002</v>
       </c>
       <c r="L218" t="n">
         <v>2.996</v>
@@ -11397,7 +11419,7 @@
         <v>3.22</v>
       </c>
       <c r="K219" t="n">
-        <v>26.31578947368421</v>
+        <v>57.14285714285733</v>
       </c>
       <c r="L219" t="n">
         <v>3.012</v>
@@ -11448,7 +11470,7 @@
         <v>3.25</v>
       </c>
       <c r="K220" t="n">
-        <v>29.99999999999997</v>
+        <v>62.50000000000006</v>
       </c>
       <c r="L220" t="n">
         <v>3.022999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>3.3</v>
       </c>
       <c r="K221" t="n">
-        <v>34.37500000000002</v>
+        <v>60.00000000000024</v>
       </c>
       <c r="L221" t="n">
         <v>3.037999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>3.31</v>
       </c>
       <c r="K222" t="n">
-        <v>36.50793650793648</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L222" t="n">
         <v>3.045999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>3.33</v>
       </c>
       <c r="K223" t="n">
-        <v>34.37499999999994</v>
+        <v>25</v>
       </c>
       <c r="L223" t="n">
         <v>3.049999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>3.34</v>
       </c>
       <c r="K224" t="n">
-        <v>34.37500000000002</v>
+        <v>25</v>
       </c>
       <c r="L224" t="n">
         <v>3.052999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>3.35</v>
       </c>
       <c r="K225" t="n">
-        <v>35.38461538461539</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L225" t="n">
         <v>3.057999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>3.35</v>
       </c>
       <c r="K226" t="n">
-        <v>14.28571428571426</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L226" t="n">
         <v>3.060999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>3.379999999999999</v>
       </c>
       <c r="K227" t="n">
-        <v>21.73913043478265</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>3.060999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>33.33333333333341</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>3.059</v>
@@ -11907,7 +11929,7 @@
         <v>3.419999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>42.85714285714295</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L229" t="n">
         <v>3.060999999999999</v>
@@ -11958,7 +11980,7 @@
         <v>3.419999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>29.41176470588243</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L230" t="n">
         <v>3.06</v>
@@ -12009,7 +12031,7 @@
         <v>3.419999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>27.2727272727273</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L231" t="n">
         <v>3.054</v>
@@ -12060,7 +12082,7 @@
         <v>3.419999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>11.11111111111122</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>3.049</v>
@@ -12111,7 +12133,7 @@
         <v>3.44</v>
       </c>
       <c r="K233" t="n">
-        <v>-3.70370370370363</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L233" t="n">
         <v>3.044</v>
@@ -12162,7 +12184,7 @@
         <v>3.45</v>
       </c>
       <c r="K234" t="n">
-        <v>-7.142857142857154</v>
+        <v>-60</v>
       </c>
       <c r="L234" t="n">
         <v>3.039</v>
@@ -12213,7 +12235,7 @@
         <v>3.45</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.703703703703789</v>
+        <v>-60</v>
       </c>
       <c r="L235" t="n">
         <v>3.033</v>
@@ -12315,7 +12337,7 @@
         <v>3.48</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L237" t="n">
         <v>3.03</v>
@@ -12366,7 +12388,7 @@
         <v>3.51</v>
       </c>
       <c r="K238" t="n">
-        <v>-9.677419354838774</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>3.028999999999999</v>
@@ -12417,7 +12439,7 @@
         <v>3.55</v>
       </c>
       <c r="K239" t="n">
-        <v>9.090909090909017</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L239" t="n">
         <v>3.03</v>
@@ -12468,7 +12490,7 @@
         <v>3.57</v>
       </c>
       <c r="K240" t="n">
-        <v>-6.249999999999992</v>
+        <v>-6.666666666666784</v>
       </c>
       <c r="L240" t="n">
         <v>3.029</v>
@@ -12519,7 +12541,7 @@
         <v>3.6</v>
       </c>
       <c r="K241" t="n">
-        <v>-33.33333333333333</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L241" t="n">
         <v>3.025</v>
@@ -12570,7 +12592,7 @@
         <v>3.6</v>
       </c>
       <c r="K242" t="n">
-        <v>-31.03448275862063</v>
+        <v>-12.49999999999996</v>
       </c>
       <c r="L242" t="n">
         <v>3.021</v>
@@ -12621,7 +12643,7 @@
         <v>3.61</v>
       </c>
       <c r="K243" t="n">
-        <v>-28.57142857142846</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L243" t="n">
         <v>3.018</v>
@@ -12672,7 +12694,7 @@
         <v>3.62</v>
       </c>
       <c r="K244" t="n">
-        <v>-28.57142857142857</v>
+        <v>-17.64705882352926</v>
       </c>
       <c r="L244" t="n">
         <v>3.015000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>3.62</v>
       </c>
       <c r="K245" t="n">
-        <v>-33.33333333333323</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L245" t="n">
         <v>3.012</v>
@@ -12774,7 +12796,7 @@
         <v>3.62</v>
       </c>
       <c r="K246" t="n">
-        <v>-33.33333333333323</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L246" t="n">
         <v>3.006</v>
@@ -12825,7 +12847,7 @@
         <v>3.62</v>
       </c>
       <c r="K247" t="n">
-        <v>-24.99999999999995</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L247" t="n">
         <v>3</v>
@@ -12876,7 +12898,7 @@
         <v>3.69</v>
       </c>
       <c r="K248" t="n">
-        <v>-37.93103448275851</v>
+        <v>-100</v>
       </c>
       <c r="L248" t="n">
         <v>2.99</v>
@@ -12927,7 +12949,7 @@
         <v>3.75</v>
       </c>
       <c r="K249" t="n">
-        <v>-21.21212121212113</v>
+        <v>-33.33333333333317</v>
       </c>
       <c r="L249" t="n">
         <v>2.982</v>
@@ -12978,7 +13000,7 @@
         <v>3.77</v>
       </c>
       <c r="K250" t="n">
-        <v>-14.28571428571421</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L250" t="n">
         <v>2.977999999999999</v>
@@ -13029,7 +13051,7 @@
         <v>3.8</v>
       </c>
       <c r="K251" t="n">
-        <v>-5.263157894736842</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L251" t="n">
         <v>2.98</v>
@@ -13080,7 +13102,7 @@
         <v>3.83</v>
       </c>
       <c r="K252" t="n">
-        <v>-12.19512195121946</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>2.979</v>

--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S252"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>2.708833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.72</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>2.709</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01000000000000023</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>2.709</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01000000000000023</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>2.708833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>2.69</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.69</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01000000000000023</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05000000000000027</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01000000000000023</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05000000000000027</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +701,19 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01000000000000023</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05000000000000027</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>2.71</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.71</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +740,23 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01000000000000023</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05000000000000027</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +783,23 @@
         <v>2.709333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +826,23 @@
         <v>2.709666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>2.713</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +869,23 @@
         <v>2.710666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0900000000000003</v>
+        <v>2.74</v>
       </c>
       <c r="K12" t="n">
-        <v>50</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.716</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +912,23 @@
         <v>2.711833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1000000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>33.33333333333366</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.719</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +955,23 @@
         <v>2.713166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1099999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>75.00000000000043</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.723</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +998,23 @@
         <v>2.713833333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1099999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>66.66666666666717</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.729</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1041,23 @@
         <v>2.7145</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03999999999999959</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1199999999999997</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.734</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1084,23 @@
         <v>2.7155</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03999999999999959</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1199999999999997</v>
+        <v>2.76</v>
       </c>
       <c r="K17" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.739</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1130,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.1199999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>71.4285714285718</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.744</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1171,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.1299999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>33.33333333333383</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.748</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1212,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.1299999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>33.33333333333383</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1253,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1299999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.752</v>
+        <v>2.71</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>2.7325</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1294,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.1399999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>50</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.752999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>2.7345</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1335,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.1399999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.754999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>2.737</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1376,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.754999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>2.739</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1417,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.754999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>2.742</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1458,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.753999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>2.744</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,24 +1501,16 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.1799999999999988</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>-66.66666666666691</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.749999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>2.744499999999999</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1540,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.1999999999999988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>-14.28571428571411</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.748</v>
+        <v>2.71</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>2.746</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1581,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0299999999999998</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.2099999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.748</v>
+        <v>2.71</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>2.748</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1622,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.2299999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>-20.00000000000018</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.746</v>
+        <v>2.71</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>2.748</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1663,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2399999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>-19.99999999999964</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.745</v>
+        <v>2.71</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>2.7485</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.736666666666666</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1704,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.2399999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-19.99999999999964</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.743</v>
+        <v>2.71</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>2.748</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.737333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1745,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.2599999999999985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.743</v>
+        <v>2.71</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>2.749</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.738999999999999</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1786,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.2599999999999985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.744</v>
+        <v>2.71</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>2.7495</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.740666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1827,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.2599999999999985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.745</v>
+        <v>2.71</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.743</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1868,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2699999999999987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>55.55555555555544</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.746999999999999</v>
+        <v>2.71</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>2.7505</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.745</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1909,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2799999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>24.99999999999945</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.751</v>
+        <v>2.71</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>2.7505</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.746666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1950,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.2899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.754</v>
+        <v>2.71</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>2.751</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.748666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1991,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.2999999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>71.42857142857089</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.757</v>
+        <v>2.71</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>2.7525</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.751000000000001</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2032,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.319999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>24.99999999999945</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.76</v>
+        <v>2.71</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>2.753</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.752000000000001</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2073,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.339999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>39.99999999999956</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.764</v>
+        <v>2.71</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>2.7545</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.753666666666668</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2114,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.339999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.768</v>
+        <v>2.71</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>2.755500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.754666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2155,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06999999999999984</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.3499999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.771</v>
+        <v>2.71</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>2.757000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.756333333333335</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2196,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.775</v>
+        <v>2.71</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>2.7595</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.758000000000001</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2237,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.779</v>
+        <v>2.71</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>2.762</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.759666666666668</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2278,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>50</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.782</v>
+        <v>2.71</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>2.7645</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.761000000000001</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2319,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>42.85714285714268</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.786</v>
+        <v>2.71</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>2.7685</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.762333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2360,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.789</v>
+        <v>2.71</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>2.7715</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.763666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2401,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.791</v>
+        <v>2.71</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>2.774</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.765333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2442,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.399999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.791</v>
+        <v>2.71</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>2.7755</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.765666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2483,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4399999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>20</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.793</v>
+        <v>2.71</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>2.778499999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.767333333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2524,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4599999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>27.27272727272713</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.797</v>
+        <v>2.71</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>2.782499999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.769333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2565,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4599999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>2.785499999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.771333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2606,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4899999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>38.46153846153857</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.805000000000001</v>
+        <v>2.71</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.774666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2647,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4999999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>28.57142857142848</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.809</v>
+        <v>2.71</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>2.794</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.777666666666666</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2688,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.07999999999999963</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5399999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.809</v>
+        <v>2.71</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>2.795499999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.779333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2729,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5699999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>-14.28571428571417</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.806</v>
+        <v>2.71</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>2.795999999999999</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.780999999999999</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2770,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1099999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6299999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>11.11111111111118</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.809</v>
+        <v>2.71</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>2.798999999999999</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.783999999999999</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2811,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6399999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.813</v>
+        <v>2.71</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>2.801999999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.786999999999999</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2852,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6399999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>20</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.821</v>
+        <v>2.71</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>2.805999999999999</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.790666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2893,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.823</v>
+        <v>2.71</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>2.807999999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.793333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2934,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6899999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>13.04347826086965</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.826</v>
+        <v>2.71</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>2.811499999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.796999999999999</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2975,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>4.761904761904661</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.83</v>
+        <v>2.71</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>2.814999999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2.800333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3016,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7099999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>14.28571428571441</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.832</v>
+        <v>2.71</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>2.818499999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.803999999999999</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3057,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.7299999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>26.31578947368436</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.833</v>
+        <v>2.71</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>2.820999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.806999999999999</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3098,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7799999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>61.90476190476186</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.843</v>
+        <v>2.71</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>2.826</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.811333333333332</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3139,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>37.50000000000011</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.855</v>
+        <v>2.71</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>2.8305</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2.815666666666666</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3180,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.861</v>
+        <v>2.71</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>2.835</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2.819666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3221,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.866</v>
+        <v>2.71</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>2.8395</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.823333333333332</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,29 +3262,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8199999999999994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>25</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2.868</v>
+        <v>2.71</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>2.8445</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.826666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>1</v>
+        <v>1.050350553505535</v>
       </c>
     </row>
     <row r="71">
@@ -3865,28 +3303,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8199999999999994</v>
-      </c>
-      <c r="K71" t="n">
-        <v>7.692307692307534</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.872</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>2.8475</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.829333333333332</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3338,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.8399999999999994</v>
-      </c>
-      <c r="K72" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>2.8505</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.832666666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3373,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.8799999999999994</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-17.64705882352957</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>2.851500000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2.834333333333332</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3408,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8799999999999994</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-6.666666666666825</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>2.851</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.835666666666666</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3443,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9399999999999995</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.874999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>2.854</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.838999999999999</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3478,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.9499999999999993</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>2.8585</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2.841999999999999</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3513,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.9499999999999993</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>2.8645</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.844999999999999</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3548,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9699999999999993</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.871999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>2.8665</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.847333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3583,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.9699999999999993</v>
-      </c>
-      <c r="K79" t="n">
-        <v>6.666666666666825</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>2.868</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2.849666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3618,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="K80" t="n">
-        <v>22.22222222222228</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>2.871</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.854333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3653,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="K81" t="n">
-        <v>12.50000000000004</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.877999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>2.875</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2.857666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3688,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.009999999999999</v>
-      </c>
-      <c r="K82" t="n">
-        <v>53.84615384615411</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.880999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>2.878</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.860666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3723,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.009999999999999</v>
-      </c>
-      <c r="K83" t="n">
-        <v>53.84615384615411</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.887999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>2.8805</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.863666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3758,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.029999999999999</v>
-      </c>
-      <c r="K84" t="n">
-        <v>33.33333333333366</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.896999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>2.8835</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2.866333333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3793,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.049999999999999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>20</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>2.8865</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2.868666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3828,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.079999999999999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>38.46153846153836</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>2.8885</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2.873333333333334</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3863,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.119999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>19.99999999999988</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.903999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2.877666666666668</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3898,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.119999999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>19.99999999999988</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.906999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>2.8895</v>
-      </c>
-      <c r="N88" t="n">
-        <v>2.880000000000001</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3933,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.139999999999999</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.907999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="N89" t="n">
-        <v>2.881333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3968,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.169999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-29.41176470588226</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>2.8885</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2.881666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4003,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.179999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-29.4117647058826</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>2.8885</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2.883000000000001</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4038,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.189999999999999</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-22.22222222222228</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>2.887999999999999</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2.883666666666668</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4073,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.209999999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-22.22222222222228</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>2.890499999999999</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2.884666666666668</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4108,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.229999999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-22.22222222222228</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>2.891999999999999</v>
-      </c>
-      <c r="N94" t="n">
-        <v>2.884666666666668</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4143,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.249999999999999</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-52.94117647058817</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>2.8895</v>
-      </c>
-      <c r="N95" t="n">
-        <v>2.884666666666668</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4178,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.249999999999999</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-38.46153846153836</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>2.8875</v>
-      </c>
-      <c r="N96" t="n">
-        <v>2.883000000000001</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4213,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.269999999999999</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-19.99999999999988</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>2.886499999999999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2.882333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4248,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.279999999999999</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>2.887</v>
-      </c>
-      <c r="N98" t="n">
-        <v>2.882000000000001</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4283,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="K99" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>2.888</v>
-      </c>
-      <c r="N99" t="n">
-        <v>2.882000000000001</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4318,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>27.27272727272742</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>2.8875</v>
-      </c>
-      <c r="N100" t="n">
-        <v>2.883000000000001</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4353,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.319999999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>38.46153846153836</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>2.8885</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2.885000000000001</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4388,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.339999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>7.692307692307534</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2.881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>2.888</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2.885666666666668</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4423,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.339999999999999</v>
-      </c>
-      <c r="K103" t="n">
-        <v>27.27272727272713</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>2.8875</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2.887666666666668</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4458,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.339999999999999</v>
-      </c>
-      <c r="K104" t="n">
-        <v>55.55555555555544</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2.884999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>2.886</v>
-      </c>
-      <c r="N104" t="n">
-        <v>2.889666666666668</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4493,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.369999999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.892999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>2.887</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2.890666666666668</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4528,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.379999999999999</v>
-      </c>
-      <c r="K106" t="n">
-        <v>45.45454545454516</v>
-      </c>
-      <c r="L106" t="n">
-        <v>2.899999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>2.886</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2.891666666666668</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4563,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.379999999999999</v>
-      </c>
-      <c r="K107" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2.904999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>2.887</v>
-      </c>
-      <c r="N107" t="n">
-        <v>2.892666666666668</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4598,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.379999999999999</v>
-      </c>
-      <c r="K108" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2.908999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>2.888</v>
-      </c>
-      <c r="N108" t="n">
-        <v>2.894333333333335</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4633,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="K109" t="n">
-        <v>9.09090909090887</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.909999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="N109" t="n">
-        <v>2.895333333333335</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4668,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K110" t="n">
-        <v>16.6666666666666</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2.914999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>2.8935</v>
-      </c>
-      <c r="N110" t="n">
-        <v>2.896666666666668</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4703,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K111" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.916999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>2.8975</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2.898000000000001</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4738,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K112" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2.920999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>2.901</v>
-      </c>
-      <c r="N112" t="n">
-        <v>2.899000000000001</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4773,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K113" t="n">
-        <v>45.45454545454538</v>
-      </c>
-      <c r="L113" t="n">
-        <v>2.925999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>2.904</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2.900333333333335</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4808,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K114" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L114" t="n">
-        <v>2.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>2.908</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2.901000000000001</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4843,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K115" t="n">
-        <v>55.55555555555567</v>
-      </c>
-      <c r="L115" t="n">
-        <v>2.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>2.914</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2.903000000000001</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4878,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="K116" t="n">
-        <v>60</v>
-      </c>
-      <c r="L116" t="n">
-        <v>2.940999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>2.9205</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2.904333333333335</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4913,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.529999999999999</v>
-      </c>
-      <c r="K117" t="n">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="L117" t="n">
-        <v>2.951999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>2.9285</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2.908666666666668</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4948,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.539999999999999</v>
-      </c>
-      <c r="K118" t="n">
-        <v>85.71428571428599</v>
-      </c>
-      <c r="L118" t="n">
-        <v>2.961999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>2.9355</v>
-      </c>
-      <c r="N118" t="n">
-        <v>2.912666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4983,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.549999999999999</v>
-      </c>
-      <c r="K119" t="n">
-        <v>63.63636363636355</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2.972999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>2.9415</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2.917000000000001</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5018,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K120" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2.982999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>2.949</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2.923333333333335</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5053,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3299999999999996</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.589999999999999</v>
-      </c>
-      <c r="K121" t="n">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2.993999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>2.9555</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2.929666666666668</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5088,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.609999999999999</v>
-      </c>
-      <c r="K122" t="n">
-        <v>49.99999999999986</v>
-      </c>
-      <c r="L122" t="n">
-        <v>3.002999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>2.962</v>
-      </c>
-      <c r="N122" t="n">
-        <v>2.935000000000001</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5123,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1.619999999999999</v>
-      </c>
-      <c r="K123" t="n">
-        <v>41.17647058823533</v>
-      </c>
-      <c r="L123" t="n">
-        <v>3.009999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>2.968</v>
-      </c>
-      <c r="N123" t="n">
-        <v>2.939333333333335</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5158,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.629999999999999</v>
-      </c>
-      <c r="K124" t="n">
-        <v>24.99999999999979</v>
-      </c>
-      <c r="L124" t="n">
-        <v>3.015999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>2.9735</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2.944000000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5193,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.649999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>29.41176470588226</v>
-      </c>
-      <c r="L125" t="n">
-        <v>3.021999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>2.9785</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2.950000000000002</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5228,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.669999999999999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L126" t="n">
-        <v>3.024999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="N126" t="n">
-        <v>2.955333333333335</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5263,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L127" t="n">
-        <v>3.019999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>2.986</v>
-      </c>
-      <c r="N127" t="n">
-        <v>2.959000000000002</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5298,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-12.49999999999972</v>
-      </c>
-      <c r="L128" t="n">
-        <v>3.016999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>2.9895</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2.962666666666669</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5333,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2399999999999998</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L129" t="n">
-        <v>3.011999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>2.9925</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2.965000000000002</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5368,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-69.99999999999977</v>
-      </c>
-      <c r="L130" t="n">
-        <v>2.998999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>2.991</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2.965666666666668</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5403,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-68.42105263157875</v>
-      </c>
-      <c r="L131" t="n">
-        <v>2.983999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>2.989</v>
-      </c>
-      <c r="N131" t="n">
-        <v>2.965000000000002</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5438,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-66.6666666666665</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2.970999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>2.987</v>
-      </c>
-      <c r="N132" t="n">
-        <v>2.965000000000002</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5473,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-64.70588235294096</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2.958999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>2.9845</v>
-      </c>
-      <c r="N133" t="n">
-        <v>2.965000000000002</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5508,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-86.66666666666639</v>
-      </c>
-      <c r="L134" t="n">
-        <v>2.947999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>2.981999999999999</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2.965000000000002</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5543,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-71.42857142857089</v>
-      </c>
-      <c r="L135" t="n">
-        <v>2.935999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>2.978999999999999</v>
-      </c>
-      <c r="N135" t="n">
-        <v>2.964333333333335</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5578,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-19.99999999999976</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2.929999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>2.9775</v>
-      </c>
-      <c r="N136" t="n">
-        <v>2.965333333333334</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5613,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-28.57142857142848</v>
-      </c>
-      <c r="L137" t="n">
-        <v>2.926999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>2.9735</v>
-      </c>
-      <c r="N137" t="n">
-        <v>2.966333333333334</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5648,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-23.07692307692287</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2.920999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>2.968999999999999</v>
-      </c>
-      <c r="N138" t="n">
-        <v>2.966666666666668</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5683,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K139" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L139" t="n">
-        <v>2.919999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>2.966</v>
-      </c>
-      <c r="N139" t="n">
-        <v>2.968333333333335</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5718,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.2399999999999998</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K140" t="n">
-        <v>60</v>
-      </c>
-      <c r="L140" t="n">
-        <v>2.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>2.962</v>
-      </c>
-      <c r="N140" t="n">
-        <v>2.969000000000001</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5753,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2399999999999998</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K141" t="n">
-        <v>60</v>
-      </c>
-      <c r="L141" t="n">
-        <v>2.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>2.9575</v>
-      </c>
-      <c r="N141" t="n">
-        <v>2.969666666666668</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5788,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.2399999999999998</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K142" t="n">
-        <v>60</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>2.954</v>
-      </c>
-      <c r="N142" t="n">
-        <v>2.970333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5823,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K143" t="n">
-        <v>69.23076923076928</v>
-      </c>
-      <c r="L143" t="n">
-        <v>2.946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>2.9525</v>
-      </c>
-      <c r="N143" t="n">
-        <v>2.971666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5858,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J144" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K144" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L144" t="n">
-        <v>2.955000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>2.9515</v>
-      </c>
-      <c r="N144" t="n">
-        <v>2.973</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5893,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J145" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="K145" t="n">
-        <v>50</v>
-      </c>
-      <c r="L145" t="n">
-        <v>2.963000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>2.9495</v>
-      </c>
-      <c r="N145" t="n">
-        <v>2.973666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5928,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J146" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K146" t="n">
-        <v>20</v>
-      </c>
-      <c r="L146" t="n">
-        <v>2.965000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>2.9475</v>
-      </c>
-      <c r="N146" t="n">
-        <v>2.973333333333334</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5963,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.2399999999999998</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K147" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="L147" t="n">
-        <v>2.966000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>2.9465</v>
-      </c>
-      <c r="N147" t="n">
-        <v>2.971</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5998,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K148" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="L148" t="n">
-        <v>2.971000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>2.946</v>
-      </c>
-      <c r="N148" t="n">
-        <v>2.969666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +6033,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="K149" t="n">
-        <v>11.11111111111133</v>
-      </c>
-      <c r="L149" t="n">
-        <v>2.973000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>2.9465</v>
-      </c>
-      <c r="N149" t="n">
-        <v>2.968333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +6068,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="K150" t="n">
-        <v>11.11111111111133</v>
-      </c>
-      <c r="L150" t="n">
-        <v>2.974000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>2.9495</v>
-      </c>
-      <c r="N150" t="n">
-        <v>2.966</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6103,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J151" t="n">
-        <v>2</v>
-      </c>
-      <c r="K151" t="n">
-        <v>20</v>
-      </c>
-      <c r="L151" t="n">
-        <v>2.976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>2.9535</v>
-      </c>
-      <c r="N151" t="n">
-        <v>2.963666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6138,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J152" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-25.00000000000014</v>
-      </c>
-      <c r="L152" t="n">
-        <v>2.977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>2.957</v>
-      </c>
-      <c r="N152" t="n">
-        <v>2.961666666666666</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6173,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-40.00000000000018</v>
-      </c>
-      <c r="L153" t="n">
-        <v>2.973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>2.9595</v>
-      </c>
-      <c r="N153" t="n">
-        <v>2.959333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6208,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J154" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-7.692307692307902</v>
-      </c>
-      <c r="L154" t="n">
-        <v>2.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>2.9635</v>
-      </c>
-      <c r="N154" t="n">
-        <v>2.958333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6243,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-29.4117647058826</v>
-      </c>
-      <c r="L155" t="n">
-        <v>2.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>2.964</v>
-      </c>
-      <c r="N155" t="n">
-        <v>2.954666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6278,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.149999999999999</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-36.84210526315799</v>
-      </c>
-      <c r="L156" t="n">
-        <v>2.957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>2.961</v>
-      </c>
-      <c r="N156" t="n">
-        <v>2.950666666666666</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6313,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.159999999999999</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-44.44444444444478</v>
-      </c>
-      <c r="L157" t="n">
-        <v>2.951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>2.9585</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6348,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J158" t="n">
-        <v>2.179999999999999</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-26.31578947368448</v>
-      </c>
-      <c r="L158" t="n">
-        <v>2.945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>2.958</v>
-      </c>
-      <c r="N158" t="n">
-        <v>2.945666666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6383,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J159" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-20.00000000000009</v>
-      </c>
-      <c r="L159" t="n">
-        <v>2.941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>2.957</v>
-      </c>
-      <c r="N159" t="n">
-        <v>2.944666666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6418,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J160" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-26.31578947368419</v>
-      </c>
-      <c r="L160" t="n">
-        <v>2.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>2.9555</v>
-      </c>
-      <c r="N160" t="n">
-        <v>2.945333333333334</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6453,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J161" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-22.22222222222228</v>
-      </c>
-      <c r="L161" t="n">
-        <v>2.932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>2.954</v>
-      </c>
-      <c r="N161" t="n">
-        <v>2.946333333333334</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6488,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.2399999999999998</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.219999999999999</v>
-      </c>
-      <c r="K162" t="n">
-        <v>5.263157894736744</v>
-      </c>
-      <c r="L162" t="n">
-        <v>2.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>2.954</v>
-      </c>
-      <c r="N162" t="n">
-        <v>2.948333333333334</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6523,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.239999999999999</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-22.22222222222228</v>
-      </c>
-      <c r="L163" t="n">
-        <v>2.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>2.951499999999999</v>
-      </c>
-      <c r="N163" t="n">
-        <v>2.949666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6558,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J164" t="n">
-        <v>2.239999999999999</v>
-      </c>
-      <c r="K164" t="n">
-        <v>16.66666666666673</v>
-      </c>
-      <c r="L164" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>2.948999999999999</v>
-      </c>
-      <c r="N164" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6593,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2.239999999999999</v>
-      </c>
-      <c r="K165" t="n">
-        <v>55.55555555555544</v>
-      </c>
-      <c r="L165" t="n">
-        <v>2.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>2.946499999999999</v>
-      </c>
-      <c r="N165" t="n">
-        <v>2.952</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6628,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2.239999999999999</v>
-      </c>
-      <c r="K166" t="n">
-        <v>50</v>
-      </c>
-      <c r="L166" t="n">
-        <v>2.933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>2.944999999999999</v>
-      </c>
-      <c r="N166" t="n">
-        <v>2.951666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6663,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J167" t="n">
-        <v>2.249999999999999</v>
-      </c>
-      <c r="K167" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L167" t="n">
-        <v>2.936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>2.943499999999999</v>
-      </c>
-      <c r="N167" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6698,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J168" t="n">
-        <v>2.249999999999999</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>2.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>2.940999999999999</v>
-      </c>
-      <c r="N168" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6733,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2.259999999999999</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-14.28571428571465</v>
-      </c>
-      <c r="L169" t="n">
-        <v>2.936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>2.938499999999999</v>
-      </c>
-      <c r="N169" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6768,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J170" t="n">
-        <v>2.279999999999999</v>
-      </c>
-      <c r="K170" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L170" t="n">
-        <v>2.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>2.936999999999999</v>
-      </c>
-      <c r="N170" t="n">
-        <v>2.949333333333334</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6803,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L171" t="n">
-        <v>2.939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>2.935499999999999</v>
-      </c>
-      <c r="N171" t="n">
-        <v>2.949</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6838,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J172" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="K172" t="n">
-        <v>42.85714285714304</v>
-      </c>
-      <c r="L172" t="n">
-        <v>2.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>2.935499999999999</v>
-      </c>
-      <c r="N172" t="n">
-        <v>2.949333333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6873,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J173" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>2.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>2.934999999999999</v>
-      </c>
-      <c r="N173" t="n">
-        <v>2.947666666666668</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6908,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-9.09090909090887</v>
-      </c>
-      <c r="L174" t="n">
-        <v>2.939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>2.932499999999999</v>
-      </c>
-      <c r="N174" t="n">
-        <v>2.945666666666668</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +6943,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2.359999999999999</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>2.939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>2.933499999999999</v>
-      </c>
-      <c r="N175" t="n">
-        <v>2.944000000000001</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +6978,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.1699999999999999</v>
-      </c>
-      <c r="J176" t="n">
-        <v>2.409999999999999</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L176" t="n">
-        <v>2.933999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>2.933499999999999</v>
-      </c>
-      <c r="N176" t="n">
-        <v>2.941333333333334</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +7013,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J177" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4.761904761904661</v>
-      </c>
-      <c r="L177" t="n">
-        <v>2.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>2.935499999999999</v>
-      </c>
-      <c r="N177" t="n">
-        <v>2.940666666666668</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +7048,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J178" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K178" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="L178" t="n">
-        <v>2.935999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>2.936499999999999</v>
-      </c>
-      <c r="N178" t="n">
-        <v>2.939333333333335</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +7083,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J179" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>2.937999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>2.936999999999999</v>
-      </c>
-      <c r="N179" t="n">
-        <v>2.938333333333334</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +7118,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J180" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-5.882352941176625</v>
-      </c>
-      <c r="L180" t="n">
-        <v>2.937999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>2.937499999999999</v>
-      </c>
-      <c r="N180" t="n">
-        <v>2.937333333333334</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +7153,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J181" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-20.00000000000024</v>
-      </c>
-      <c r="L181" t="n">
-        <v>2.936999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>2.937999999999998</v>
-      </c>
-      <c r="N181" t="n">
-        <v>2.936000000000001</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +7188,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J182" t="n">
-        <v>2.469999999999999</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-7.692307692307587</v>
-      </c>
-      <c r="L182" t="n">
-        <v>2.932999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>2.936499999999998</v>
-      </c>
-      <c r="N182" t="n">
-        <v>2.934666666666668</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +7223,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J183" t="n">
-        <v>2.489999999999999</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-14.28571428571438</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2.929999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>2.934999999999999</v>
-      </c>
-      <c r="N183" t="n">
-        <v>2.933333333333334</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +7258,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J184" t="n">
-        <v>2.509999999999999</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-6.666666666666549</v>
-      </c>
-      <c r="L184" t="n">
-        <v>2.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>2.934499999999999</v>
-      </c>
-      <c r="N184" t="n">
-        <v>2.931666666666668</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +7293,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J185" t="n">
-        <v>2.519999999999999</v>
-      </c>
-      <c r="K185" t="n">
-        <v>45.45454545454552</v>
-      </c>
-      <c r="L185" t="n">
-        <v>2.929999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>2.934499999999999</v>
-      </c>
-      <c r="N185" t="n">
-        <v>2.932333333333334</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +7328,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J186" t="n">
-        <v>2.519999999999999</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>2.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>2.934499999999999</v>
-      </c>
-      <c r="N186" t="n">
-        <v>2.934000000000001</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +7363,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J187" t="n">
-        <v>2.519999999999999</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>2.934999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>2.934999999999999</v>
-      </c>
-      <c r="N187" t="n">
-        <v>2.935333333333334</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +7398,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J188" t="n">
-        <v>2.529999999999999</v>
-      </c>
-      <c r="K188" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L188" t="n">
-        <v>2.935999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>2.935999999999999</v>
-      </c>
-      <c r="N188" t="n">
-        <v>2.936333333333334</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +7433,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="J189" t="n">
-        <v>2.559999999999999</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L189" t="n">
-        <v>2.933999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>2.935999999999999</v>
-      </c>
-      <c r="N189" t="n">
-        <v>2.936</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +7468,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J190" t="n">
-        <v>2.579999999999999</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L190" t="n">
-        <v>2.929999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>2.933999999999999</v>
-      </c>
-      <c r="N190" t="n">
-        <v>2.935</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +7503,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>2.589999999999999</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-16.6666666666666</v>
-      </c>
-      <c r="L191" t="n">
-        <v>2.926999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>2.931999999999999</v>
-      </c>
-      <c r="N191" t="n">
-        <v>2.934333333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +7538,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J192" t="n">
-        <v>2.589999999999999</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="n">
-        <v>2.924999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>2.928999999999998</v>
-      </c>
-      <c r="N192" t="n">
-        <v>2.932666666666667</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +7573,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J193" t="n">
-        <v>2.589999999999999</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-24.99999999999986</v>
-      </c>
-      <c r="L193" t="n">
-        <v>2.924999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>2.927499999999998</v>
-      </c>
-      <c r="N193" t="n">
-        <v>2.931666666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +7608,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J194" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-49.99999999999945</v>
-      </c>
-      <c r="L194" t="n">
-        <v>2.921999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>2.925999999999998</v>
-      </c>
-      <c r="N194" t="n">
-        <v>2.930333333333334</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,28 +7643,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="J195" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-59.99999999999947</v>
-      </c>
-      <c r="L195" t="n">
-        <v>2.915999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>2.922999999999999</v>
-      </c>
-      <c r="N195" t="n">
-        <v>2.928333333333334</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10240,28 +7678,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J196" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-66.66666666666617</v>
-      </c>
-      <c r="L196" t="n">
-        <v>2.907999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>2.921499999999999</v>
-      </c>
-      <c r="N196" t="n">
-        <v>2.925666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10291,28 +7713,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J197" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-66.66666666666617</v>
-      </c>
-      <c r="L197" t="n">
-        <v>2.900999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>2.917999999999998</v>
-      </c>
-      <c r="N197" t="n">
-        <v>2.923666666666667</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10342,28 +7748,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-55.5555555555549</v>
-      </c>
-      <c r="L198" t="n">
-        <v>2.892999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>2.914499999999999</v>
-      </c>
-      <c r="N198" t="n">
-        <v>2.921666666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,28 +7783,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-42.85714285714214</v>
-      </c>
-      <c r="L199" t="n">
-        <v>2.887999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>2.910999999999999</v>
-      </c>
-      <c r="N199" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10444,28 +7818,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.1499999999999999</v>
-      </c>
-      <c r="J200" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-66.66666666666617</v>
-      </c>
-      <c r="L200" t="n">
-        <v>2.884999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>2.907499999999998</v>
-      </c>
-      <c r="N200" t="n">
-        <v>2.917666666666667</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10495,28 +7853,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="J201" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-42.85714285714304</v>
-      </c>
-      <c r="L201" t="n">
-        <v>2.881999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>2.904499999999999</v>
-      </c>
-      <c r="N201" t="n">
-        <v>2.915333333333334</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10546,28 +7888,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J202" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-55.55555555555567</v>
-      </c>
-      <c r="L202" t="n">
-        <v>2.876999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>2.900999999999999</v>
-      </c>
-      <c r="N202" t="n">
-        <v>2.911666666666667</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,28 +7923,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J203" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-55.55555555555544</v>
-      </c>
-      <c r="L203" t="n">
-        <v>2.870999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>2.897999999999999</v>
-      </c>
-      <c r="N203" t="n">
-        <v>2.908666666666667</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10648,28 +7958,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L204" t="n">
-        <v>2.864999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>2.893499999999999</v>
-      </c>
-      <c r="N204" t="n">
-        <v>2.905666666666667</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10699,28 +7993,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0.1199999999999997</v>
-      </c>
-      <c r="J205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L205" t="n">
-        <v>2.860999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>2.888499999999999</v>
-      </c>
-      <c r="N205" t="n">
-        <v>2.902333333333333</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10750,28 +8028,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0.2799999999999998</v>
-      </c>
-      <c r="J206" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K206" t="n">
-        <v>61.90476190476186</v>
-      </c>
-      <c r="L206" t="n">
-        <v>2.874999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>2.891499999999999</v>
-      </c>
-      <c r="N206" t="n">
-        <v>2.906</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10801,28 +8063,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J207" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K207" t="n">
-        <v>25.92592592592586</v>
-      </c>
-      <c r="L207" t="n">
-        <v>2.881999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>2.891499999999999</v>
-      </c>
-      <c r="N207" t="n">
-        <v>2.906</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10852,28 +8098,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="J208" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K208" t="n">
-        <v>3.030303030302965</v>
-      </c>
-      <c r="L208" t="n">
-        <v>2.882999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>2.887999999999999</v>
-      </c>
-      <c r="N208" t="n">
-        <v>2.904</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10903,28 +8133,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J209" t="n">
-        <v>3</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-2.857142857142922</v>
-      </c>
-      <c r="L209" t="n">
-        <v>2.881999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>2.884999999999999</v>
-      </c>
-      <c r="N209" t="n">
-        <v>2.901333333333334</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10954,28 +8168,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2199999999999998</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="K210" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L210" t="n">
-        <v>2.888999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>2.886999999999999</v>
-      </c>
-      <c r="N210" t="n">
-        <v>2.901333333333334</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11005,28 +8203,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J211" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K211" t="n">
-        <v>21.95121951219516</v>
-      </c>
-      <c r="L211" t="n">
-        <v>2.895999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>2.888999999999999</v>
-      </c>
-      <c r="N211" t="n">
-        <v>2.901666666666667</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11056,28 +8238,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J212" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K212" t="n">
-        <v>34.78260869565208</v>
-      </c>
-      <c r="L212" t="n">
-        <v>2.910999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>2.893999999999999</v>
-      </c>
-      <c r="N212" t="n">
-        <v>2.904333333333334</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11107,28 +8273,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="K213" t="n">
-        <v>40.42553191489359</v>
-      </c>
-      <c r="L213" t="n">
-        <v>2.928999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="N213" t="n">
-        <v>2.908333333333334</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11158,28 +8308,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="K214" t="n">
-        <v>40.42553191489359</v>
-      </c>
-      <c r="L214" t="n">
-        <v>2.948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>2.906499999999999</v>
-      </c>
-      <c r="N214" t="n">
-        <v>2.911666666666667</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11209,28 +8343,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J215" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="K215" t="n">
-        <v>6.250000000000008</v>
-      </c>
-      <c r="L215" t="n">
-        <v>2.965999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>2.9135</v>
-      </c>
-      <c r="N215" t="n">
-        <v>2.914333333333333</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11260,28 +8378,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J216" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K216" t="n">
-        <v>35.71428571428577</v>
-      </c>
-      <c r="L216" t="n">
-        <v>2.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>2.922499999999999</v>
-      </c>
-      <c r="N216" t="n">
-        <v>2.917666666666667</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11311,28 +8413,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K217" t="n">
-        <v>72.72727272727288</v>
-      </c>
-      <c r="L217" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>2.931</v>
-      </c>
-      <c r="N217" t="n">
-        <v>2.921000000000001</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11362,28 +8448,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K218" t="n">
-        <v>90.0000000000002</v>
-      </c>
-      <c r="L218" t="n">
-        <v>2.996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>2.9395</v>
-      </c>
-      <c r="N218" t="n">
-        <v>2.924000000000001</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11413,28 +8483,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="K219" t="n">
-        <v>57.14285714285733</v>
-      </c>
-      <c r="L219" t="n">
-        <v>3.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="N219" t="n">
-        <v>2.927333333333334</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11464,28 +8518,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3299999999999996</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K220" t="n">
-        <v>62.50000000000006</v>
-      </c>
-      <c r="L220" t="n">
-        <v>3.022999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>2.956</v>
-      </c>
-      <c r="N220" t="n">
-        <v>2.932333333333334</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11515,28 +8553,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.3799999999999999</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K221" t="n">
-        <v>60.00000000000024</v>
-      </c>
-      <c r="L221" t="n">
-        <v>3.037999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="N221" t="n">
-        <v>2.938666666666667</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11566,28 +8588,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0.3699999999999997</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="K222" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L222" t="n">
-        <v>3.045999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>2.978499999999999</v>
-      </c>
-      <c r="N222" t="n">
-        <v>2.944666666666667</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11617,28 +8623,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3499999999999996</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K223" t="n">
-        <v>25</v>
-      </c>
-      <c r="L223" t="n">
-        <v>3.049999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>2.9895</v>
-      </c>
-      <c r="N223" t="n">
-        <v>2.950000000000001</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11668,28 +8658,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0.3399999999999999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K224" t="n">
-        <v>25</v>
-      </c>
-      <c r="L224" t="n">
-        <v>3.052999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>3.0005</v>
-      </c>
-      <c r="N224" t="n">
-        <v>2.955333333333334</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11719,28 +8693,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3499999999999996</v>
-      </c>
-      <c r="J225" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K225" t="n">
-        <v>19.99999999999988</v>
-      </c>
-      <c r="L225" t="n">
-        <v>3.057999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>3.012</v>
-      </c>
-      <c r="N225" t="n">
-        <v>2.961666666666667</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11770,28 +8728,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0.3499999999999996</v>
-      </c>
-      <c r="J226" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K226" t="n">
-        <v>19.99999999999988</v>
-      </c>
-      <c r="L226" t="n">
-        <v>3.060999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>3.0155</v>
-      </c>
-      <c r="N226" t="n">
-        <v>2.968666666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11821,28 +8763,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J227" t="n">
-        <v>3.379999999999999</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0</v>
-      </c>
-      <c r="L227" t="n">
-        <v>3.060999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>3.0205</v>
-      </c>
-      <c r="N227" t="n">
-        <v>2.974333333333333</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11872,28 +8798,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3.399999999999999</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
-      <c r="L228" t="n">
-        <v>3.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>3.0275</v>
-      </c>
-      <c r="N228" t="n">
-        <v>2.979333333333333</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11923,28 +8833,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J229" t="n">
-        <v>3.419999999999999</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L229" t="n">
-        <v>3.060999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>3.0365</v>
-      </c>
-      <c r="N229" t="n">
-        <v>2.985</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11974,28 +8868,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J230" t="n">
-        <v>3.419999999999999</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-50.00000000000019</v>
-      </c>
-      <c r="L230" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>3.0415</v>
-      </c>
-      <c r="N230" t="n">
-        <v>2.990666666666667</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12025,1099 +8903,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J231" t="n">
-        <v>3.419999999999999</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-45.45454545454552</v>
-      </c>
-      <c r="L231" t="n">
-        <v>3.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>3.046</v>
-      </c>
-      <c r="N231" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D232" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E232" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F232" t="n">
-        <v>21098.9308</v>
-      </c>
-      <c r="G232" t="n">
-        <v>2.956833333333334</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3.419999999999999</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L232" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="M232" t="n">
-        <v>3.0475</v>
-      </c>
-      <c r="N232" t="n">
-        <v>3.002000000000001</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D233" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E233" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F233" t="n">
-        <v>129280.0001</v>
-      </c>
-      <c r="G233" t="n">
-        <v>2.958166666666668</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="K233" t="n">
-        <v>-40.00000000000018</v>
-      </c>
-      <c r="L233" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="M233" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="N233" t="n">
-        <v>3.007666666666667</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D234" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E234" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F234" t="n">
-        <v>73704.8432</v>
-      </c>
-      <c r="G234" t="n">
-        <v>2.959500000000001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J234" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L234" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="M234" t="n">
-        <v>3.046</v>
-      </c>
-      <c r="N234" t="n">
-        <v>3.013333333333334</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E235" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>271442.3841</v>
-      </c>
-      <c r="G235" t="n">
-        <v>2.960666666666667</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L235" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="M235" t="n">
-        <v>3.0455</v>
-      </c>
-      <c r="N235" t="n">
-        <v>3.019000000000001</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C236" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D236" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F236" t="n">
-        <v>791747.7751</v>
-      </c>
-      <c r="G236" t="n">
-        <v>2.963166666666667</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J236" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L236" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="M236" t="n">
-        <v>3.0455</v>
-      </c>
-      <c r="N236" t="n">
-        <v>3.020333333333334</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D237" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E237" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F237" t="n">
-        <v>740608.6719</v>
-      </c>
-      <c r="G237" t="n">
-        <v>2.964833333333334</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0.3199999999999998</v>
-      </c>
-      <c r="J237" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K237" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L237" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="M237" t="n">
-        <v>3.0455</v>
-      </c>
-      <c r="N237" t="n">
-        <v>3.023666666666668</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C238" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D238" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E238" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F238" t="n">
-        <v>621603.4758</v>
-      </c>
-      <c r="G238" t="n">
-        <v>2.966000000000001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0.2899999999999996</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L238" t="n">
-        <v>3.028999999999999</v>
-      </c>
-      <c r="M238" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="N238" t="n">
-        <v>3.028000000000001</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D239" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E239" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G239" t="n">
-        <v>2.967833333333334</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0.3299999999999996</v>
-      </c>
-      <c r="J239" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K239" t="n">
-        <v>7.692307692307482</v>
-      </c>
-      <c r="L239" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="M239" t="n">
-        <v>3.045499999999999</v>
-      </c>
-      <c r="N239" t="n">
-        <v>3.034333333333335</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E240" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F240" t="n">
-        <v>105722.5907</v>
-      </c>
-      <c r="G240" t="n">
-        <v>2.969333333333334</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0.3099999999999996</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="K240" t="n">
-        <v>-6.666666666666784</v>
-      </c>
-      <c r="L240" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="M240" t="n">
-        <v>3.044499999999999</v>
-      </c>
-      <c r="N240" t="n">
-        <v>3.037333333333335</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3</v>
-      </c>
-      <c r="D241" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E241" t="n">
-        <v>3</v>
-      </c>
-      <c r="F241" t="n">
-        <v>951423.9701</v>
-      </c>
-      <c r="G241" t="n">
-        <v>2.970333333333334</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0.2799999999999998</v>
-      </c>
-      <c r="J241" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-22.22222222222217</v>
-      </c>
-      <c r="L241" t="n">
-        <v>3.025</v>
-      </c>
-      <c r="M241" t="n">
-        <v>3.039499999999999</v>
-      </c>
-      <c r="N241" t="n">
-        <v>3.039000000000001</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>3</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3</v>
-      </c>
-      <c r="D242" t="n">
-        <v>3</v>
-      </c>
-      <c r="E242" t="n">
-        <v>3</v>
-      </c>
-      <c r="F242" t="n">
-        <v>26.9139</v>
-      </c>
-      <c r="G242" t="n">
-        <v>2.971500000000001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0.2799999999999998</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-12.49999999999996</v>
-      </c>
-      <c r="L242" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="M242" t="n">
-        <v>3.034999999999999</v>
-      </c>
-      <c r="N242" t="n">
-        <v>3.038666666666668</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D243" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E243" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="F243" t="n">
-        <v>98440.1626</v>
-      </c>
-      <c r="G243" t="n">
-        <v>2.972833333333334</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J243" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="K243" t="n">
-        <v>-12.49999999999972</v>
-      </c>
-      <c r="L243" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="M243" t="n">
-        <v>3.031</v>
-      </c>
-      <c r="N243" t="n">
-        <v>3.037333333333335</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E244" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F244" t="n">
-        <v>134786.755</v>
-      </c>
-      <c r="G244" t="n">
-        <v>2.973666666666667</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J244" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-17.64705882352926</v>
-      </c>
-      <c r="L244" t="n">
-        <v>3.015000000000001</v>
-      </c>
-      <c r="M244" t="n">
-        <v>3.026999999999999</v>
-      </c>
-      <c r="N244" t="n">
-        <v>3.035666666666668</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D245" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E245" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F245" t="n">
-        <v>609925.5953</v>
-      </c>
-      <c r="G245" t="n">
-        <v>2.974333333333334</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J245" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L245" t="n">
-        <v>3.012</v>
-      </c>
-      <c r="M245" t="n">
-        <v>3.022499999999999</v>
-      </c>
-      <c r="N245" t="n">
-        <v>3.034333333333335</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D246" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E246" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F246" t="n">
-        <v>514102.5083</v>
-      </c>
-      <c r="G246" t="n">
-        <v>2.975000000000001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J246" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L246" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="M246" t="n">
-        <v>3.017999999999999</v>
-      </c>
-      <c r="N246" t="n">
-        <v>3.032333333333335</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E247" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F247" t="n">
-        <v>297.7216</v>
-      </c>
-      <c r="G247" t="n">
-        <v>2.975666666666667</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J247" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K247" t="n">
-        <v>-27.27272727272713</v>
-      </c>
-      <c r="L247" t="n">
-        <v>3</v>
-      </c>
-      <c r="M247" t="n">
-        <v>3.014999999999999</v>
-      </c>
-      <c r="N247" t="n">
-        <v>3.030333333333334</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="D248" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="E248" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F248" t="n">
-        <v>232479.6118</v>
-      </c>
-      <c r="G248" t="n">
-        <v>2.975000000000001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J248" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L248" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="M248" t="n">
-        <v>3.009499999999999</v>
-      </c>
-      <c r="N248" t="n">
-        <v>3.026000000000001</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C249" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="D249" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E249" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F249" t="n">
-        <v>268331.1485</v>
-      </c>
-      <c r="G249" t="n">
-        <v>2.975833333333334</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J249" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K249" t="n">
-        <v>-33.33333333333317</v>
-      </c>
-      <c r="L249" t="n">
-        <v>2.982</v>
-      </c>
-      <c r="M249" t="n">
-        <v>3.005999999999999</v>
-      </c>
-      <c r="N249" t="n">
-        <v>3.024333333333334</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C250" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E250" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F250" t="n">
-        <v>250465.9767</v>
-      </c>
-      <c r="G250" t="n">
-        <v>2.977333333333334</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J250" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="K250" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L250" t="n">
-        <v>2.977999999999999</v>
-      </c>
-      <c r="M250" t="n">
-        <v>3.003499999999999</v>
-      </c>
-      <c r="N250" t="n">
-        <v>3.022333333333334</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C251" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D251" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E251" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F251" t="n">
-        <v>535706.4165000001</v>
-      </c>
-      <c r="G251" t="n">
-        <v>2.979166666666667</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K251" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="L251" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="M251" t="n">
-        <v>3.002499999999999</v>
-      </c>
-      <c r="N251" t="n">
-        <v>3.019666666666668</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="D252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="E252" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F252" t="n">
-        <v>292059.5122</v>
-      </c>
-      <c r="G252" t="n">
-        <v>2.980500000000001</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J252" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0</v>
-      </c>
-      <c r="L252" t="n">
-        <v>2.979</v>
-      </c>
-      <c r="M252" t="n">
-        <v>2.999999999999999</v>
-      </c>
-      <c r="N252" t="n">
-        <v>3.016333333333334</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -451,17 +451,13 @@
         <v>2.708833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.72</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>2.709</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>2.709</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>2.708833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.71</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>2.709000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>2.709333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,22 +766,14 @@
         <v>2.709666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>2.710666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>2.711833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>2.713166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,22 +906,14 @@
         <v>2.713833333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,22 +941,14 @@
         <v>2.7145</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +976,14 @@
         <v>2.7155</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1133,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1215,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1297,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1338,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1379,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1420,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1461,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1502,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1543,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1584,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1625,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1666,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1707,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1748,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1789,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1830,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1871,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1912,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1953,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1994,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2035,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2076,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2158,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2319,17 +2029,11 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2360,17 +2064,11 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2404,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2568,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2606,17 +2274,11 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2647,17 +2309,11 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2688,17 +2344,11 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2814,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2852,17 +2484,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2893,17 +2519,11 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2934,17 +2554,11 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2975,17 +2589,11 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3057,17 +2659,11 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3101,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3183,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3262,19 +2834,13 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1.050350553505535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3303,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -4878,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5018,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5123,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5158,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -6695,13 +6261,17 @@
         <v>2.958833333333335</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2.93</v>
+      </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
@@ -6730,14 +6300,22 @@
         <v>2.959166666666668</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6771,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7605,13 +7189,17 @@
         <v>2.940666666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2.91</v>
+      </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
@@ -7640,14 +7228,22 @@
         <v>2.940166666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +7271,22 @@
         <v>2.938666666666668</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7710,14 +7314,22 @@
         <v>2.937333333333334</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7745,14 +7357,22 @@
         <v>2.936333333333335</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7780,14 +7400,22 @@
         <v>2.935000000000001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +7443,22 @@
         <v>2.933500000000001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +7486,22 @@
         <v>2.932166666666668</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7885,14 +7529,22 @@
         <v>2.930500000000001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7920,14 +7572,22 @@
         <v>2.928166666666668</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7955,14 +7615,22 @@
         <v>2.925666666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7990,14 +7658,22 @@
         <v>2.923166666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8031,8 +7707,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8066,8 +7748,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8101,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8136,8 +7830,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8171,8 +7871,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8206,8 +7912,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8241,8 +7953,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8276,8 +7994,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +8035,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8346,8 +8076,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8381,8 +8117,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8416,8 +8158,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8451,8 +8199,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8486,8 +8240,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8521,8 +8281,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8556,8 +8322,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8591,8 +8363,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8626,8 +8404,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8658,13 +8442,19 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M224" t="n">
-        <v>1</v>
+        <v>1.046546391752577</v>
       </c>
     </row>
     <row r="225">

--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="C2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="E2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="F2" t="n">
-        <v>8632.992899999999</v>
+        <v>23757.4836</v>
       </c>
       <c r="G2" t="n">
-        <v>2.708833333333333</v>
+        <v>2.708499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="C3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="D3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="E3" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="F3" t="n">
-        <v>12157.9335</v>
+        <v>8632.992899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>2.709</v>
+        <v>2.708833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>2.71</v>
       </c>
       <c r="F4" t="n">
-        <v>12127.5386</v>
+        <v>12157.9335</v>
       </c>
       <c r="G4" t="n">
         <v>2.709</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="C5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="D5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="E5" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12127.5386</v>
       </c>
       <c r="G5" t="n">
-        <v>2.708833333333333</v>
+        <v>2.709</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="C6" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="D6" t="n">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="E6" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="F6" t="n">
-        <v>361483.5091</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.709000000000001</v>
+        <v>2.708833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -614,13 +614,13 @@
         <v>2.71</v>
       </c>
       <c r="D7" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="E7" t="n">
         <v>2.71</v>
       </c>
       <c r="F7" t="n">
-        <v>1308.1724</v>
+        <v>361483.5091</v>
       </c>
       <c r="G7" t="n">
         <v>2.709000000000001</v>
@@ -655,7 +655,7 @@
         <v>2.71</v>
       </c>
       <c r="F8" t="n">
-        <v>16242.4354</v>
+        <v>1308.1724</v>
       </c>
       <c r="G8" t="n">
         <v>2.709000000000001</v>
@@ -690,7 +690,7 @@
         <v>2.71</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>16242.4354</v>
       </c>
       <c r="G9" t="n">
         <v>2.709000000000001</v>
@@ -716,19 +716,19 @@
         <v>2.71</v>
       </c>
       <c r="C10" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="D10" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="E10" t="n">
         <v>2.71</v>
       </c>
       <c r="F10" t="n">
-        <v>819976.3306</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>2.709333333333333</v>
+        <v>2.709000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="C11" t="n">
         <v>2.73</v>
@@ -757,23 +757,29 @@
         <v>2.73</v>
       </c>
       <c r="E11" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="F11" t="n">
-        <v>64667.5824</v>
+        <v>819976.3306</v>
       </c>
       <c r="G11" t="n">
-        <v>2.709666666666666</v>
+        <v>2.709333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2.71</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,32 +789,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="C12" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="D12" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="E12" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="F12" t="n">
-        <v>1337205.0909</v>
+        <v>64667.5824</v>
       </c>
       <c r="G12" t="n">
-        <v>2.710666666666667</v>
+        <v>2.709666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2.73</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -821,19 +833,19 @@
         <v>2.74</v>
       </c>
       <c r="C13" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="D13" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="E13" t="n">
         <v>2.74</v>
       </c>
       <c r="F13" t="n">
-        <v>123416.4547</v>
+        <v>1337205.0909</v>
       </c>
       <c r="G13" t="n">
-        <v>2.711833333333333</v>
+        <v>2.710666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +855,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="C14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="D14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="E14" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>123416.4547</v>
       </c>
       <c r="G14" t="n">
-        <v>2.713166666666667</v>
+        <v>2.711833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +894,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +920,10 @@
         <v>2.75</v>
       </c>
       <c r="F15" t="n">
-        <v>181130.1818</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>2.713833333333334</v>
+        <v>2.713166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +933,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,19 +950,19 @@
         <v>2.75</v>
       </c>
       <c r="C16" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="D16" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="E16" t="n">
         <v>2.75</v>
       </c>
       <c r="F16" t="n">
-        <v>449748.4366</v>
+        <v>181130.1818</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7145</v>
+        <v>2.713833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +972,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="C17" t="n">
         <v>2.76</v>
@@ -967,13 +995,13 @@
         <v>2.76</v>
       </c>
       <c r="E17" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="F17" t="n">
-        <v>25261.2318</v>
+        <v>449748.4366</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7155</v>
+        <v>2.7145</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1011,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1005,10 +1037,10 @@
         <v>2.76</v>
       </c>
       <c r="F18" t="n">
-        <v>25465.942</v>
+        <v>25261.2318</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7165</v>
+        <v>2.7155</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1050,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1031,19 +1067,19 @@
         <v>2.76</v>
       </c>
       <c r="C19" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="D19" t="n">
         <v>2.76</v>
       </c>
       <c r="E19" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="F19" t="n">
-        <v>76905.71460000001</v>
+        <v>25465.942</v>
       </c>
       <c r="G19" t="n">
-        <v>2.717</v>
+        <v>2.7165</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1089,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,19 +1103,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="C20" t="n">
         <v>2.75</v>
       </c>
       <c r="D20" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="E20" t="n">
         <v>2.75</v>
       </c>
       <c r="F20" t="n">
-        <v>163746.005</v>
+        <v>76905.71460000001</v>
       </c>
       <c r="G20" t="n">
         <v>2.717</v>
@@ -1088,7 +1128,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,7 +1154,7 @@
         <v>2.75</v>
       </c>
       <c r="F21" t="n">
-        <v>174579.7499</v>
+        <v>163746.005</v>
       </c>
       <c r="G21" t="n">
         <v>2.717</v>
@@ -1123,7 +1167,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1181,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="C22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="D22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="E22" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="F22" t="n">
-        <v>80000</v>
+        <v>174579.7499</v>
       </c>
       <c r="G22" t="n">
-        <v>2.7175</v>
+        <v>2.717</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1206,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1180,10 +1232,10 @@
         <v>2.76</v>
       </c>
       <c r="F23" t="n">
-        <v>28992.1195</v>
+        <v>80000</v>
       </c>
       <c r="G23" t="n">
-        <v>2.717666666666667</v>
+        <v>2.7175</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1245,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1259,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="C24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="D24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="E24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="F24" t="n">
-        <v>43317.449</v>
+        <v>28992.1195</v>
       </c>
       <c r="G24" t="n">
-        <v>2.718333333333333</v>
+        <v>2.717666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1284,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1250,10 +1310,10 @@
         <v>2.75</v>
       </c>
       <c r="F25" t="n">
-        <v>340857.8446</v>
+        <v>43317.449</v>
       </c>
       <c r="G25" t="n">
-        <v>2.718833333333333</v>
+        <v>2.718333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1323,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1349,10 @@
         <v>2.75</v>
       </c>
       <c r="F26" t="n">
-        <v>101999.8812</v>
+        <v>340857.8446</v>
       </c>
       <c r="G26" t="n">
-        <v>2.7195</v>
+        <v>2.718833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1362,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1311,19 +1379,19 @@
         <v>2.75</v>
       </c>
       <c r="C27" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="D27" t="n">
         <v>2.75</v>
       </c>
       <c r="E27" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="F27" t="n">
-        <v>506074.0477</v>
+        <v>101999.8812</v>
       </c>
       <c r="G27" t="n">
-        <v>2.719333333333333</v>
+        <v>2.7195</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1401,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1415,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="C28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="D28" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="E28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="F28" t="n">
-        <v>19336.985</v>
+        <v>506074.0477</v>
       </c>
       <c r="G28" t="n">
-        <v>2.719666666666667</v>
+        <v>2.719333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1440,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1457,19 @@
         <v>2.74</v>
       </c>
       <c r="C29" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="D29" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="E29" t="n">
         <v>2.74</v>
       </c>
       <c r="F29" t="n">
-        <v>17822</v>
+        <v>19336.985</v>
       </c>
       <c r="G29" t="n">
-        <v>2.720333333333333</v>
+        <v>2.719666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1479,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1493,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="C30" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="D30" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="E30" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="F30" t="n">
-        <v>174331</v>
+        <v>17822</v>
       </c>
       <c r="G30" t="n">
-        <v>2.720833333333333</v>
+        <v>2.720333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1518,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1532,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="C31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="D31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="E31" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="F31" t="n">
-        <v>4630.7136</v>
+        <v>174331</v>
       </c>
       <c r="G31" t="n">
-        <v>2.721333333333333</v>
+        <v>2.720833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1557,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1583,10 @@
         <v>2.74</v>
       </c>
       <c r="F32" t="n">
-        <v>26832</v>
+        <v>4630.7136</v>
       </c>
       <c r="G32" t="n">
-        <v>2.722</v>
+        <v>2.721333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1596,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1613,19 @@
         <v>2.74</v>
       </c>
       <c r="C33" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="D33" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="E33" t="n">
         <v>2.74</v>
       </c>
       <c r="F33" t="n">
-        <v>273289.1223</v>
+        <v>26832</v>
       </c>
       <c r="G33" t="n">
-        <v>2.723</v>
+        <v>2.722</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1635,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,7 +1649,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="C34" t="n">
         <v>2.76</v>
@@ -1562,13 +1658,13 @@
         <v>2.76</v>
       </c>
       <c r="E34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="F34" t="n">
-        <v>65231</v>
+        <v>273289.1223</v>
       </c>
       <c r="G34" t="n">
-        <v>2.724000000000001</v>
+        <v>2.723</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1674,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1594,16 +1694,16 @@
         <v>2.76</v>
       </c>
       <c r="D35" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="E35" t="n">
         <v>2.76</v>
       </c>
       <c r="F35" t="n">
-        <v>676101.8607</v>
+        <v>65231</v>
       </c>
       <c r="G35" t="n">
-        <v>2.7245</v>
+        <v>2.724000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1713,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1727,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="C36" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="D36" t="n">
         <v>2.77</v>
       </c>
       <c r="E36" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="F36" t="n">
-        <v>1095311.0186</v>
+        <v>676101.8607</v>
       </c>
       <c r="G36" t="n">
-        <v>2.725500000000001</v>
+        <v>2.7245</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1752,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1769,19 @@
         <v>2.77</v>
       </c>
       <c r="C37" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="D37" t="n">
         <v>2.77</v>
       </c>
       <c r="E37" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="F37" t="n">
-        <v>189225.5514</v>
+        <v>1095311.0186</v>
       </c>
       <c r="G37" t="n">
-        <v>2.726333333333334</v>
+        <v>2.725500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1791,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1808,19 @@
         <v>2.77</v>
       </c>
       <c r="C38" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="D38" t="n">
         <v>2.77</v>
       </c>
       <c r="E38" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="F38" t="n">
-        <v>8127.5733</v>
+        <v>189225.5514</v>
       </c>
       <c r="G38" t="n">
-        <v>2.727333333333334</v>
+        <v>2.726333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1830,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1844,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="C39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="D39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="E39" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="F39" t="n">
-        <v>214608.3572</v>
+        <v>8127.5733</v>
       </c>
       <c r="G39" t="n">
-        <v>2.7285</v>
+        <v>2.727333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1869,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="C40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="D40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="E40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="F40" t="n">
-        <v>50000</v>
+        <v>214608.3572</v>
       </c>
       <c r="G40" t="n">
-        <v>2.729333333333333</v>
+        <v>2.7285</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1908,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1922,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="C41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="D41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="E41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="F41" t="n">
-        <v>42698.0058</v>
+        <v>50000</v>
       </c>
       <c r="G41" t="n">
-        <v>2.730666666666667</v>
+        <v>2.729333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1947,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1973,10 @@
         <v>2.78</v>
       </c>
       <c r="F42" t="n">
-        <v>7301.9942</v>
+        <v>42698.0058</v>
       </c>
       <c r="G42" t="n">
-        <v>2.732</v>
+        <v>2.730666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1986,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2000,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="C43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="D43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="E43" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="F43" t="n">
-        <v>615372.7301</v>
+        <v>7301.9942</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7335</v>
+        <v>2.732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2025,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +2039,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="D44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="E44" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="F44" t="n">
-        <v>283899.6353</v>
+        <v>615372.7301</v>
       </c>
       <c r="G44" t="n">
-        <v>2.735166666666667</v>
+        <v>2.7335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2064,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +2090,10 @@
         <v>2.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1997057.381</v>
+        <v>283899.6353</v>
       </c>
       <c r="G45" t="n">
-        <v>2.736833333333335</v>
+        <v>2.735166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2103,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2129,10 @@
         <v>2.8</v>
       </c>
       <c r="F46" t="n">
-        <v>212277.4661</v>
+        <v>1997057.381</v>
       </c>
       <c r="G46" t="n">
-        <v>2.738500000000001</v>
+        <v>2.736833333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2142,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,20 +2168,24 @@
         <v>2.8</v>
       </c>
       <c r="F47" t="n">
-        <v>262191.4285</v>
+        <v>212277.4661</v>
       </c>
       <c r="G47" t="n">
-        <v>2.740166666666668</v>
+        <v>2.738500000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,20 +2207,24 @@
         <v>2.8</v>
       </c>
       <c r="F48" t="n">
-        <v>934411.25</v>
+        <v>262191.4285</v>
       </c>
       <c r="G48" t="n">
-        <v>2.741833333333335</v>
+        <v>2.740166666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2246,10 @@
         <v>2.8</v>
       </c>
       <c r="F49" t="n">
-        <v>728333</v>
+        <v>934411.25</v>
       </c>
       <c r="G49" t="n">
-        <v>2.743666666666669</v>
+        <v>2.741833333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2259,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2273,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="C50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="D50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="E50" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>728333</v>
       </c>
       <c r="G50" t="n">
-        <v>2.744833333333335</v>
+        <v>2.743666666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2298,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2312,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="C51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="D51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="E51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>2.746666666666669</v>
+        <v>2.744833333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2337,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2354,19 @@
         <v>2.8</v>
       </c>
       <c r="C52" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="D52" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="E52" t="n">
         <v>2.8</v>
       </c>
       <c r="F52" t="n">
-        <v>2140458.4728</v>
+        <v>200</v>
       </c>
       <c r="G52" t="n">
-        <v>2.748166666666669</v>
+        <v>2.746666666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2376,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2390,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="C53" t="n">
         <v>2.82</v>
@@ -2227,13 +2399,13 @@
         <v>2.82</v>
       </c>
       <c r="E53" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="F53" t="n">
-        <v>189070.2127</v>
+        <v>2140458.4728</v>
       </c>
       <c r="G53" t="n">
-        <v>2.750000000000002</v>
+        <v>2.748166666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2415,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,32 +2429,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="C54" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="D54" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="E54" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="F54" t="n">
-        <v>222861.8771</v>
+        <v>189070.2127</v>
       </c>
       <c r="G54" t="n">
-        <v>2.752333333333335</v>
+        <v>2.750000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2468,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="C55" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E55" t="n">
         <v>2.84</v>
       </c>
-      <c r="D55" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2.81</v>
-      </c>
       <c r="F55" t="n">
-        <v>80010</v>
+        <v>222861.8771</v>
       </c>
       <c r="G55" t="n">
-        <v>2.754333333333336</v>
+        <v>2.752333333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2507,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="C56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="D56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="E56" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="F56" t="n">
-        <v>555</v>
+        <v>80010</v>
       </c>
       <c r="G56" t="n">
-        <v>2.755666666666669</v>
+        <v>2.754333333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2532,34 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="C57" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="E57" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="F57" t="n">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="G57" t="n">
-        <v>2.756500000000003</v>
+        <v>2.755666666666669</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,28 +2579,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="C58" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="D58" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="E58" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="F58" t="n">
-        <v>147172.4743</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>2.758500000000003</v>
+        <v>2.756500000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2428,22 +2614,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="C59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="D59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E59" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="F59" t="n">
-        <v>23264.1508</v>
+        <v>147172.4743</v>
       </c>
       <c r="G59" t="n">
-        <v>2.760666666666669</v>
+        <v>2.758500000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,16 +2661,16 @@
         <v>2.84</v>
       </c>
       <c r="F60" t="n">
-        <v>1064152.8931</v>
+        <v>23264.1508</v>
       </c>
       <c r="G60" t="n">
-        <v>2.763000000000003</v>
+        <v>2.760666666666669</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2498,28 +2684,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="C61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="D61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="E61" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="F61" t="n">
-        <v>15389.4441</v>
+        <v>1064152.8931</v>
       </c>
       <c r="G61" t="n">
-        <v>2.765000000000003</v>
+        <v>2.763000000000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2533,28 +2719,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="C62" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="D62" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="E62" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="F62" t="n">
-        <v>103283.2638</v>
+        <v>15389.4441</v>
       </c>
       <c r="G62" t="n">
-        <v>2.767166666666669</v>
+        <v>2.765000000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2568,28 +2754,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C63" t="n">
         <v>2.85</v>
       </c>
-      <c r="C63" t="n">
-        <v>2.86</v>
-      </c>
       <c r="D63" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="E63" t="n">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="F63" t="n">
-        <v>1285545.490188112</v>
+        <v>103283.2638</v>
       </c>
       <c r="G63" t="n">
-        <v>2.76966666666667</v>
+        <v>2.767166666666669</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2603,22 +2789,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C64" t="n">
         <v>2.86</v>
       </c>
-      <c r="C64" t="n">
-        <v>2.87</v>
-      </c>
       <c r="D64" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="E64" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="F64" t="n">
-        <v>100077.9177118881</v>
+        <v>1285545.490188112</v>
       </c>
       <c r="G64" t="n">
-        <v>2.772333333333336</v>
+        <v>2.76966666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,28 +2824,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="C65" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="D65" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="E65" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="F65" t="n">
-        <v>955955.8661</v>
+        <v>100077.9177118881</v>
       </c>
       <c r="G65" t="n">
-        <v>2.775000000000003</v>
+        <v>2.772333333333336</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2673,22 +2859,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="D66" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="E66" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="F66" t="n">
-        <v>1517469.7987</v>
+        <v>955955.8661</v>
       </c>
       <c r="G66" t="n">
-        <v>2.77816666666667</v>
+        <v>2.775000000000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2894,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C67" t="n">
         <v>2.9</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.89</v>
       </c>
       <c r="D67" t="n">
         <v>2.9</v>
       </c>
       <c r="E67" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F67" t="n">
-        <v>144406.0331</v>
+        <v>1517469.7987</v>
       </c>
       <c r="G67" t="n">
-        <v>2.781166666666669</v>
+        <v>2.77816666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2929,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="C68" t="n">
         <v>2.89</v>
@@ -2752,13 +2938,13 @@
         <v>2.9</v>
       </c>
       <c r="E68" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="F68" t="n">
-        <v>120977.5861</v>
+        <v>144406.0331</v>
       </c>
       <c r="G68" t="n">
-        <v>2.784166666666669</v>
+        <v>2.781166666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2784,16 +2970,16 @@
         <v>2.89</v>
       </c>
       <c r="D69" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="E69" t="n">
         <v>2.89</v>
       </c>
       <c r="F69" t="n">
-        <v>500145.3039</v>
+        <v>120977.5861</v>
       </c>
       <c r="G69" t="n">
-        <v>2.787166666666669</v>
+        <v>2.784166666666669</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2999,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="C70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="D70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="E70" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="F70" t="n">
-        <v>16124.8611</v>
+        <v>500145.3039</v>
       </c>
       <c r="G70" t="n">
-        <v>2.789333333333336</v>
+        <v>2.787166666666669</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +3046,10 @@
         <v>2.86</v>
       </c>
       <c r="F71" t="n">
-        <v>10001</v>
+        <v>16124.8611</v>
       </c>
       <c r="G71" t="n">
-        <v>2.791500000000002</v>
+        <v>2.789333333333336</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +3069,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="C72" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="D72" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="E72" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F72" t="n">
-        <v>146164.9304</v>
+        <v>10001</v>
       </c>
       <c r="G72" t="n">
-        <v>2.793666666666669</v>
+        <v>2.791500000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +3104,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="C73" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="D73" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="E73" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="F73" t="n">
-        <v>50000</v>
+        <v>146164.9304</v>
       </c>
       <c r="G73" t="n">
-        <v>2.795333333333336</v>
+        <v>2.793666666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +3151,10 @@
         <v>2.84</v>
       </c>
       <c r="F74" t="n">
-        <v>84068.7496</v>
+        <v>50000</v>
       </c>
       <c r="G74" t="n">
-        <v>2.796833333333336</v>
+        <v>2.795333333333336</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3174,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="C75" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="D75" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="E75" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="F75" t="n">
-        <v>2938283.5343</v>
+        <v>84068.7496</v>
       </c>
       <c r="G75" t="n">
-        <v>2.799333333333336</v>
+        <v>2.796833333333336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3209,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="C76" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="D76" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="E76" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="F76" t="n">
-        <v>500000</v>
+        <v>2938283.5343</v>
       </c>
       <c r="G76" t="n">
-        <v>2.801500000000003</v>
+        <v>2.799333333333336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3256,10 @@
         <v>2.89</v>
       </c>
       <c r="F77" t="n">
-        <v>815931.2504</v>
+        <v>500000</v>
       </c>
       <c r="G77" t="n">
-        <v>2.803666666666669</v>
+        <v>2.801500000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3279,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="C78" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="D78" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E78" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="F78" t="n">
-        <v>816529.1029000001</v>
+        <v>815931.2504</v>
       </c>
       <c r="G78" t="n">
-        <v>2.805500000000003</v>
+        <v>2.803666666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3314,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="C79" t="n">
         <v>2.87</v>
       </c>
       <c r="D79" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E79" t="n">
         <v>2.87</v>
       </c>
-      <c r="E79" t="n">
-        <v>2.86</v>
-      </c>
       <c r="F79" t="n">
-        <v>325815.9628</v>
+        <v>816529.1029000001</v>
       </c>
       <c r="G79" t="n">
-        <v>2.807500000000003</v>
+        <v>2.805500000000003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3349,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="C80" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="D80" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="E80" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="F80" t="n">
-        <v>969323.7311</v>
+        <v>325815.9628</v>
       </c>
       <c r="G80" t="n">
-        <v>2.810000000000003</v>
+        <v>2.807500000000003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3384,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="C81" t="n">
         <v>2.9</v>
@@ -3207,13 +3393,13 @@
         <v>2.9</v>
       </c>
       <c r="E81" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F81" t="n">
-        <v>2051736.3817</v>
+        <v>969323.7311</v>
       </c>
       <c r="G81" t="n">
-        <v>2.812500000000003</v>
+        <v>2.810000000000003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3419,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="C82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E82" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F82" t="n">
-        <v>176550.8591</v>
+        <v>2051736.3817</v>
       </c>
       <c r="G82" t="n">
-        <v>2.815000000000003</v>
+        <v>2.812500000000003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3466,10 @@
         <v>2.91</v>
       </c>
       <c r="F83" t="n">
-        <v>944699.3005</v>
+        <v>176550.8591</v>
       </c>
       <c r="G83" t="n">
-        <v>2.817500000000003</v>
+        <v>2.815000000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3489,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="C84" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E84" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F84" t="n">
-        <v>383223.5713</v>
+        <v>944699.3005</v>
       </c>
       <c r="G84" t="n">
-        <v>2.820500000000003</v>
+        <v>2.817500000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3524,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="C85" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="D85" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="E85" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="F85" t="n">
-        <v>36453.0029</v>
+        <v>383223.5713</v>
       </c>
       <c r="G85" t="n">
-        <v>2.82316666666667</v>
+        <v>2.820500000000003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3559,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C86" t="n">
         <v>2.91</v>
       </c>
-      <c r="C86" t="n">
-        <v>2.94</v>
-      </c>
       <c r="D86" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="E86" t="n">
         <v>2.91</v>
       </c>
       <c r="F86" t="n">
-        <v>117495.8244</v>
+        <v>36453.0029</v>
       </c>
       <c r="G86" t="n">
-        <v>2.826333333333336</v>
+        <v>2.82316666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3597,19 @@
         <v>2.91</v>
       </c>
       <c r="C87" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="D87" t="n">
         <v>2.94</v>
       </c>
       <c r="E87" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="F87" t="n">
-        <v>271387.7506</v>
+        <v>117495.8244</v>
       </c>
       <c r="G87" t="n">
-        <v>2.829333333333337</v>
+        <v>2.826333333333336</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3629,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="C88" t="n">
         <v>2.9</v>
       </c>
       <c r="D88" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="E88" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="F88" t="n">
-        <v>9364.413699999999</v>
+        <v>271387.7506</v>
       </c>
       <c r="G88" t="n">
-        <v>2.832000000000003</v>
+        <v>2.829333333333337</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3664,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="C89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="D89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="E89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="F89" t="n">
-        <v>5201.0416</v>
+        <v>9364.413699999999</v>
       </c>
       <c r="G89" t="n">
-        <v>2.83416666666667</v>
+        <v>2.832000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3699,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="C90" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="D90" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="E90" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="F90" t="n">
-        <v>468516.2317</v>
+        <v>5201.0416</v>
       </c>
       <c r="G90" t="n">
-        <v>2.83616666666667</v>
+        <v>2.83416666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3737,19 @@
         <v>2.86</v>
       </c>
       <c r="C91" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="D91" t="n">
         <v>2.86</v>
       </c>
       <c r="E91" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="F91" t="n">
-        <v>17632.3788</v>
+        <v>468516.2317</v>
       </c>
       <c r="G91" t="n">
-        <v>2.83816666666667</v>
+        <v>2.83616666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3769,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="C92" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="D92" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="E92" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F92" t="n">
-        <v>71095.07829999999</v>
+        <v>17632.3788</v>
       </c>
       <c r="G92" t="n">
-        <v>2.840333333333336</v>
+        <v>2.83816666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3807,19 @@
         <v>2.88</v>
       </c>
       <c r="C93" t="n">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="D93" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="E93" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F93" t="n">
-        <v>866</v>
+        <v>71095.07829999999</v>
       </c>
       <c r="G93" t="n">
-        <v>2.842500000000003</v>
+        <v>2.840333333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3839,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="C94" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="D94" t="n">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="E94" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="F94" t="n">
-        <v>19999.9999</v>
+        <v>866</v>
       </c>
       <c r="G94" t="n">
-        <v>2.844333333333337</v>
+        <v>2.842500000000003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3874,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="C95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="D95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="E95" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="F95" t="n">
-        <v>6155.3679</v>
+        <v>19999.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>2.845833333333337</v>
+        <v>2.844333333333337</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3909,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="C96" t="n">
         <v>2.85</v>
       </c>
       <c r="D96" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="E96" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="F96" t="n">
-        <v>2243271.2639</v>
+        <v>6155.3679</v>
       </c>
       <c r="G96" t="n">
-        <v>2.84716666666667</v>
+        <v>2.845833333333337</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3944,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C97" t="n">
         <v>2.85</v>
       </c>
-      <c r="C97" t="n">
-        <v>2.87</v>
-      </c>
       <c r="D97" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="E97" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="F97" t="n">
-        <v>38477.9399</v>
+        <v>2243271.2639</v>
       </c>
       <c r="G97" t="n">
-        <v>2.849000000000003</v>
+        <v>2.84716666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3979,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C98" t="n">
         <v>2.87</v>
       </c>
-      <c r="C98" t="n">
-        <v>2.88</v>
-      </c>
       <c r="D98" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="E98" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="F98" t="n">
-        <v>71658.08719999999</v>
+        <v>38477.9399</v>
       </c>
       <c r="G98" t="n">
-        <v>2.850833333333336</v>
+        <v>2.849000000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4014,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C99" t="n">
         <v>2.88</v>
       </c>
-      <c r="C99" t="n">
-        <v>2.89</v>
-      </c>
       <c r="D99" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="E99" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F99" t="n">
-        <v>906838.6989</v>
+        <v>71658.08719999999</v>
       </c>
       <c r="G99" t="n">
-        <v>2.85266666666667</v>
+        <v>2.850833333333336</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +4049,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="C100" t="n">
         <v>2.89</v>
@@ -3872,13 +4058,13 @@
         <v>2.89</v>
       </c>
       <c r="E100" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="F100" t="n">
-        <v>76953.8535</v>
+        <v>906838.6989</v>
       </c>
       <c r="G100" t="n">
-        <v>2.854833333333336</v>
+        <v>2.85266666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +4087,19 @@
         <v>2.89</v>
       </c>
       <c r="C101" t="n">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="D101" t="n">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="E101" t="n">
         <v>2.89</v>
       </c>
       <c r="F101" t="n">
-        <v>780484.6149</v>
+        <v>76953.8535</v>
       </c>
       <c r="G101" t="n">
-        <v>2.857166666666669</v>
+        <v>2.854833333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4119,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="C102" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D102" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="E102" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F102" t="n">
-        <v>27632.2864</v>
+        <v>780484.6149</v>
       </c>
       <c r="G102" t="n">
-        <v>2.859166666666669</v>
+        <v>2.857166666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +4166,10 @@
         <v>2.9</v>
       </c>
       <c r="F103" t="n">
-        <v>3613.7931</v>
+        <v>27632.2864</v>
       </c>
       <c r="G103" t="n">
-        <v>2.861000000000003</v>
+        <v>2.859166666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4201,10 @@
         <v>2.9</v>
       </c>
       <c r="F104" t="n">
-        <v>250003.928</v>
+        <v>3613.7931</v>
       </c>
       <c r="G104" t="n">
-        <v>2.862666666666669</v>
+        <v>2.861000000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4224,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="C105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="D105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="E105" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>250003.928</v>
       </c>
       <c r="G105" t="n">
-        <v>2.864833333333336</v>
+        <v>2.862666666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4259,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="C106" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="D106" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="E106" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="F106" t="n">
-        <v>1111111</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>2.866833333333335</v>
+        <v>2.864833333333336</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,7 +4294,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="C107" t="n">
         <v>2.92</v>
@@ -4117,13 +4303,13 @@
         <v>2.92</v>
       </c>
       <c r="E107" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F107" t="n">
-        <v>744444</v>
+        <v>1111111</v>
       </c>
       <c r="G107" t="n">
-        <v>2.868833333333335</v>
+        <v>2.866833333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4341,10 @@
         <v>2.92</v>
       </c>
       <c r="F108" t="n">
-        <v>21421.5488</v>
+        <v>744444</v>
       </c>
       <c r="G108" t="n">
-        <v>2.870833333333335</v>
+        <v>2.868833333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4367,19 @@
         <v>2.92</v>
       </c>
       <c r="C109" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D109" t="n">
         <v>2.92</v>
       </c>
       <c r="E109" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="F109" t="n">
-        <v>251278.8199</v>
+        <v>21421.5488</v>
       </c>
       <c r="G109" t="n">
-        <v>2.872500000000001</v>
+        <v>2.870833333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4402,19 @@
         <v>2.92</v>
       </c>
       <c r="C110" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="D110" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="E110" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="F110" t="n">
-        <v>467094.2539</v>
+        <v>251278.8199</v>
       </c>
       <c r="G110" t="n">
-        <v>2.875500000000001</v>
+        <v>2.872500000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,7 +4434,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C111" t="n">
         <v>2.94</v>
@@ -4257,13 +4443,13 @@
         <v>2.94</v>
       </c>
       <c r="E111" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="F111" t="n">
-        <v>202568.7074</v>
+        <v>467094.2539</v>
       </c>
       <c r="G111" t="n">
-        <v>2.877833333333335</v>
+        <v>2.875500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,7 +4469,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C112" t="n">
         <v>2.94</v>
@@ -4292,13 +4478,13 @@
         <v>2.94</v>
       </c>
       <c r="E112" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F112" t="n">
-        <v>44666</v>
+        <v>202568.7074</v>
       </c>
       <c r="G112" t="n">
-        <v>2.879833333333335</v>
+        <v>2.877833333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4504,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C113" t="n">
         <v>2.94</v>
       </c>
-      <c r="C113" t="n">
-        <v>2.95</v>
-      </c>
       <c r="D113" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E113" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="F113" t="n">
-        <v>2716406.6268</v>
+        <v>44666</v>
       </c>
       <c r="G113" t="n">
-        <v>2.882000000000001</v>
+        <v>2.879833333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4539,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="C114" t="n">
         <v>2.95</v>
@@ -4362,13 +4548,13 @@
         <v>2.95</v>
       </c>
       <c r="E114" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F114" t="n">
-        <v>985625.0845999999</v>
+        <v>2716406.6268</v>
       </c>
       <c r="G114" t="n">
-        <v>2.883666666666668</v>
+        <v>2.882000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4577,19 @@
         <v>2.95</v>
       </c>
       <c r="C115" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="D115" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="E115" t="n">
         <v>2.95</v>
       </c>
       <c r="F115" t="n">
-        <v>830341.3467</v>
+        <v>985625.0845999999</v>
       </c>
       <c r="G115" t="n">
-        <v>2.885833333333335</v>
+        <v>2.883666666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,28 +4609,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="C116" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="D116" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E116" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="F116" t="n">
-        <v>161358.9639</v>
+        <v>830341.3467</v>
       </c>
       <c r="G116" t="n">
-        <v>2.888833333333334</v>
+        <v>2.885833333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4461,19 +4647,19 @@
         <v>2.98</v>
       </c>
       <c r="C117" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="D117" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="E117" t="n">
         <v>2.98</v>
       </c>
       <c r="F117" t="n">
-        <v>1421545.2133</v>
+        <v>161358.9639</v>
       </c>
       <c r="G117" t="n">
-        <v>2.893166666666667</v>
+        <v>2.888833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4679,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="C118" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D118" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="F118" t="n">
-        <v>2227681.394</v>
+        <v>1421545.2133</v>
       </c>
       <c r="G118" t="n">
-        <v>2.896333333333334</v>
+        <v>2.893166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4717,19 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="D119" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="E119" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>1802679.6958</v>
+        <v>2227681.394</v>
       </c>
       <c r="G119" t="n">
-        <v>2.899166666666667</v>
+        <v>2.896333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,28 +4749,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="D120" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="E120" t="n">
         <v>2.97</v>
       </c>
       <c r="F120" t="n">
-        <v>1645978.7069</v>
+        <v>1802679.6958</v>
       </c>
       <c r="G120" t="n">
-        <v>2.9025</v>
+        <v>2.899166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4598,22 +4784,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C121" t="n">
         <v>3.04</v>
       </c>
-      <c r="C121" t="n">
-        <v>3.05</v>
-      </c>
       <c r="D121" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E121" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="F121" t="n">
-        <v>865087.8289</v>
+        <v>1645978.7069</v>
       </c>
       <c r="G121" t="n">
-        <v>2.906333333333334</v>
+        <v>2.9025</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4819,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C122" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="D122" t="n">
         <v>3.05</v>
       </c>
       <c r="E122" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="F122" t="n">
-        <v>884675.4935</v>
+        <v>865087.8289</v>
       </c>
       <c r="G122" t="n">
-        <v>2.909333333333334</v>
+        <v>2.906333333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,28 +4854,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="C123" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D123" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E123" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="F123" t="n">
-        <v>237813.4579</v>
+        <v>884675.4935</v>
       </c>
       <c r="G123" t="n">
-        <v>2.912</v>
+        <v>2.909333333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4703,28 +4889,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="C124" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="D124" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E124" t="n">
         <v>3.02</v>
       </c>
-      <c r="E124" t="n">
-        <v>3</v>
-      </c>
       <c r="F124" t="n">
-        <v>1252342.5563</v>
+        <v>237813.4579</v>
       </c>
       <c r="G124" t="n">
-        <v>2.914333333333333</v>
+        <v>2.912</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4741,19 +4927,19 @@
         <v>3.01</v>
       </c>
       <c r="C125" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="D125" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="E125" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>630197.11</v>
+        <v>1252342.5563</v>
       </c>
       <c r="G125" t="n">
-        <v>2.917333333333334</v>
+        <v>2.914333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,10 +4959,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C126" t="n">
         <v>3.03</v>
-      </c>
-      <c r="C126" t="n">
-        <v>3.01</v>
       </c>
       <c r="D126" t="n">
         <v>3.03</v>
@@ -4785,10 +4971,10 @@
         <v>3.01</v>
       </c>
       <c r="F126" t="n">
-        <v>440231.3775</v>
+        <v>630197.11</v>
       </c>
       <c r="G126" t="n">
-        <v>2.919166666666667</v>
+        <v>2.917333333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4994,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C127" t="n">
         <v>3.01</v>
       </c>
-      <c r="C127" t="n">
-        <v>2.98</v>
-      </c>
       <c r="D127" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E127" t="n">
         <v>3.01</v>
       </c>
-      <c r="E127" t="n">
-        <v>2.98</v>
-      </c>
       <c r="F127" t="n">
-        <v>909473.9508</v>
+        <v>440231.3775</v>
       </c>
       <c r="G127" t="n">
-        <v>2.920666666666667</v>
+        <v>2.919166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5029,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="C128" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="D128" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="E128" t="n">
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
       <c r="F128" t="n">
-        <v>2728678.1841</v>
+        <v>909473.9508</v>
       </c>
       <c r="G128" t="n">
-        <v>2.922333333333334</v>
+        <v>2.920666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +5064,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="C129" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="D129" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="E129" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="F129" t="n">
-        <v>16891.8918</v>
+        <v>2728678.1841</v>
       </c>
       <c r="G129" t="n">
-        <v>2.923500000000001</v>
+        <v>2.922333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +5102,19 @@
         <v>2.96</v>
       </c>
       <c r="C130" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="D130" t="n">
         <v>2.96</v>
       </c>
       <c r="E130" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="F130" t="n">
-        <v>53056.3239</v>
+        <v>16891.8918</v>
       </c>
       <c r="G130" t="n">
-        <v>2.924333333333334</v>
+        <v>2.923500000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5134,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C131" t="n">
         <v>2.91</v>
       </c>
-      <c r="C131" t="n">
-        <v>2.9</v>
-      </c>
       <c r="D131" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E131" t="n">
         <v>2.91</v>
       </c>
-      <c r="E131" t="n">
-        <v>2.9</v>
-      </c>
       <c r="F131" t="n">
-        <v>126478.7854</v>
+        <v>53056.3239</v>
       </c>
       <c r="G131" t="n">
-        <v>2.925</v>
+        <v>2.924333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,7 +5169,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="C132" t="n">
         <v>2.9</v>
@@ -4995,10 +5181,10 @@
         <v>2.9</v>
       </c>
       <c r="F132" t="n">
-        <v>173227.076</v>
+        <v>126478.7854</v>
       </c>
       <c r="G132" t="n">
-        <v>2.925333333333334</v>
+        <v>2.925</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5024,16 +5210,16 @@
         <v>2.9</v>
       </c>
       <c r="D133" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E133" t="n">
         <v>2.9</v>
       </c>
-      <c r="E133" t="n">
-        <v>2.89</v>
-      </c>
       <c r="F133" t="n">
-        <v>100828.6395</v>
+        <v>173227.076</v>
       </c>
       <c r="G133" t="n">
-        <v>2.926333333333334</v>
+        <v>2.925333333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5062,13 +5248,13 @@
         <v>2.9</v>
       </c>
       <c r="E134" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F134" t="n">
-        <v>11158.7657</v>
+        <v>100828.6395</v>
       </c>
       <c r="G134" t="n">
-        <v>2.927333333333334</v>
+        <v>2.926333333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5274,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="C135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="D135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E135" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F135" t="n">
-        <v>1385504.0877</v>
+        <v>11158.7657</v>
       </c>
       <c r="G135" t="n">
-        <v>2.927500000000001</v>
+        <v>2.927333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5309,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="C136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="D136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="E136" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="F136" t="n">
-        <v>643.1186</v>
+        <v>1385504.0877</v>
       </c>
       <c r="G136" t="n">
-        <v>2.928500000000001</v>
+        <v>2.927500000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5356,10 @@
         <v>2.95</v>
       </c>
       <c r="F137" t="n">
-        <v>1361849.1525</v>
+        <v>643.1186</v>
       </c>
       <c r="G137" t="n">
-        <v>2.9295</v>
+        <v>2.928500000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5379,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="C138" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="D138" t="n">
         <v>2.95</v>
       </c>
       <c r="E138" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="F138" t="n">
-        <v>265507.3234</v>
+        <v>1361849.1525</v>
       </c>
       <c r="G138" t="n">
-        <v>2.930500000000001</v>
+        <v>2.9295</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5414,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="C139" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="D139" t="n">
         <v>2.95</v>
       </c>
       <c r="E139" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="F139" t="n">
-        <v>831222.7201</v>
+        <v>265507.3234</v>
       </c>
       <c r="G139" t="n">
-        <v>2.931833333333334</v>
+        <v>2.930500000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5449,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="C140" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="D140" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="E140" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F140" t="n">
-        <v>1117991.4006</v>
+        <v>831222.7201</v>
       </c>
       <c r="G140" t="n">
-        <v>2.932833333333334</v>
+        <v>2.931833333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5307,13 +5493,13 @@
         <v>2.96</v>
       </c>
       <c r="E141" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="F141" t="n">
-        <v>78755.7138</v>
+        <v>1117991.4006</v>
       </c>
       <c r="G141" t="n">
-        <v>2.933833333333334</v>
+        <v>2.932833333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5519,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="C142" t="n">
         <v>2.96</v>
@@ -5342,13 +5528,13 @@
         <v>2.96</v>
       </c>
       <c r="E142" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="F142" t="n">
-        <v>605296.5622</v>
+        <v>78755.7138</v>
       </c>
       <c r="G142" t="n">
-        <v>2.934666666666667</v>
+        <v>2.933833333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5554,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C143" t="n">
         <v>2.96</v>
       </c>
-      <c r="C143" t="n">
-        <v>2.99</v>
-      </c>
       <c r="D143" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="E143" t="n">
         <v>2.95</v>
       </c>
       <c r="F143" t="n">
-        <v>1032545.8693</v>
+        <v>605296.5622</v>
       </c>
       <c r="G143" t="n">
-        <v>2.936000000000001</v>
+        <v>2.934666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,7 +5589,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="C144" t="n">
         <v>2.99</v>
@@ -5412,13 +5598,13 @@
         <v>2.99</v>
       </c>
       <c r="E144" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="F144" t="n">
-        <v>216841.0032</v>
+        <v>1032545.8693</v>
       </c>
       <c r="G144" t="n">
-        <v>2.937000000000001</v>
+        <v>2.936000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5636,10 @@
         <v>2.99</v>
       </c>
       <c r="F145" t="n">
-        <v>29057.1569</v>
+        <v>216841.0032</v>
       </c>
       <c r="G145" t="n">
-        <v>2.938333333333334</v>
+        <v>2.937000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5659,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="C146" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="D146" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="E146" t="n">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="F146" t="n">
-        <v>5159.405</v>
+        <v>29057.1569</v>
       </c>
       <c r="G146" t="n">
-        <v>2.938833333333335</v>
+        <v>2.938333333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5694,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="C147" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="D147" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E147" t="n">
         <v>2.96</v>
       </c>
       <c r="F147" t="n">
-        <v>632679.9496000001</v>
+        <v>5159.405</v>
       </c>
       <c r="G147" t="n">
-        <v>2.939833333333334</v>
+        <v>2.938833333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5732,19 @@
         <v>2.98</v>
       </c>
       <c r="C148" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="D148" t="n">
         <v>2.98</v>
       </c>
       <c r="E148" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>632679.9496000001</v>
       </c>
       <c r="G148" t="n">
-        <v>2.941166666666668</v>
+        <v>2.939833333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5764,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="C149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="D149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="E149" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="F149" t="n">
-        <v>22452.1043</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>2.942666666666668</v>
+        <v>2.941166666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5811,10 @@
         <v>2.97</v>
       </c>
       <c r="F150" t="n">
-        <v>7244.8292</v>
+        <v>22452.1043</v>
       </c>
       <c r="G150" t="n">
-        <v>2.944666666666668</v>
+        <v>2.942666666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5834,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="D151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E151" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="F151" t="n">
-        <v>92829.4906</v>
+        <v>7244.8292</v>
       </c>
       <c r="G151" t="n">
-        <v>2.946666666666667</v>
+        <v>2.944666666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5869,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="C152" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="D152" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="E152" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="F152" t="n">
-        <v>485469.6057</v>
+        <v>92829.4906</v>
       </c>
       <c r="G152" t="n">
-        <v>2.948333333333334</v>
+        <v>2.946666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5904,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C153" t="n">
         <v>2.97</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2.95</v>
       </c>
       <c r="D153" t="n">
         <v>2.97</v>
       </c>
       <c r="E153" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="F153" t="n">
-        <v>19340.4532</v>
+        <v>485469.6057</v>
       </c>
       <c r="G153" t="n">
-        <v>2.949333333333334</v>
+        <v>2.948333333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5939,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C154" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="D154" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E154" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="F154" t="n">
-        <v>15801.1912</v>
+        <v>19340.4532</v>
       </c>
       <c r="G154" t="n">
-        <v>2.951166666666667</v>
+        <v>2.949333333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5974,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="C155" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="D155" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="E155" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="F155" t="n">
-        <v>134937.3972</v>
+        <v>15801.1912</v>
       </c>
       <c r="G155" t="n">
-        <v>2.952333333333334</v>
+        <v>2.951166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +6009,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C156" t="n">
         <v>2.92</v>
       </c>
-      <c r="C156" t="n">
-        <v>2.89</v>
-      </c>
       <c r="D156" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E156" t="n">
         <v>2.92</v>
       </c>
-      <c r="E156" t="n">
-        <v>2.89</v>
-      </c>
       <c r="F156" t="n">
-        <v>873690.3588</v>
+        <v>134937.3972</v>
       </c>
       <c r="G156" t="n">
-        <v>2.953</v>
+        <v>2.952333333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6044,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="C157" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="D157" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="E157" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F157" t="n">
-        <v>507589.3366</v>
+        <v>873690.3588</v>
       </c>
       <c r="G157" t="n">
-        <v>2.9535</v>
+        <v>2.953</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6079,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C158" t="n">
         <v>2.9</v>
       </c>
-      <c r="C158" t="n">
-        <v>2.92</v>
-      </c>
       <c r="D158" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="E158" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="F158" t="n">
-        <v>194337.2302</v>
+        <v>507589.3366</v>
       </c>
       <c r="G158" t="n">
-        <v>2.954166666666667</v>
+        <v>2.9535</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6114,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="C159" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="D159" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="E159" t="n">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="F159" t="n">
-        <v>186652.3569</v>
+        <v>194337.2302</v>
       </c>
       <c r="G159" t="n">
-        <v>2.954833333333334</v>
+        <v>2.954166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5972,13 +6158,13 @@
         <v>2.93</v>
       </c>
       <c r="E160" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="F160" t="n">
-        <v>144992.7123</v>
+        <v>186652.3569</v>
       </c>
       <c r="G160" t="n">
-        <v>2.955500000000001</v>
+        <v>2.954833333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6007,13 +6193,13 @@
         <v>2.93</v>
       </c>
       <c r="E161" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="F161" t="n">
-        <v>52847.7978</v>
+        <v>144992.7123</v>
       </c>
       <c r="G161" t="n">
-        <v>2.955666666666668</v>
+        <v>2.955500000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6219,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="C162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="D162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="E162" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="F162" t="n">
-        <v>20000</v>
+        <v>52847.7978</v>
       </c>
       <c r="G162" t="n">
-        <v>2.956666666666668</v>
+        <v>2.955666666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6254,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="C163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="D163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="E163" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="F163" t="n">
-        <v>52392.2505</v>
+        <v>20000</v>
       </c>
       <c r="G163" t="n">
-        <v>2.957333333333334</v>
+        <v>2.956666666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6301,10 @@
         <v>2.94</v>
       </c>
       <c r="F164" t="n">
-        <v>145891.6875</v>
+        <v>52392.2505</v>
       </c>
       <c r="G164" t="n">
-        <v>2.958000000000001</v>
+        <v>2.957333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6336,10 @@
         <v>2.94</v>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>145891.6875</v>
       </c>
       <c r="G165" t="n">
-        <v>2.958166666666667</v>
+        <v>2.958000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6371,10 @@
         <v>2.94</v>
       </c>
       <c r="F166" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G166" t="n">
-        <v>2.958500000000001</v>
+        <v>2.958166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6394,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="D167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="E167" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F167" t="n">
-        <v>100000</v>
+        <v>400</v>
       </c>
       <c r="G167" t="n">
-        <v>2.958666666666668</v>
+        <v>2.958500000000001</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,23 +6441,19 @@
         <v>2.93</v>
       </c>
       <c r="F168" t="n">
-        <v>39037.7742</v>
+        <v>100000</v>
       </c>
       <c r="G168" t="n">
-        <v>2.958833333333335</v>
+        <v>2.958666666666668</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K168" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
@@ -6282,40 +6464,32 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="C169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="D169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="E169" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="F169" t="n">
-        <v>50000</v>
+        <v>39037.7742</v>
       </c>
       <c r="G169" t="n">
-        <v>2.959166666666668</v>
+        <v>2.958833333333335</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K169" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6325,19 +6499,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="D170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="E170" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="F170" t="n">
-        <v>13354.4763</v>
+        <v>50000</v>
       </c>
       <c r="G170" t="n">
         <v>2.959166666666668</v>
@@ -6349,14 +6523,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6366,22 +6534,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="C171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E171" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F171" t="n">
-        <v>210850</v>
+        <v>13354.4763</v>
       </c>
       <c r="G171" t="n">
-        <v>2.959333333333334</v>
+        <v>2.959166666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6404,19 +6572,19 @@
         <v>2.95</v>
       </c>
       <c r="C172" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="D172" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="E172" t="n">
         <v>2.95</v>
       </c>
       <c r="F172" t="n">
-        <v>68558.5324</v>
+        <v>210850</v>
       </c>
       <c r="G172" t="n">
-        <v>2.959833333333334</v>
+        <v>2.959333333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6439,19 +6607,19 @@
         <v>2.95</v>
       </c>
       <c r="C173" t="n">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="D173" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E173" t="n">
         <v>2.95</v>
       </c>
-      <c r="E173" t="n">
-        <v>2.94</v>
-      </c>
       <c r="F173" t="n">
-        <v>31052</v>
+        <v>68558.5324</v>
       </c>
       <c r="G173" t="n">
-        <v>2.959666666666668</v>
+        <v>2.959833333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,22 +6639,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="C174" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="D174" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="E174" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F174" t="n">
-        <v>1499.25</v>
+        <v>31052</v>
       </c>
       <c r="G174" t="n">
-        <v>2.959333333333335</v>
+        <v>2.959666666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6509,19 +6677,19 @@
         <v>2.93</v>
       </c>
       <c r="C175" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="D175" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="E175" t="n">
         <v>2.93</v>
       </c>
       <c r="F175" t="n">
-        <v>120958.045</v>
+        <v>1499.25</v>
       </c>
       <c r="G175" t="n">
-        <v>2.958833333333335</v>
+        <v>2.959333333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6544,19 +6712,19 @@
         <v>2.93</v>
       </c>
       <c r="C176" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="D176" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E176" t="n">
         <v>2.93</v>
       </c>
-      <c r="E176" t="n">
-        <v>2.89</v>
-      </c>
       <c r="F176" t="n">
-        <v>253328.2409</v>
+        <v>120958.045</v>
       </c>
       <c r="G176" t="n">
-        <v>2.957333333333335</v>
+        <v>2.958833333333335</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6576,22 +6744,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="C177" t="n">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="D177" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="E177" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="F177" t="n">
-        <v>380076.3402</v>
+        <v>253328.2409</v>
       </c>
       <c r="G177" t="n">
-        <v>2.955833333333335</v>
+        <v>2.957333333333335</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6611,7 +6779,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="C178" t="n">
         <v>2.94</v>
@@ -6620,13 +6788,13 @@
         <v>2.94</v>
       </c>
       <c r="E178" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="F178" t="n">
-        <v>41335.71428571428</v>
+        <v>380076.3402</v>
       </c>
       <c r="G178" t="n">
-        <v>2.954500000000001</v>
+        <v>2.955833333333335</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6658,10 +6826,10 @@
         <v>2.94</v>
       </c>
       <c r="F179" t="n">
-        <v>13181.9329</v>
+        <v>41335.71428571428</v>
       </c>
       <c r="G179" t="n">
-        <v>2.953333333333334</v>
+        <v>2.954500000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6690,13 +6858,13 @@
         <v>2.94</v>
       </c>
       <c r="E180" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="F180" t="n">
-        <v>47313.4921</v>
+        <v>13181.9329</v>
       </c>
       <c r="G180" t="n">
-        <v>2.951666666666668</v>
+        <v>2.953333333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6716,7 +6884,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C181" t="n">
         <v>2.94</v>
@@ -6725,13 +6893,13 @@
         <v>2.94</v>
       </c>
       <c r="E181" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="F181" t="n">
-        <v>54626.98</v>
+        <v>47313.4921</v>
       </c>
       <c r="G181" t="n">
-        <v>2.949833333333335</v>
+        <v>2.951666666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6754,19 +6922,19 @@
         <v>2.93</v>
       </c>
       <c r="C182" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="D182" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="E182" t="n">
         <v>2.93</v>
       </c>
       <c r="F182" t="n">
-        <v>204260.0387</v>
+        <v>54626.98</v>
       </c>
       <c r="G182" t="n">
-        <v>2.948166666666668</v>
+        <v>2.949833333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6786,22 +6954,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="C183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="D183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="E183" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="F183" t="n">
-        <v>251473.1034</v>
+        <v>204260.0387</v>
       </c>
       <c r="G183" t="n">
-        <v>2.946333333333334</v>
+        <v>2.948166666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6821,22 +6989,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="C184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="D184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="E184" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="F184" t="n">
-        <v>48982.1995</v>
+        <v>251473.1034</v>
       </c>
       <c r="G184" t="n">
-        <v>2.945000000000001</v>
+        <v>2.946333333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6856,22 +7024,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="C185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="D185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="E185" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="F185" t="n">
-        <v>67182.64079999999</v>
+        <v>48982.1995</v>
       </c>
       <c r="G185" t="n">
-        <v>2.943500000000001</v>
+        <v>2.945000000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6900,13 +7068,13 @@
         <v>2.94</v>
       </c>
       <c r="E186" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F186" t="n">
-        <v>86350.7025</v>
+        <v>67182.64079999999</v>
       </c>
       <c r="G186" t="n">
-        <v>2.942333333333335</v>
+        <v>2.943500000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6926,22 +7094,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C187" t="n">
         <v>2.94</v>
       </c>
       <c r="D187" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E187" t="n">
         <v>2.93</v>
       </c>
       <c r="F187" t="n">
-        <v>1652583.5013</v>
+        <v>86350.7025</v>
       </c>
       <c r="G187" t="n">
-        <v>2.941666666666668</v>
+        <v>2.942333333333335</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6961,22 +7129,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="C188" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D188" t="n">
         <v>2.95</v>
       </c>
       <c r="E188" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="F188" t="n">
-        <v>2248013.6686</v>
+        <v>1652583.5013</v>
       </c>
       <c r="G188" t="n">
-        <v>2.941000000000001</v>
+        <v>2.941666666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6996,22 +7164,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="C189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="D189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="E189" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="F189" t="n">
-        <v>3000</v>
+        <v>2248013.6686</v>
       </c>
       <c r="G189" t="n">
-        <v>2.940333333333334</v>
+        <v>2.941000000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7031,22 +7199,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="C190" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="D190" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="E190" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="F190" t="n">
-        <v>330659.5863</v>
+        <v>3000</v>
       </c>
       <c r="G190" t="n">
-        <v>2.940166666666668</v>
+        <v>2.940333333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7069,19 +7237,19 @@
         <v>2.91</v>
       </c>
       <c r="C191" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="D191" t="n">
         <v>2.91</v>
       </c>
       <c r="E191" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="F191" t="n">
-        <v>229527.7626</v>
+        <v>330659.5863</v>
       </c>
       <c r="G191" t="n">
-        <v>2.940333333333334</v>
+        <v>2.940166666666668</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7113,10 +7281,10 @@
         <v>2.91</v>
       </c>
       <c r="F192" t="n">
-        <v>222293.7499</v>
+        <v>229527.7626</v>
       </c>
       <c r="G192" t="n">
-        <v>2.940500000000001</v>
+        <v>2.940333333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7148,10 +7316,10 @@
         <v>2.91</v>
       </c>
       <c r="F193" t="n">
-        <v>788809.3671</v>
+        <v>222293.7499</v>
       </c>
       <c r="G193" t="n">
-        <v>2.940666666666667</v>
+        <v>2.940500000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7171,35 +7339,31 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="C194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="D194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="E194" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="F194" t="n">
-        <v>7268.7605</v>
+        <v>788809.3671</v>
       </c>
       <c r="G194" t="n">
         <v>2.940666666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K194" t="n">
-        <v>2.91</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
@@ -7210,40 +7374,32 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="C195" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="D195" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="E195" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="F195" t="n">
-        <v>46230</v>
+        <v>7268.7605</v>
       </c>
       <c r="G195" t="n">
-        <v>2.940166666666667</v>
+        <v>2.940666666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K195" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7256,37 +7412,29 @@
         <v>2.89</v>
       </c>
       <c r="C196" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="D196" t="n">
         <v>2.89</v>
       </c>
       <c r="E196" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F196" t="n">
-        <v>682923.5237</v>
+        <v>46230</v>
       </c>
       <c r="G196" t="n">
-        <v>2.938666666666668</v>
+        <v>2.940166666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K196" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7296,40 +7444,32 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="C197" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="D197" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E197" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F197" t="n">
-        <v>225256.3313</v>
+        <v>682923.5237</v>
       </c>
       <c r="G197" t="n">
-        <v>2.937333333333334</v>
+        <v>2.938666666666668</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7339,40 +7479,32 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="C198" t="n">
         <v>2.87</v>
       </c>
       <c r="D198" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E198" t="n">
         <v>2.87</v>
       </c>
       <c r="F198" t="n">
-        <v>58198.8688</v>
+        <v>225256.3313</v>
       </c>
       <c r="G198" t="n">
-        <v>2.936333333333335</v>
+        <v>2.937333333333334</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K198" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7394,28 +7526,20 @@
         <v>2.87</v>
       </c>
       <c r="F199" t="n">
-        <v>65814.8487</v>
+        <v>58198.8688</v>
       </c>
       <c r="G199" t="n">
-        <v>2.935000000000001</v>
+        <v>2.936333333333335</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K199" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7437,28 +7561,20 @@
         <v>2.87</v>
       </c>
       <c r="F200" t="n">
-        <v>5000</v>
+        <v>65814.8487</v>
       </c>
       <c r="G200" t="n">
-        <v>2.933500000000001</v>
+        <v>2.935000000000001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K200" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7468,40 +7584,32 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="C201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="D201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="E201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="F201" t="n">
-        <v>79078.62910000001</v>
+        <v>5000</v>
       </c>
       <c r="G201" t="n">
-        <v>2.932166666666668</v>
+        <v>2.933500000000001</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K201" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7511,40 +7619,32 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="C202" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="D202" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E202" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F202" t="n">
-        <v>170185.3173</v>
+        <v>79078.62910000001</v>
       </c>
       <c r="G202" t="n">
-        <v>2.930500000000001</v>
+        <v>2.932166666666668</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K202" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7554,40 +7654,32 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="C203" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="D203" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="E203" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="F203" t="n">
-        <v>117090.9984</v>
+        <v>170185.3173</v>
       </c>
       <c r="G203" t="n">
-        <v>2.928166666666668</v>
+        <v>2.930500000000001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K203" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7600,37 +7692,29 @@
         <v>2.85</v>
       </c>
       <c r="C204" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="D204" t="n">
         <v>2.85</v>
       </c>
       <c r="E204" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="F204" t="n">
-        <v>2257482.2607</v>
+        <v>117090.9984</v>
       </c>
       <c r="G204" t="n">
-        <v>2.925666666666667</v>
+        <v>2.928166666666668</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K204" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7640,40 +7724,32 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="C205" t="n">
         <v>2.84</v>
       </c>
       <c r="D205" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="E205" t="n">
         <v>2.84</v>
       </c>
       <c r="F205" t="n">
-        <v>2233574.0903</v>
+        <v>2257482.2607</v>
       </c>
       <c r="G205" t="n">
-        <v>2.923166666666667</v>
+        <v>2.925666666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K205" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7683,22 +7759,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="E206" t="n">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="F206" t="n">
-        <v>1963362.8227</v>
+        <v>2233574.0903</v>
       </c>
       <c r="G206" t="n">
-        <v>2.923666666666668</v>
+        <v>2.923166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7707,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7724,22 +7794,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="C207" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="F207" t="n">
-        <v>887800.7422</v>
+        <v>1963362.8227</v>
       </c>
       <c r="G207" t="n">
-        <v>2.923333333333334</v>
+        <v>2.923666666666668</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7748,14 +7818,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7765,22 +7829,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="C208" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="D208" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="E208" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="F208" t="n">
-        <v>41232.375</v>
+        <v>887800.7422</v>
       </c>
       <c r="G208" t="n">
-        <v>2.921666666666667</v>
+        <v>2.923333333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7789,14 +7853,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7806,22 +7864,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="C209" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="D209" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="E209" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F209" t="n">
-        <v>79584.93520000001</v>
+        <v>41232.375</v>
       </c>
       <c r="G209" t="n">
-        <v>2.919833333333334</v>
+        <v>2.921666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7830,14 +7888,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7847,22 +7899,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="C210" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="D210" t="n">
         <v>2.94</v>
       </c>
       <c r="E210" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="F210" t="n">
-        <v>30370</v>
+        <v>79584.93520000001</v>
       </c>
       <c r="G210" t="n">
-        <v>2.919333333333334</v>
+        <v>2.919833333333334</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7871,14 +7923,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7891,19 +7937,19 @@
         <v>2.94</v>
       </c>
       <c r="C211" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D211" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="E211" t="n">
         <v>2.94</v>
       </c>
       <c r="F211" t="n">
-        <v>96570.50840000001</v>
+        <v>30370</v>
       </c>
       <c r="G211" t="n">
-        <v>2.918833333333334</v>
+        <v>2.919333333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7912,14 +7958,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7929,22 +7969,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C212" t="n">
         <v>2.95</v>
       </c>
-      <c r="C212" t="n">
-        <v>3.01</v>
-      </c>
       <c r="D212" t="n">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="E212" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="F212" t="n">
-        <v>1652336.5422</v>
+        <v>96570.50840000001</v>
       </c>
       <c r="G212" t="n">
-        <v>2.919500000000001</v>
+        <v>2.918833333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7953,14 +7993,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7970,22 +8004,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C213" t="n">
         <v>3.01</v>
       </c>
-      <c r="C213" t="n">
-        <v>3.03</v>
-      </c>
       <c r="D213" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="E213" t="n">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="F213" t="n">
-        <v>2045030.137</v>
+        <v>1652336.5422</v>
       </c>
       <c r="G213" t="n">
-        <v>2.920833333333334</v>
+        <v>2.919500000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7994,14 +8028,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8011,22 +8039,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="C214" t="n">
         <v>3.03</v>
       </c>
       <c r="D214" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="E214" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="F214" t="n">
-        <v>525513.3898</v>
+        <v>2045030.137</v>
       </c>
       <c r="G214" t="n">
-        <v>2.921666666666668</v>
+        <v>2.920833333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8035,14 +8063,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8052,22 +8074,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="C215" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="D215" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E215" t="n">
         <v>3.03</v>
       </c>
-      <c r="E215" t="n">
-        <v>3.01</v>
-      </c>
       <c r="F215" t="n">
-        <v>419344.4925</v>
+        <v>525513.3898</v>
       </c>
       <c r="G215" t="n">
-        <v>2.923333333333335</v>
+        <v>2.921666666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8076,14 +8098,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8096,19 +8112,19 @@
         <v>3.02</v>
       </c>
       <c r="C216" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="D216" t="n">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="E216" t="n">
         <v>3.01</v>
       </c>
       <c r="F216" t="n">
-        <v>539702.4430778502</v>
+        <v>419344.4925</v>
       </c>
       <c r="G216" t="n">
-        <v>2.925833333333335</v>
+        <v>2.923333333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8117,14 +8133,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8134,22 +8144,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="C217" t="n">
         <v>3.04</v>
       </c>
       <c r="D217" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="E217" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="F217" t="n">
-        <v>193699.3549</v>
+        <v>539702.4430778502</v>
       </c>
       <c r="G217" t="n">
-        <v>2.928166666666668</v>
+        <v>2.925833333333335</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8158,14 +8168,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8187,10 +8191,10 @@
         <v>3.04</v>
       </c>
       <c r="F218" t="n">
-        <v>85292.7503</v>
+        <v>193699.3549</v>
       </c>
       <c r="G218" t="n">
-        <v>2.930166666666668</v>
+        <v>2.928166666666668</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8199,14 +8203,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8216,22 +8214,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C219" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="D219" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="E219" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="F219" t="n">
-        <v>243956.0102</v>
+        <v>85292.7503</v>
       </c>
       <c r="G219" t="n">
-        <v>2.931666666666668</v>
+        <v>2.930166666666668</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8240,14 +8238,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8257,22 +8249,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="C220" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="D220" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="E220" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="F220" t="n">
-        <v>20000</v>
+        <v>243956.0102</v>
       </c>
       <c r="G220" t="n">
-        <v>2.933666666666668</v>
+        <v>2.931666666666668</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8281,14 +8273,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8301,19 +8287,19 @@
         <v>3.05</v>
       </c>
       <c r="C221" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="D221" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="E221" t="n">
         <v>3.05</v>
       </c>
       <c r="F221" t="n">
-        <v>1949669.287673763</v>
+        <v>20000</v>
       </c>
       <c r="G221" t="n">
-        <v>2.936500000000001</v>
+        <v>2.933666666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8322,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8339,22 +8319,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C222" t="n">
         <v>3.1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.09</v>
       </c>
       <c r="D222" t="n">
         <v>3.1</v>
       </c>
       <c r="E222" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="F222" t="n">
-        <v>161333.2734483871</v>
+        <v>1949669.287673763</v>
       </c>
       <c r="G222" t="n">
-        <v>2.938666666666668</v>
+        <v>2.936500000000001</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8363,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8380,22 +8354,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="C223" t="n">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="D223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E223" t="n">
         <v>3.09</v>
       </c>
-      <c r="E223" t="n">
-        <v>3.07</v>
-      </c>
       <c r="F223" t="n">
-        <v>915741.3779058253</v>
+        <v>161333.2734483871</v>
       </c>
       <c r="G223" t="n">
-        <v>2.940833333333335</v>
+        <v>2.938666666666668</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8404,14 +8378,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8421,40 +8389,34 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="C224" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="D224" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="E224" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="F224" t="n">
-        <v>177347.8399</v>
+        <v>915741.3779058253</v>
       </c>
       <c r="G224" t="n">
-        <v>2.942833333333335</v>
+        <v>2.940833333333335</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>1.046546391752577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -8462,22 +8424,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="C225" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="D225" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="E225" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="F225" t="n">
-        <v>2081649.5114</v>
+        <v>177347.8399</v>
       </c>
       <c r="G225" t="n">
-        <v>2.945000000000001</v>
+        <v>2.942833333333335</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8509,10 +8471,10 @@
         <v>3.07</v>
       </c>
       <c r="F226" t="n">
-        <v>108101.7523</v>
+        <v>2081649.5114</v>
       </c>
       <c r="G226" t="n">
-        <v>2.947166666666668</v>
+        <v>2.945000000000001</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8532,22 +8494,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="C227" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="D227" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="E227" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="F227" t="n">
-        <v>77071.2405</v>
+        <v>108101.7523</v>
       </c>
       <c r="G227" t="n">
-        <v>2.949000000000001</v>
+        <v>2.947166666666668</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8567,22 +8529,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="C228" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="D228" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="E228" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="F228" t="n">
-        <v>164076.1568</v>
+        <v>77071.2405</v>
       </c>
       <c r="G228" t="n">
-        <v>2.950500000000001</v>
+        <v>2.949000000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8602,22 +8564,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="C229" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="D229" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="E229" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="F229" t="n">
-        <v>71881.8578</v>
+        <v>164076.1568</v>
       </c>
       <c r="G229" t="n">
-        <v>2.952500000000001</v>
+        <v>2.950500000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8649,10 +8611,10 @@
         <v>3.04</v>
       </c>
       <c r="F230" t="n">
-        <v>1079389.55</v>
+        <v>71881.8578</v>
       </c>
       <c r="G230" t="n">
-        <v>2.954166666666667</v>
+        <v>2.952500000000001</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8672,7 +8634,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="C231" t="n">
         <v>3.04</v>
@@ -8681,13 +8643,13 @@
         <v>3.04</v>
       </c>
       <c r="E231" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="F231" t="n">
-        <v>190238.3595</v>
+        <v>1079389.55</v>
       </c>
       <c r="G231" t="n">
-        <v>2.955666666666668</v>
+        <v>2.954166666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8702,6 +8664,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D232" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F232" t="n">
+        <v>190238.3595</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2.955666666666668</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>23757.4836</v>
       </c>
       <c r="G2" t="n">
+        <v>2.706666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.708499999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>8632.992899999999</v>
       </c>
       <c r="G3" t="n">
+        <v>2.707999999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.708833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>12157.9335</v>
       </c>
       <c r="G4" t="n">
+        <v>2.708666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.709</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>12127.5386</v>
       </c>
       <c r="G5" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.709</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.708833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>361483.5091</v>
       </c>
       <c r="G7" t="n">
+        <v>2.711333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.709000000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>1308.1724</v>
       </c>
       <c r="G8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.709000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,29 @@
         <v>16242.4354</v>
       </c>
       <c r="G9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.709000000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +805,29 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.709000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,24 +851,29 @@
         <v>819976.3306</v>
       </c>
       <c r="G11" t="n">
+        <v>2.710666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.709333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -804,24 +897,27 @@
         <v>64667.5824</v>
       </c>
       <c r="G12" t="n">
+        <v>2.711333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.709666666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -845,22 +941,27 @@
         <v>1337205.0909</v>
       </c>
       <c r="G13" t="n">
+        <v>2.713333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.710666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,22 +985,27 @@
         <v>123416.4547</v>
       </c>
       <c r="G14" t="n">
+        <v>2.715333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.711833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,22 +1029,27 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
+        <v>2.718</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.713166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,22 +1073,27 @@
         <v>181130.1818</v>
       </c>
       <c r="G16" t="n">
+        <v>2.721333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.713833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1001,22 +1117,27 @@
         <v>449748.4366</v>
       </c>
       <c r="G17" t="n">
+        <v>2.725333333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.7145</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1040,22 +1161,27 @@
         <v>25261.2318</v>
       </c>
       <c r="G18" t="n">
+        <v>2.727999999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.7155</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,22 +1205,27 @@
         <v>25465.942</v>
       </c>
       <c r="G19" t="n">
+        <v>2.731333333333332</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.7165</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,22 +1249,27 @@
         <v>76905.71460000001</v>
       </c>
       <c r="G20" t="n">
+        <v>2.733999999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.717</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1157,22 +1293,29 @@
         <v>163746.005</v>
       </c>
       <c r="G21" t="n">
+        <v>2.737999999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.717</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1339,27 @@
         <v>174579.7499</v>
       </c>
       <c r="G22" t="n">
+        <v>2.740666666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.717</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1235,22 +1383,29 @@
         <v>80000</v>
       </c>
       <c r="G23" t="n">
+        <v>2.743999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.7175</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,22 +1429,27 @@
         <v>28992.1195</v>
       </c>
       <c r="G24" t="n">
+        <v>2.747333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>2.717666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1313,22 +1473,27 @@
         <v>43317.449</v>
       </c>
       <c r="G25" t="n">
+        <v>2.749999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.718333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1352,22 +1517,27 @@
         <v>340857.8446</v>
       </c>
       <c r="G26" t="n">
+        <v>2.751333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.718833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,22 +1561,29 @@
         <v>101999.8812</v>
       </c>
       <c r="G27" t="n">
+        <v>2.752666666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.7195</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,22 +1607,27 @@
         <v>506074.0477</v>
       </c>
       <c r="G28" t="n">
+        <v>2.750666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.719333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1469,22 +1651,27 @@
         <v>19336.985</v>
       </c>
       <c r="G29" t="n">
+        <v>2.750666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.719666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1508,22 +1695,27 @@
         <v>17822</v>
       </c>
       <c r="G30" t="n">
+        <v>2.750666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>2.720333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1547,22 +1739,29 @@
         <v>174331</v>
       </c>
       <c r="G31" t="n">
+        <v>2.749333333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>2.720833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,22 +1785,29 @@
         <v>4630.7136</v>
       </c>
       <c r="G32" t="n">
+        <v>2.747999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.721333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1625,22 +1831,29 @@
         <v>26832</v>
       </c>
       <c r="G33" t="n">
+        <v>2.746666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>2.722</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1664,22 +1877,29 @@
         <v>273289.1223</v>
       </c>
       <c r="G34" t="n">
+        <v>2.746666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>2.723</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1703,22 +1923,29 @@
         <v>65231</v>
       </c>
       <c r="G35" t="n">
+        <v>2.747333333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>2.724000000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,22 +1969,29 @@
         <v>676101.8607</v>
       </c>
       <c r="G36" t="n">
+        <v>2.747999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>2.7245</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,22 +2015,27 @@
         <v>1095311.0186</v>
       </c>
       <c r="G37" t="n">
+        <v>2.749333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.725500000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,22 +2059,27 @@
         <v>189225.5514</v>
       </c>
       <c r="G38" t="n">
+        <v>2.749333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.726333333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1859,22 +2103,27 @@
         <v>8127.5733</v>
       </c>
       <c r="G39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H39" t="n">
         <v>2.727333333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,22 +2147,27 @@
         <v>214608.3572</v>
       </c>
       <c r="G40" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="H40" t="n">
         <v>2.7285</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1937,22 +2191,27 @@
         <v>50000</v>
       </c>
       <c r="G41" t="n">
+        <v>2.752666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>2.729333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,22 +2235,27 @@
         <v>42698.0058</v>
       </c>
       <c r="G42" t="n">
+        <v>2.754666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>2.730666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2015,22 +2279,27 @@
         <v>7301.9942</v>
       </c>
       <c r="G43" t="n">
+        <v>2.758666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>2.732</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,22 +2323,27 @@
         <v>615372.7301</v>
       </c>
       <c r="G44" t="n">
+        <v>2.762</v>
+      </c>
+      <c r="H44" t="n">
         <v>2.7335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,22 +2367,27 @@
         <v>283899.6353</v>
       </c>
       <c r="G45" t="n">
+        <v>2.765333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>2.735166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,22 +2411,27 @@
         <v>1997057.381</v>
       </c>
       <c r="G46" t="n">
+        <v>2.769999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>2.736833333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2171,22 +2455,27 @@
         <v>212277.4661</v>
       </c>
       <c r="G47" t="n">
+        <v>2.773999999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>2.738500000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,22 +2499,27 @@
         <v>262191.4285</v>
       </c>
       <c r="G48" t="n">
+        <v>2.777999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>2.740166666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,22 +2543,27 @@
         <v>934411.25</v>
       </c>
       <c r="G49" t="n">
+        <v>2.780666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>2.741833333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,22 +2587,27 @@
         <v>728333</v>
       </c>
       <c r="G50" t="n">
+        <v>2.783333333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>2.743666666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,22 +2631,27 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
+        <v>2.783333333333332</v>
+      </c>
+      <c r="H51" t="n">
         <v>2.744833333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,22 +2675,27 @@
         <v>200</v>
       </c>
       <c r="G52" t="n">
+        <v>2.785333333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>2.746666666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,22 +2719,27 @@
         <v>2140458.4728</v>
       </c>
       <c r="G53" t="n">
+        <v>2.789333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>2.748166666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,22 +2763,27 @@
         <v>189070.2127</v>
       </c>
       <c r="G54" t="n">
+        <v>2.792666666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>2.750000000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,22 +2807,27 @@
         <v>222861.8771</v>
       </c>
       <c r="G55" t="n">
+        <v>2.797333333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>2.752333333333335</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,22 +2851,29 @@
         <v>80010</v>
       </c>
       <c r="G56" t="n">
+        <v>2.802666666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>2.754333333333336</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2559,18 +2895,27 @@
         <v>555</v>
       </c>
       <c r="G57" t="n">
+        <v>2.803999999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>2.755666666666669</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,18 +2939,27 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
+        <v>2.803333333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>2.756500000000003</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2629,18 +2983,27 @@
         <v>147172.4743</v>
       </c>
       <c r="G59" t="n">
+        <v>2.805999999999998</v>
+      </c>
+      <c r="H59" t="n">
         <v>2.758500000000003</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,18 +3027,27 @@
         <v>23264.1508</v>
       </c>
       <c r="G60" t="n">
+        <v>2.808666666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>2.760666666666669</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2699,18 +3071,27 @@
         <v>1064152.8931</v>
       </c>
       <c r="G61" t="n">
+        <v>2.811333333333331</v>
+      </c>
+      <c r="H61" t="n">
         <v>2.763000000000003</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,18 +3115,27 @@
         <v>15389.4441</v>
       </c>
       <c r="G62" t="n">
+        <v>2.812666666666665</v>
+      </c>
+      <c r="H62" t="n">
         <v>2.765000000000003</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2769,18 +3159,27 @@
         <v>103283.2638</v>
       </c>
       <c r="G63" t="n">
+        <v>2.815999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>2.767166666666669</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,18 +3203,27 @@
         <v>1285545.490188112</v>
       </c>
       <c r="G64" t="n">
+        <v>2.819999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>2.76966666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2839,18 +3247,27 @@
         <v>100077.9177118881</v>
       </c>
       <c r="G65" t="n">
+        <v>2.824666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>2.772333333333336</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,18 +3291,27 @@
         <v>955955.8661</v>
       </c>
       <c r="G66" t="n">
+        <v>2.830666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>2.775000000000003</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2909,18 +3335,27 @@
         <v>1517469.7987</v>
       </c>
       <c r="G67" t="n">
+        <v>2.837333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>2.77816666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,18 +3379,27 @@
         <v>144406.0331</v>
       </c>
       <c r="G68" t="n">
+        <v>2.841999999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>2.781166666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2979,18 +3423,27 @@
         <v>120977.5861</v>
       </c>
       <c r="G69" t="n">
+        <v>2.846666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>2.784166666666669</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,18 +3467,27 @@
         <v>500145.3039</v>
       </c>
       <c r="G70" t="n">
+        <v>2.849333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>2.787166666666669</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,18 +3511,27 @@
         <v>16124.8611</v>
       </c>
       <c r="G71" t="n">
+        <v>2.850666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>2.789333333333336</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,18 +3555,27 @@
         <v>10001</v>
       </c>
       <c r="G72" t="n">
+        <v>2.854666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>2.791500000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3119,18 +3599,27 @@
         <v>146164.9304</v>
       </c>
       <c r="G73" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="H73" t="n">
         <v>2.793666666666669</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,18 +3643,27 @@
         <v>50000</v>
       </c>
       <c r="G74" t="n">
+        <v>2.862666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>2.795333333333336</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3189,18 +3687,27 @@
         <v>84068.7496</v>
       </c>
       <c r="G75" t="n">
+        <v>2.862666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>2.796833333333336</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,18 +3731,27 @@
         <v>2938283.5343</v>
       </c>
       <c r="G76" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>2.799333333333336</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,18 +3775,27 @@
         <v>500000</v>
       </c>
       <c r="G77" t="n">
+        <v>2.871333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>2.801500000000003</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,18 +3819,27 @@
         <v>815931.2504</v>
       </c>
       <c r="G78" t="n">
+        <v>2.874</v>
+      </c>
+      <c r="H78" t="n">
         <v>2.803666666666669</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,18 +3863,27 @@
         <v>816529.1029000001</v>
       </c>
       <c r="G79" t="n">
+        <v>2.874666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>2.805500000000003</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,18 +3907,27 @@
         <v>325815.9628</v>
       </c>
       <c r="G80" t="n">
+        <v>2.874666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>2.807500000000003</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,18 +3951,27 @@
         <v>969323.7311</v>
       </c>
       <c r="G81" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="H81" t="n">
         <v>2.810000000000003</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,18 +3995,27 @@
         <v>2051736.3817</v>
       </c>
       <c r="G82" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="H82" t="n">
         <v>2.812500000000003</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3469,18 +4039,27 @@
         <v>176550.8591</v>
       </c>
       <c r="G83" t="n">
+        <v>2.879333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>2.815000000000003</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,18 +4083,27 @@
         <v>944699.3005</v>
       </c>
       <c r="G84" t="n">
+        <v>2.880666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>2.817500000000003</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3539,18 +4127,27 @@
         <v>383223.5713</v>
       </c>
       <c r="G85" t="n">
+        <v>2.883333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>2.820500000000003</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,18 +4171,27 @@
         <v>36453.0029</v>
       </c>
       <c r="G86" t="n">
+        <v>2.886666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>2.82316666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3609,18 +4215,27 @@
         <v>117495.8244</v>
       </c>
       <c r="G87" t="n">
+        <v>2.892</v>
+      </c>
+      <c r="H87" t="n">
         <v>2.826333333333336</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,18 +4259,27 @@
         <v>271387.7506</v>
       </c>
       <c r="G88" t="n">
+        <v>2.893333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>2.829333333333337</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,18 +4303,27 @@
         <v>9364.413699999999</v>
       </c>
       <c r="G89" t="n">
+        <v>2.897333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>2.832000000000003</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,18 +4347,27 @@
         <v>5201.0416</v>
       </c>
       <c r="G90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H90" t="n">
         <v>2.83416666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3749,18 +4391,27 @@
         <v>468516.2317</v>
       </c>
       <c r="G91" t="n">
+        <v>2.896666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>2.83616666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,18 +4435,27 @@
         <v>17632.3788</v>
       </c>
       <c r="G92" t="n">
+        <v>2.894666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.83816666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3819,18 +4479,27 @@
         <v>71095.07829999999</v>
       </c>
       <c r="G93" t="n">
+        <v>2.893333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>2.840333333333336</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,18 +4523,27 @@
         <v>866</v>
       </c>
       <c r="G94" t="n">
+        <v>2.894666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>2.842500000000003</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3889,18 +4567,27 @@
         <v>19999.9999</v>
       </c>
       <c r="G95" t="n">
+        <v>2.894666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>2.844333333333337</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,18 +4611,27 @@
         <v>6155.3679</v>
       </c>
       <c r="G96" t="n">
+        <v>2.891333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>2.845833333333337</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,18 +4655,27 @@
         <v>2243271.2639</v>
       </c>
       <c r="G97" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="H97" t="n">
         <v>2.84716666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,18 +4699,27 @@
         <v>38477.9399</v>
       </c>
       <c r="G98" t="n">
+        <v>2.885333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>2.849000000000003</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4029,18 +4743,27 @@
         <v>71658.08719999999</v>
       </c>
       <c r="G99" t="n">
+        <v>2.883333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>2.850833333333336</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,18 +4787,27 @@
         <v>906838.6989</v>
       </c>
       <c r="G100" t="n">
+        <v>2.880666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>2.85266666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,18 +4831,27 @@
         <v>76953.8535</v>
       </c>
       <c r="G101" t="n">
+        <v>2.879333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>2.854833333333336</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,18 +4875,27 @@
         <v>780484.6149</v>
       </c>
       <c r="G102" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="H102" t="n">
         <v>2.857166666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,18 +4919,27 @@
         <v>27632.2864</v>
       </c>
       <c r="G103" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="H103" t="n">
         <v>2.859166666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,18 +4963,27 @@
         <v>3613.7931</v>
       </c>
       <c r="G104" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="H104" t="n">
         <v>2.861000000000003</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,18 +5007,27 @@
         <v>250003.928</v>
       </c>
       <c r="G105" t="n">
+        <v>2.879333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>2.862666666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,18 +5051,27 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
+        <v>2.884666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>2.864833333333336</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4309,18 +5095,27 @@
         <v>1111111</v>
       </c>
       <c r="G107" t="n">
+        <v>2.888666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>2.866833333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4344,18 +5139,27 @@
         <v>744444</v>
       </c>
       <c r="G108" t="n">
+        <v>2.892</v>
+      </c>
+      <c r="H108" t="n">
         <v>2.868833333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4379,18 +5183,27 @@
         <v>21421.5488</v>
       </c>
       <c r="G109" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="H109" t="n">
         <v>2.870833333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,18 +5227,27 @@
         <v>251278.8199</v>
       </c>
       <c r="G110" t="n">
+        <v>2.896</v>
+      </c>
+      <c r="H110" t="n">
         <v>2.872500000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4449,18 +5271,27 @@
         <v>467094.2539</v>
       </c>
       <c r="G111" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="H111" t="n">
         <v>2.875500000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,18 +5315,27 @@
         <v>202568.7074</v>
       </c>
       <c r="G112" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="H112" t="n">
         <v>2.877833333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4519,18 +5359,27 @@
         <v>44666</v>
       </c>
       <c r="G113" t="n">
+        <v>2.912666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>2.879833333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,18 +5403,27 @@
         <v>2716406.6268</v>
       </c>
       <c r="G114" t="n">
+        <v>2.917333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>2.882000000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,18 +5447,27 @@
         <v>985625.0845999999</v>
       </c>
       <c r="G115" t="n">
+        <v>2.921333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>2.883666666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,18 +5491,27 @@
         <v>830341.3467</v>
       </c>
       <c r="G116" t="n">
+        <v>2.926666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>2.885833333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,18 +5535,27 @@
         <v>161358.9639</v>
       </c>
       <c r="G117" t="n">
+        <v>2.930666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>2.888833333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,18 +5579,27 @@
         <v>1421545.2133</v>
       </c>
       <c r="G118" t="n">
+        <v>2.939333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>2.893166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,18 +5623,27 @@
         <v>2227681.394</v>
       </c>
       <c r="G119" t="n">
+        <v>2.947333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>2.896333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4764,18 +5667,27 @@
         <v>1802679.6958</v>
       </c>
       <c r="G120" t="n">
+        <v>2.954666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>2.899166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,18 +5711,27 @@
         <v>1645978.7069</v>
       </c>
       <c r="G121" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="H121" t="n">
         <v>2.9025</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,18 +5755,27 @@
         <v>865087.8289</v>
       </c>
       <c r="G122" t="n">
+        <v>2.970666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>2.906333333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,18 +5799,27 @@
         <v>884675.4935</v>
       </c>
       <c r="G123" t="n">
+        <v>2.978</v>
+      </c>
+      <c r="H123" t="n">
         <v>2.909333333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,18 +5843,27 @@
         <v>237813.4579</v>
       </c>
       <c r="G124" t="n">
+        <v>2.984666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>2.912</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4939,18 +5887,27 @@
         <v>1252342.5563</v>
       </c>
       <c r="G125" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="H125" t="n">
         <v>2.914333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,18 +5931,27 @@
         <v>630197.11</v>
       </c>
       <c r="G126" t="n">
+        <v>2.998</v>
+      </c>
+      <c r="H126" t="n">
         <v>2.917333333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,18 +5975,27 @@
         <v>440231.3775</v>
       </c>
       <c r="G127" t="n">
+        <v>3.002666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>2.919166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,18 +6019,27 @@
         <v>909473.9508</v>
       </c>
       <c r="G128" t="n">
+        <v>3.005333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>2.920666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,18 +6063,27 @@
         <v>2728678.1841</v>
       </c>
       <c r="G129" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="H129" t="n">
         <v>2.922333333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,18 +6107,27 @@
         <v>16891.8918</v>
       </c>
       <c r="G130" t="n">
+        <v>3.008666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>2.923500000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,18 +6151,27 @@
         <v>53056.3239</v>
       </c>
       <c r="G131" t="n">
+        <v>3.004666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>2.924333333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5184,18 +6195,27 @@
         <v>126478.7854</v>
       </c>
       <c r="G132" t="n">
+        <v>2.999333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>2.925</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,18 +6239,27 @@
         <v>173227.076</v>
       </c>
       <c r="G133" t="n">
+        <v>2.990666666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>2.925333333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,18 +6283,27 @@
         <v>100828.6395</v>
       </c>
       <c r="G134" t="n">
+        <v>2.982666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>2.926333333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5289,18 +6327,27 @@
         <v>11158.7657</v>
       </c>
       <c r="G135" t="n">
+        <v>2.975333333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>2.927333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,18 +6371,27 @@
         <v>1385504.0877</v>
       </c>
       <c r="G136" t="n">
+        <v>2.966666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>2.927500000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5359,18 +6415,27 @@
         <v>643.1186</v>
       </c>
       <c r="G137" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H137" t="n">
         <v>2.928500000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,18 +6459,27 @@
         <v>1361849.1525</v>
       </c>
       <c r="G138" t="n">
+        <v>2.954666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>2.9295</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5429,18 +6503,27 @@
         <v>265507.3234</v>
       </c>
       <c r="G139" t="n">
+        <v>2.948666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>2.930500000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,18 +6547,27 @@
         <v>831222.7201</v>
       </c>
       <c r="G140" t="n">
+        <v>2.944666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>2.931833333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,18 +6591,27 @@
         <v>1117991.4006</v>
       </c>
       <c r="G141" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H141" t="n">
         <v>2.932833333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,18 +6635,27 @@
         <v>78755.7138</v>
       </c>
       <c r="G142" t="n">
+        <v>2.936666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>2.933833333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5569,18 +6679,27 @@
         <v>605296.5622</v>
       </c>
       <c r="G143" t="n">
+        <v>2.935333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>2.934666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,18 +6723,27 @@
         <v>1032545.8693</v>
       </c>
       <c r="G144" t="n">
+        <v>2.935333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>2.936000000000001</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,18 +6767,27 @@
         <v>216841.0032</v>
       </c>
       <c r="G145" t="n">
+        <v>2.937333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>2.937000000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,18 +6811,27 @@
         <v>29057.1569</v>
       </c>
       <c r="G146" t="n">
+        <v>2.942666666666668</v>
+      </c>
+      <c r="H146" t="n">
         <v>2.938333333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5709,18 +6855,27 @@
         <v>5159.405</v>
       </c>
       <c r="G147" t="n">
+        <v>2.947333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>2.938833333333335</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,18 +6899,27 @@
         <v>632679.9496000001</v>
       </c>
       <c r="G148" t="n">
+        <v>2.951333333333335</v>
+      </c>
+      <c r="H148" t="n">
         <v>2.939833333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5779,18 +6943,27 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
+        <v>2.956666666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>2.941166666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,18 +6987,27 @@
         <v>22452.1043</v>
       </c>
       <c r="G150" t="n">
+        <v>2.961333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>2.942666666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5849,18 +7031,27 @@
         <v>7244.8292</v>
       </c>
       <c r="G151" t="n">
+        <v>2.965333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>2.944666666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,18 +7075,27 @@
         <v>92829.4906</v>
       </c>
       <c r="G152" t="n">
+        <v>2.967333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>2.946666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5919,18 +7119,27 @@
         <v>485469.6057</v>
       </c>
       <c r="G153" t="n">
+        <v>2.968666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>2.948333333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,18 +7163,27 @@
         <v>19340.4532</v>
       </c>
       <c r="G154" t="n">
+        <v>2.970000000000001</v>
+      </c>
+      <c r="H154" t="n">
         <v>2.949333333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5989,18 +7207,27 @@
         <v>15801.1912</v>
       </c>
       <c r="G155" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="H155" t="n">
         <v>2.951166666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,18 +7251,27 @@
         <v>134937.3972</v>
       </c>
       <c r="G156" t="n">
+        <v>2.969333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>2.952333333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6059,18 +7295,27 @@
         <v>873690.3588</v>
       </c>
       <c r="G157" t="n">
+        <v>2.964666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>2.953</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,18 +7339,27 @@
         <v>507589.3366</v>
       </c>
       <c r="G158" t="n">
+        <v>2.960666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>2.9535</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6129,18 +7383,27 @@
         <v>194337.2302</v>
       </c>
       <c r="G159" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="H159" t="n">
         <v>2.954166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,18 +7427,27 @@
         <v>186652.3569</v>
       </c>
       <c r="G160" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="H160" t="n">
         <v>2.954833333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,18 +7471,27 @@
         <v>144992.7123</v>
       </c>
       <c r="G161" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="H161" t="n">
         <v>2.955500000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,18 +7515,27 @@
         <v>52847.7978</v>
       </c>
       <c r="G162" t="n">
+        <v>2.945333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>2.955666666666668</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,18 +7559,27 @@
         <v>20000</v>
       </c>
       <c r="G163" t="n">
+        <v>2.945333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>2.956666666666668</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6304,18 +7603,27 @@
         <v>52392.2505</v>
       </c>
       <c r="G164" t="n">
+        <v>2.942666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>2.957333333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6339,18 +7647,27 @@
         <v>145891.6875</v>
       </c>
       <c r="G165" t="n">
+        <v>2.940666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>2.958000000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6374,18 +7691,27 @@
         <v>200</v>
       </c>
       <c r="G166" t="n">
+        <v>2.938666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>2.958166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6409,18 +7735,27 @@
         <v>400</v>
       </c>
       <c r="G167" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="H167" t="n">
         <v>2.958500000000001</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6444,18 +7779,27 @@
         <v>100000</v>
       </c>
       <c r="G168" t="n">
+        <v>2.933333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>2.958666666666668</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6479,18 +7823,27 @@
         <v>39037.7742</v>
       </c>
       <c r="G169" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="H169" t="n">
         <v>2.958833333333335</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,18 +7867,27 @@
         <v>50000</v>
       </c>
       <c r="G170" t="n">
+        <v>2.928</v>
+      </c>
+      <c r="H170" t="n">
         <v>2.959166666666668</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6549,18 +7911,27 @@
         <v>13354.4763</v>
       </c>
       <c r="G171" t="n">
+        <v>2.929333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>2.959166666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6584,18 +7955,27 @@
         <v>210850</v>
       </c>
       <c r="G172" t="n">
+        <v>2.933333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>2.959333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,18 +7999,27 @@
         <v>68558.5324</v>
       </c>
       <c r="G173" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="H173" t="n">
         <v>2.959833333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6654,18 +8043,27 @@
         <v>31052</v>
       </c>
       <c r="G174" t="n">
+        <v>2.939333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>2.959666666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6689,18 +8087,27 @@
         <v>1499.25</v>
       </c>
       <c r="G175" t="n">
+        <v>2.939333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>2.959333333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6724,18 +8131,27 @@
         <v>120958.045</v>
       </c>
       <c r="G176" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H176" t="n">
         <v>2.958833333333335</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6759,18 +8175,27 @@
         <v>253328.2409</v>
       </c>
       <c r="G177" t="n">
+        <v>2.937333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>2.957333333333335</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,18 +8219,27 @@
         <v>380076.3402</v>
       </c>
       <c r="G178" t="n">
+        <v>2.935999999999999</v>
+      </c>
+      <c r="H178" t="n">
         <v>2.955833333333335</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6829,18 +8263,27 @@
         <v>41335.71428571428</v>
       </c>
       <c r="G179" t="n">
+        <v>2.935999999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>2.954500000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6864,18 +8307,27 @@
         <v>13181.9329</v>
       </c>
       <c r="G180" t="n">
+        <v>2.935999999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>2.953333333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,18 +8351,27 @@
         <v>47313.4921</v>
       </c>
       <c r="G181" t="n">
+        <v>2.935999999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>2.951666666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6934,18 +8395,27 @@
         <v>54626.98</v>
       </c>
       <c r="G182" t="n">
+        <v>2.935999999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>2.949833333333335</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6969,18 +8439,27 @@
         <v>204260.0387</v>
       </c>
       <c r="G183" t="n">
+        <v>2.935999999999999</v>
+      </c>
+      <c r="H183" t="n">
         <v>2.948166666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7004,18 +8483,27 @@
         <v>251473.1034</v>
       </c>
       <c r="G184" t="n">
+        <v>2.934666666666666</v>
+      </c>
+      <c r="H184" t="n">
         <v>2.946333333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7039,18 +8527,27 @@
         <v>48982.1995</v>
       </c>
       <c r="G185" t="n">
+        <v>2.935333333333332</v>
+      </c>
+      <c r="H185" t="n">
         <v>2.945000000000001</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7074,18 +8571,27 @@
         <v>67182.64079999999</v>
       </c>
       <c r="G186" t="n">
+        <v>2.935333333333332</v>
+      </c>
+      <c r="H186" t="n">
         <v>2.943500000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7109,18 +8615,27 @@
         <v>86350.7025</v>
       </c>
       <c r="G187" t="n">
+        <v>2.934666666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>2.942333333333335</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7144,18 +8659,27 @@
         <v>1652583.5013</v>
       </c>
       <c r="G188" t="n">
+        <v>2.932666666666665</v>
+      </c>
+      <c r="H188" t="n">
         <v>2.941666666666668</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,18 +8703,27 @@
         <v>2248013.6686</v>
       </c>
       <c r="G189" t="n">
+        <v>2.933333333333332</v>
+      </c>
+      <c r="H189" t="n">
         <v>2.941000000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7214,18 +8747,27 @@
         <v>3000</v>
       </c>
       <c r="G190" t="n">
+        <v>2.932666666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>2.940333333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7249,18 +8791,27 @@
         <v>330659.5863</v>
       </c>
       <c r="G191" t="n">
+        <v>2.929999999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>2.940166666666668</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7284,18 +8835,27 @@
         <v>229527.7626</v>
       </c>
       <c r="G192" t="n">
+        <v>2.931333333333332</v>
+      </c>
+      <c r="H192" t="n">
         <v>2.940333333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,18 +8879,27 @@
         <v>222293.7499</v>
       </c>
       <c r="G193" t="n">
+        <v>2.929333333333332</v>
+      </c>
+      <c r="H193" t="n">
         <v>2.940500000000001</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7354,18 +8923,27 @@
         <v>788809.3671</v>
       </c>
       <c r="G194" t="n">
+        <v>2.927333333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>2.940666666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7389,18 +8967,27 @@
         <v>7268.7605</v>
       </c>
       <c r="G195" t="n">
+        <v>2.924666666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>2.940666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,18 +9011,27 @@
         <v>46230</v>
       </c>
       <c r="G196" t="n">
+        <v>2.920666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>2.940166666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7459,18 +9055,27 @@
         <v>682923.5237</v>
       </c>
       <c r="G197" t="n">
+        <v>2.915333333333332</v>
+      </c>
+      <c r="H197" t="n">
         <v>2.938666666666668</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7494,18 +9099,27 @@
         <v>225256.3313</v>
       </c>
       <c r="G198" t="n">
+        <v>2.911333333333332</v>
+      </c>
+      <c r="H198" t="n">
         <v>2.937333333333334</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,18 +9143,27 @@
         <v>58198.8688</v>
       </c>
       <c r="G199" t="n">
+        <v>2.908666666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>2.936333333333335</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7564,18 +9187,27 @@
         <v>65814.8487</v>
       </c>
       <c r="G200" t="n">
+        <v>2.904666666666665</v>
+      </c>
+      <c r="H200" t="n">
         <v>2.935000000000001</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7599,18 +9231,27 @@
         <v>5000</v>
       </c>
       <c r="G201" t="n">
+        <v>2.899999999999999</v>
+      </c>
+      <c r="H201" t="n">
         <v>2.933500000000001</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7634,18 +9275,27 @@
         <v>79078.62910000001</v>
       </c>
       <c r="G202" t="n">
+        <v>2.895999999999999</v>
+      </c>
+      <c r="H202" t="n">
         <v>2.932166666666668</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7669,18 +9319,27 @@
         <v>170185.3173</v>
       </c>
       <c r="G203" t="n">
+        <v>2.890666666666666</v>
+      </c>
+      <c r="H203" t="n">
         <v>2.930500000000001</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,18 +9363,27 @@
         <v>117090.9984</v>
       </c>
       <c r="G204" t="n">
+        <v>2.883999999999999</v>
+      </c>
+      <c r="H204" t="n">
         <v>2.928166666666668</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7739,18 +9407,27 @@
         <v>2257482.2607</v>
       </c>
       <c r="G205" t="n">
+        <v>2.878666666666665</v>
+      </c>
+      <c r="H205" t="n">
         <v>2.925666666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,18 +9451,27 @@
         <v>2233574.0903</v>
       </c>
       <c r="G206" t="n">
+        <v>2.874666666666665</v>
+      </c>
+      <c r="H206" t="n">
         <v>2.923166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7809,18 +9495,27 @@
         <v>1963362.8227</v>
       </c>
       <c r="G207" t="n">
+        <v>2.880666666666665</v>
+      </c>
+      <c r="H207" t="n">
         <v>2.923666666666668</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7844,18 +9539,27 @@
         <v>887800.7422</v>
       </c>
       <c r="G208" t="n">
+        <v>2.882666666666665</v>
+      </c>
+      <c r="H208" t="n">
         <v>2.923333333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7879,18 +9583,27 @@
         <v>41232.375</v>
       </c>
       <c r="G209" t="n">
+        <v>2.880666666666665</v>
+      </c>
+      <c r="H209" t="n">
         <v>2.921666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7914,18 +9627,27 @@
         <v>79584.93520000001</v>
       </c>
       <c r="G210" t="n">
+        <v>2.877999999999999</v>
+      </c>
+      <c r="H210" t="n">
         <v>2.919833333333334</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7949,18 +9671,27 @@
         <v>30370</v>
       </c>
       <c r="G211" t="n">
+        <v>2.881999999999998</v>
+      </c>
+      <c r="H211" t="n">
         <v>2.919333333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7984,18 +9715,27 @@
         <v>96570.50840000001</v>
       </c>
       <c r="G212" t="n">
+        <v>2.887999999999999</v>
+      </c>
+      <c r="H212" t="n">
         <v>2.918833333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8019,18 +9759,27 @@
         <v>1652336.5422</v>
       </c>
       <c r="G213" t="n">
+        <v>2.897333333333332</v>
+      </c>
+      <c r="H213" t="n">
         <v>2.919500000000001</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8054,18 +9803,27 @@
         <v>2045030.137</v>
       </c>
       <c r="G214" t="n">
+        <v>2.907999999999999</v>
+      </c>
+      <c r="H214" t="n">
         <v>2.920833333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8089,18 +9847,27 @@
         <v>525513.3898</v>
       </c>
       <c r="G215" t="n">
+        <v>2.918666666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>2.921666666666668</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8124,18 +9891,27 @@
         <v>419344.4925</v>
       </c>
       <c r="G216" t="n">
+        <v>2.928666666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>2.923333333333335</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8159,18 +9935,27 @@
         <v>539702.4430778502</v>
       </c>
       <c r="G217" t="n">
+        <v>2.939333333333332</v>
+      </c>
+      <c r="H217" t="n">
         <v>2.925833333333335</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8194,18 +9979,27 @@
         <v>193699.3549</v>
       </c>
       <c r="G218" t="n">
+        <v>2.951333333333332</v>
+      </c>
+      <c r="H218" t="n">
         <v>2.928166666666668</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8229,18 +10023,27 @@
         <v>85292.7503</v>
       </c>
       <c r="G219" t="n">
+        <v>2.963999999999999</v>
+      </c>
+      <c r="H219" t="n">
         <v>2.930166666666668</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8264,18 +10067,27 @@
         <v>243956.0102</v>
       </c>
       <c r="G220" t="n">
+        <v>2.975999999999999</v>
+      </c>
+      <c r="H220" t="n">
         <v>2.931666666666668</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8299,18 +10111,27 @@
         <v>20000</v>
       </c>
       <c r="G221" t="n">
+        <v>2.989999999999999</v>
+      </c>
+      <c r="H221" t="n">
         <v>2.933666666666668</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8334,18 +10155,27 @@
         <v>1949669.287673763</v>
       </c>
       <c r="G222" t="n">
+        <v>2.996666666666665</v>
+      </c>
+      <c r="H222" t="n">
         <v>2.936500000000001</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8369,18 +10199,27 @@
         <v>161333.2734483871</v>
       </c>
       <c r="G223" t="n">
+        <v>3.006666666666665</v>
+      </c>
+      <c r="H223" t="n">
         <v>2.938666666666668</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,18 +10243,27 @@
         <v>915741.3779058253</v>
       </c>
       <c r="G224" t="n">
+        <v>3.019333333333332</v>
+      </c>
+      <c r="H224" t="n">
         <v>2.940833333333335</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8439,18 +10287,27 @@
         <v>177347.8399</v>
       </c>
       <c r="G225" t="n">
+        <v>3.032666666666665</v>
+      </c>
+      <c r="H225" t="n">
         <v>2.942833333333335</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8474,19 +10331,28 @@
         <v>2081649.5114</v>
       </c>
       <c r="G226" t="n">
+        <v>3.041333333333332</v>
+      </c>
+      <c r="H226" t="n">
         <v>2.945000000000001</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
+      <c r="L226" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1.127841328413284</v>
       </c>
     </row>
     <row r="227">
@@ -8509,18 +10375,21 @@
         <v>108101.7523</v>
       </c>
       <c r="G227" t="n">
+        <v>3.049333333333332</v>
+      </c>
+      <c r="H227" t="n">
         <v>2.947166666666668</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8544,18 +10413,21 @@
         <v>77071.2405</v>
       </c>
       <c r="G228" t="n">
+        <v>3.051333333333332</v>
+      </c>
+      <c r="H228" t="n">
         <v>2.949000000000001</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8579,18 +10451,21 @@
         <v>164076.1568</v>
       </c>
       <c r="G229" t="n">
+        <v>3.050666666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>2.950500000000001</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8614,18 +10489,21 @@
         <v>71881.8578</v>
       </c>
       <c r="G230" t="n">
+        <v>3.051333333333332</v>
+      </c>
+      <c r="H230" t="n">
         <v>2.952500000000001</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8649,18 +10527,21 @@
         <v>1079389.55</v>
       </c>
       <c r="G231" t="n">
+        <v>3.052666666666665</v>
+      </c>
+      <c r="H231" t="n">
         <v>2.954166666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,18 +10565,401 @@
         <v>190238.3595</v>
       </c>
       <c r="G232" t="n">
+        <v>3.052666666666665</v>
+      </c>
+      <c r="H232" t="n">
         <v>2.955666666666668</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F233" t="n">
+        <v>21098.9308</v>
+      </c>
+      <c r="G233" t="n">
+        <v>3.052666666666665</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2.956833333333334</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F234" t="n">
+        <v>129280.0001</v>
+      </c>
+      <c r="G234" t="n">
+        <v>3.051333333333332</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2.958166666666668</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F235" t="n">
+        <v>73704.8432</v>
+      </c>
+      <c r="G235" t="n">
+        <v>3.050666666666665</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2.959500000000001</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F236" t="n">
+        <v>271442.3841</v>
+      </c>
+      <c r="G236" t="n">
+        <v>3.047999999999999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2.960666666666667</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F237" t="n">
+        <v>791747.7751</v>
+      </c>
+      <c r="G237" t="n">
+        <v>3.043999999999998</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2.963166666666667</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E238" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F238" t="n">
+        <v>740608.6719</v>
+      </c>
+      <c r="G238" t="n">
+        <v>3.040666666666665</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2.964833333333334</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F239" t="n">
+        <v>621603.4758</v>
+      </c>
+      <c r="G239" t="n">
+        <v>3.036666666666664</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2.966000000000001</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3.035999999999997</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2.967833333333334</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F241" t="n">
+        <v>105722.5907</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3.033333333333331</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2.969333333333334</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3</v>
+      </c>
+      <c r="F242" t="n">
+        <v>951423.9701</v>
+      </c>
+      <c r="G242" t="n">
+        <v>3.028666666666664</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2.970333333333334</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1519594.4033</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1519584.4033</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
@@ -521,7 +521,7 @@
         <v>-1519873.6551</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2.71</v>
@@ -562,7 +562,7 @@
         <v>-1519873.6551</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2.7</v>
@@ -603,7 +603,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2.7</v>
@@ -644,7 +644,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2.71</v>
@@ -685,7 +685,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2.71</v>
@@ -726,9 +726,11 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J9" t="n">
         <v>2.7</v>
       </c>
@@ -765,7 +767,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2.71</v>
@@ -806,9 +808,11 @@
         <v>-2823386.1469</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J11" t="n">
         <v>2.7</v>
       </c>
@@ -1040,9 +1044,11 @@
         <v>-3045497.5551</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J17" t="n">
         <v>2.7</v>
       </c>
@@ -1079,9 +1085,11 @@
         <v>-3045487.5551</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J18" t="n">
         <v>2.7</v>
       </c>
@@ -1118,9 +1126,11 @@
         <v>-829848.8900000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J19" t="n">
         <v>2.7</v>
       </c>
@@ -1391,9 +1401,11 @@
         <v>-1082323.1906</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J26" t="n">
         <v>2.7</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>-1130563.8228</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>2.73</v>
@@ -1471,7 +1483,7 @@
         <v>-1220645.8228</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>2.72</v>
@@ -1512,7 +1524,7 @@
         <v>-1508602.0607</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>2.71</v>
@@ -1553,7 +1565,7 @@
         <v>-1508592.0607</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>2.7</v>
@@ -1594,9 +1606,11 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J31" t="n">
         <v>2.7</v>
       </c>
@@ -1633,9 +1647,11 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J32" t="n">
         <v>2.7</v>
       </c>
@@ -1672,9 +1688,11 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J33" t="n">
         <v>2.7</v>
       </c>
@@ -1711,9 +1729,11 @@
         <v>-1569928.3669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J34" t="n">
         <v>2.7</v>
       </c>
@@ -1750,9 +1770,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J35" t="n">
         <v>2.7</v>
       </c>
@@ -1789,9 +1811,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J36" t="n">
         <v>2.7</v>
       </c>
@@ -1828,9 +1852,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J37" t="n">
         <v>2.7</v>
       </c>
@@ -1867,9 +1893,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J38" t="n">
         <v>2.7</v>
       </c>
@@ -1906,9 +1934,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J39" t="n">
         <v>2.7</v>
       </c>
@@ -1945,9 +1975,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J40" t="n">
         <v>2.7</v>
       </c>
@@ -1984,9 +2016,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J41" t="n">
         <v>2.7</v>
       </c>
@@ -2023,9 +2057,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J42" t="n">
         <v>2.7</v>
       </c>
@@ -2062,9 +2098,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J43" t="n">
         <v>2.7</v>
       </c>
@@ -2101,9 +2139,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J44" t="n">
         <v>2.7</v>
       </c>
@@ -2179,9 +2219,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J46" t="n">
         <v>2.7</v>
       </c>
@@ -2218,9 +2260,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J47" t="n">
         <v>2.7</v>
       </c>
@@ -2257,9 +2301,11 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J48" t="n">
         <v>2.7</v>
       </c>
@@ -2296,9 +2342,11 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J49" t="n">
         <v>2.7</v>
       </c>
@@ -2335,9 +2383,11 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J50" t="n">
         <v>2.7</v>
       </c>
@@ -2374,9 +2424,11 @@
         <v>-1408875.1838</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J51" t="n">
         <v>2.7</v>
       </c>
@@ -2413,9 +2465,11 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J52" t="n">
         <v>2.7</v>
       </c>
@@ -2530,9 +2584,11 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J55" t="n">
         <v>2.7</v>
       </c>
@@ -2569,9 +2625,11 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J56" t="n">
         <v>2.7</v>
       </c>
@@ -2647,9 +2705,11 @@
         <v>-1311107.4635</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J58" t="n">
         <v>2.7</v>
       </c>
@@ -2959,9 +3019,11 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J66" t="n">
         <v>2.7</v>
       </c>
@@ -2998,9 +3060,11 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J67" t="n">
         <v>2.7</v>
       </c>
@@ -3583,9 +3647,11 @@
         <v>1526780.784399999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.76</v>
+      </c>
       <c r="J82" t="n">
         <v>2.7</v>
       </c>
@@ -8185,7 +8251,7 @@
         <v>17105760.0745</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
@@ -8193,13 +8259,15 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>1.091296296296296</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.003703703703704</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8227,14 +8295,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +8328,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +8361,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +8394,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +8427,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8460,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +8493,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8497,17 +8523,11 @@
         <v>17478114.4849</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8559,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8592,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8625,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8658,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8691,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8731,17 +8721,11 @@
         <v>16946997.7106</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8757,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8809,17 +8787,11 @@
         <v>16580896.6884</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8823,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8856,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8889,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8965,17 +8919,11 @@
         <v>16961886.2755</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9004,17 +8952,11 @@
         <v>16981886.2755</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9043,17 +8985,11 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9082,17 +9018,11 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9121,17 +9051,11 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9160,17 +9084,11 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9199,17 +9117,11 @@
         <v>16829494.02499999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9238,17 +9150,11 @@
         <v>16829494.02499999</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9277,17 +9183,11 @@
         <v>16779494.02499999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9316,17 +9216,11 @@
         <v>16792848.5013</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9355,17 +9249,11 @@
         <v>17003698.5013</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9394,17 +9282,11 @@
         <v>17072257.0337</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9433,17 +9315,11 @@
         <v>17041205.0337</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9472,17 +9348,11 @@
         <v>17039705.7837</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9511,17 +9381,11 @@
         <v>17160663.8287</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9550,17 +9414,11 @@
         <v>16907335.5878</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9589,17 +9447,11 @@
         <v>17287411.928</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9628,17 +9480,11 @@
         <v>17287411.928</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +9516,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9709,14 +9549,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9748,14 +9582,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9787,14 +9615,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9823,17 +9645,11 @@
         <v>16831678.7859</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9862,17 +9678,11 @@
         <v>16880660.9854</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9901,17 +9711,11 @@
         <v>16947843.6262</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9940,17 +9744,11 @@
         <v>16947843.6262</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9979,17 +9777,11 @@
         <v>16947843.6262</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10018,17 +9810,11 @@
         <v>19195857.2948</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10057,17 +9843,11 @@
         <v>19192857.2948</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10096,17 +9876,11 @@
         <v>18862197.7085</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10135,17 +9909,11 @@
         <v>19091725.4711</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10174,17 +9942,11 @@
         <v>19091725.4711</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10213,17 +9975,11 @@
         <v>19091725.4711</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10252,17 +10008,11 @@
         <v>19084456.7106</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10291,17 +10041,11 @@
         <v>19038226.7106</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10330,17 +10074,11 @@
         <v>18355303.1869</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10369,17 +10107,11 @@
         <v>18580559.5182</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10408,17 +10140,11 @@
         <v>18580559.5182</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10447,17 +10173,11 @@
         <v>18580559.5182</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10486,17 +10206,11 @@
         <v>18580559.5182</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10525,17 +10239,11 @@
         <v>18659638.1473</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10564,17 +10272,11 @@
         <v>18489452.83</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10606,14 +10308,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10642,17 +10338,11 @@
         <v>16114879.5709</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10684,14 +10374,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10723,14 +10407,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10762,14 +10440,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10801,14 +10473,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10837,17 +10503,11 @@
         <v>17069624.34120001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10879,14 +10539,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10915,17 +10569,11 @@
         <v>17196564.84960001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10957,14 +10605,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10993,17 +10635,11 @@
         <v>20893931.5288</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11032,17 +10668,11 @@
         <v>20893931.5288</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11074,14 +10704,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11113,14 +10737,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11149,17 +10767,11 @@
         <v>21014289.47937785</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11191,14 +10803,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11227,23 +10833,15 @@
         <v>20770333.46917785</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
-        <v>1.113518518518519</v>
-      </c>
-      <c r="M278" t="n">
-        <v>1.003703703703704</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11268,7 +10866,7 @@
         <v>20790333.46917785</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11301,7 +10899,7 @@
         <v>22740002.75685162</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11334,7 +10932,7 @@
         <v>22578669.48340323</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11367,7 +10965,7 @@
         <v>21662928.1054974</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11400,7 +10998,7 @@
         <v>21485580.26559741</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11433,7 +11031,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11466,7 +11064,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11499,7 +11097,7 @@
         <v>23490158.53649741</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11532,7 +11130,7 @@
         <v>23326082.3796974</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11565,7 +11163,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11598,7 +11196,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11631,7 +11229,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11664,7 +11262,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11697,7 +11295,7 @@
         <v>23268684.2373974</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11730,7 +11328,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11763,7 +11361,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11796,7 +11394,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11829,7 +11427,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11862,7 +11460,7 @@
         <v>23365123.6934974</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11895,7 +11493,7 @@
         <v>23367133.6934974</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11928,7 +11526,7 @@
         <v>23261411.1027974</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11961,7 +11559,7 @@
         <v>22309987.1326974</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11972,6 +11570,6 @@
       <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -888,9 +888,11 @@
         <v>-2842710.5145</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.67</v>
+      </c>
       <c r="J13" t="n">
         <v>2.7</v>
       </c>
@@ -927,9 +929,11 @@
         <v>-2838109.5551</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.67</v>
+      </c>
       <c r="J14" t="n">
         <v>2.7</v>
       </c>
@@ -966,9 +970,11 @@
         <v>-2820497.5551</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J15" t="n">
         <v>2.7</v>
       </c>
@@ -1005,9 +1011,11 @@
         <v>-3045497.5551</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J16" t="n">
         <v>2.7</v>
       </c>
@@ -1126,11 +1134,9 @@
         <v>-829848.8900000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>2.7</v>
       </c>
@@ -1401,11 +1407,9 @@
         <v>-1082323.1906</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>2.7</v>
       </c>
@@ -1442,11 +1446,9 @@
         <v>-1130563.8228</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>2.7</v>
       </c>
@@ -1483,11 +1485,9 @@
         <v>-1220645.8228</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>2.7</v>
       </c>
@@ -1524,11 +1524,9 @@
         <v>-1508602.0607</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>2.7</v>
       </c>
@@ -1565,11 +1563,9 @@
         <v>-1508592.0607</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>2.7</v>
       </c>
@@ -1606,11 +1602,9 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>2.7</v>
       </c>
@@ -1647,11 +1641,9 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>2.7</v>
       </c>
@@ -1688,11 +1680,9 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>2.7</v>
       </c>
@@ -1729,11 +1719,9 @@
         <v>-1569928.3669</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>2.7</v>
       </c>
@@ -1770,11 +1758,9 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>2.7</v>
       </c>
@@ -1811,11 +1797,9 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>2.7</v>
       </c>
@@ -1852,11 +1836,9 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>2.7</v>
       </c>
@@ -1893,11 +1875,9 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>2.7</v>
       </c>
@@ -1934,11 +1914,9 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>2.7</v>
       </c>
@@ -1975,11 +1953,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>2.7</v>
       </c>
@@ -2016,11 +1992,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>2.7</v>
       </c>
@@ -2057,11 +2031,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>2.7</v>
       </c>
@@ -2098,11 +2070,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>2.7</v>
       </c>
@@ -2139,11 +2109,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>2.7</v>
       </c>
@@ -2219,11 +2187,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>2.7</v>
       </c>
@@ -2260,11 +2226,9 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>2.7</v>
       </c>
@@ -2301,11 +2265,9 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>2.7</v>
       </c>
@@ -2342,11 +2304,9 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>2.7</v>
       </c>
@@ -2383,11 +2343,9 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>2.7</v>
       </c>
@@ -2424,11 +2382,9 @@
         <v>-1408875.1838</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>2.7</v>
       </c>
@@ -2465,11 +2421,9 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>2.7</v>
       </c>
@@ -2584,11 +2538,9 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>2.7</v>
       </c>
@@ -2625,11 +2577,9 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>2.7</v>
       </c>
@@ -2705,11 +2655,9 @@
         <v>-1311107.4635</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>2.7</v>
       </c>
@@ -3019,11 +2967,9 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>2.7</v>
       </c>
@@ -3101,9 +3047,11 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J68" t="n">
         <v>2.7</v>
       </c>
@@ -3140,9 +3088,11 @@
         <v>-139860.5738000005</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J69" t="n">
         <v>2.7</v>
       </c>
@@ -3218,9 +3168,11 @@
         <v>1197344.517099999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J71" t="n">
         <v>2.7</v>
       </c>
@@ -3647,11 +3599,9 @@
         <v>1526780.784399999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>2.7</v>
       </c>
@@ -5404,7 +5354,7 @@
         <v>7482825.979599999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
@@ -5412,13 +5362,15 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>1.065370370370371</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.003703703703704</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5446,14 +5398,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5482,17 +5428,11 @@
         <v>7466701.118499999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5524,14 +5464,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5560,17 +5494,11 @@
         <v>7612866.048899999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5599,17 +5527,11 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5638,17 +5560,11 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5680,14 +5596,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5716,17 +5626,11 @@
         <v>10001149.5832</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5755,17 +5659,11 @@
         <v>10001149.5832</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5794,17 +5692,11 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5833,17 +5725,11 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5872,17 +5758,11 @@
         <v>10153944.2114</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5911,17 +5791,11 @@
         <v>10153944.2114</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5950,17 +5824,11 @@
         <v>10330495.0705</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5989,17 +5857,11 @@
         <v>10330495.0705</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6028,17 +5890,11 @@
         <v>10713718.6418</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6067,17 +5923,11 @@
         <v>10677265.6389</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6106,17 +5956,11 @@
         <v>10794761.4633</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6145,17 +5989,11 @@
         <v>10523373.7127</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6184,17 +6022,11 @@
         <v>10523373.7127</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6223,17 +6055,11 @@
         <v>10518172.6711</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6262,17 +6088,11 @@
         <v>10049656.4394</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6301,17 +6121,11 @@
         <v>10067288.8182</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6343,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6382,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6499,14 +6289,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6538,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6577,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6616,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6655,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6691,17 +6451,11 @@
         <v>11910553.86959999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6733,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6769,17 +6517,11 @@
         <v>11882921.58319999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6811,14 +6553,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6847,17 +6583,11 @@
         <v>11882932.58319999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6889,14 +6619,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6925,17 +6649,11 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6964,17 +6682,11 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7003,17 +6715,11 @@
         <v>10520542.76329999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7042,17 +6748,11 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7081,17 +6781,11 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7123,14 +6817,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7162,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7201,14 +6883,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7240,14 +6916,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7279,14 +6949,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7318,14 +6982,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7357,14 +7015,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7396,14 +7048,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7435,14 +7081,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7474,14 +7114,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7513,14 +7147,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7552,14 +7180,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7591,14 +7213,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7630,14 +7246,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7669,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7708,14 +7312,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7747,14 +7345,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7786,14 +7378,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7825,14 +7411,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7864,14 +7444,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7903,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7942,14 +7510,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7981,14 +7543,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8020,14 +7576,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8059,14 +7609,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8098,14 +7642,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8137,14 +7675,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8176,14 +7708,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8215,14 +7741,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8251,23 +7771,15 @@
         <v>17105760.0745</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>1.091296296296296</v>
-      </c>
-      <c r="M200" t="n">
-        <v>1.003703703703704</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8292,7 +7804,7 @@
         <v>17105760.0745</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8325,7 +7837,7 @@
         <v>18138305.9438</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8523,7 +8035,7 @@
         <v>17478114.4849</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8721,7 +8233,7 @@
         <v>16946997.7106</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8787,7 +8299,7 @@
         <v>16580896.6884</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8919,7 +8431,7 @@
         <v>16961886.2755</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8952,7 +8464,7 @@
         <v>16981886.2755</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8985,7 +8497,7 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9018,7 +8530,7 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9051,7 +8563,7 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9084,7 +8596,7 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9117,7 +8629,7 @@
         <v>16829494.02499999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9150,7 +8662,7 @@
         <v>16829494.02499999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9183,7 +8695,7 @@
         <v>16779494.02499999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9249,7 +8761,7 @@
         <v>17003698.5013</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9282,7 +8794,7 @@
         <v>17072257.0337</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9315,7 +8827,7 @@
         <v>17041205.0337</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9348,7 +8860,7 @@
         <v>17039705.7837</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9381,7 +8893,7 @@
         <v>17160663.8287</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9447,7 +8959,7 @@
         <v>17287411.928</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9645,7 +9157,7 @@
         <v>16831678.7859</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9678,7 +9190,7 @@
         <v>16880660.9854</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9711,7 +9223,7 @@
         <v>16947843.6262</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9744,7 +9256,7 @@
         <v>16947843.6262</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9777,7 +9289,7 @@
         <v>16947843.6262</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9810,7 +9322,7 @@
         <v>19195857.2948</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9843,7 +9355,7 @@
         <v>19192857.2948</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9876,7 +9388,7 @@
         <v>18862197.7085</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9909,7 +9421,7 @@
         <v>19091725.4711</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9942,7 +9454,7 @@
         <v>19091725.4711</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9975,7 +9487,7 @@
         <v>19091725.4711</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10008,7 +9520,7 @@
         <v>19084456.7106</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10041,7 +9553,7 @@
         <v>19038226.7106</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10074,7 +9586,7 @@
         <v>18355303.1869</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10107,7 +9619,7 @@
         <v>18580559.5182</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10140,7 +9652,7 @@
         <v>18580559.5182</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10173,7 +9685,7 @@
         <v>18580559.5182</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10206,7 +9718,7 @@
         <v>18580559.5182</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10239,7 +9751,7 @@
         <v>18659638.1473</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10503,7 +10015,7 @@
         <v>17069624.34120001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10569,7 +10081,7 @@
         <v>17196564.84960001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10635,7 +10147,7 @@
         <v>20893931.5288</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10668,7 +10180,7 @@
         <v>20893931.5288</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10767,7 +10279,7 @@
         <v>21014289.47937785</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10932,7 +10444,7 @@
         <v>22578669.48340323</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10998,7 +10510,7 @@
         <v>21485580.26559741</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11064,7 +10576,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11097,7 +10609,7 @@
         <v>23490158.53649741</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11196,7 +10708,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11229,7 +10741,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11262,7 +10774,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11295,7 +10807,7 @@
         <v>23268684.2373974</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11328,7 +10840,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11361,7 +10873,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11394,7 +10906,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11427,7 +10939,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11460,7 +10972,7 @@
         <v>23365123.6934974</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11493,7 +11005,7 @@
         <v>23367133.6934974</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11526,7 +11038,7 @@
         <v>23261411.1027974</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11559,7 +11071,7 @@
         <v>22309987.1326974</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11570,6 +11082,6 @@
       <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-02 BackTest ANKR.xlsx
@@ -849,9 +849,11 @@
         <v>-2842710.5145</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J12" t="n">
         <v>2.7</v>
       </c>
@@ -1134,9 +1136,11 @@
         <v>-829848.8900000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J19" t="n">
         <v>2.7</v>
       </c>
@@ -1602,9 +1606,11 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J31" t="n">
         <v>2.7</v>
       </c>
@@ -1641,9 +1647,11 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J32" t="n">
         <v>2.7</v>
       </c>
@@ -1680,9 +1688,11 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J33" t="n">
         <v>2.7</v>
       </c>
@@ -1719,9 +1729,11 @@
         <v>-1569928.3669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J34" t="n">
         <v>2.7</v>
       </c>
@@ -1875,9 +1887,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J38" t="n">
         <v>2.7</v>
       </c>
@@ -1914,9 +1928,11 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J39" t="n">
         <v>2.7</v>
       </c>
@@ -1953,9 +1969,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J40" t="n">
         <v>2.7</v>
       </c>
@@ -1992,9 +2010,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J41" t="n">
         <v>2.7</v>
       </c>
@@ -2031,9 +2051,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J42" t="n">
         <v>2.7</v>
       </c>
@@ -2070,9 +2092,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J43" t="n">
         <v>2.7</v>
       </c>
@@ -2109,9 +2133,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J44" t="n">
         <v>2.7</v>
       </c>
@@ -2187,9 +2213,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J46" t="n">
         <v>2.7</v>
       </c>
@@ -2226,9 +2254,11 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J47" t="n">
         <v>2.7</v>
       </c>
@@ -2265,9 +2295,11 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J48" t="n">
         <v>2.7</v>
       </c>
@@ -2304,9 +2336,11 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J49" t="n">
         <v>2.7</v>
       </c>
@@ -2343,9 +2377,11 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J50" t="n">
         <v>2.7</v>
       </c>
@@ -2382,9 +2418,11 @@
         <v>-1408875.1838</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J51" t="n">
         <v>2.7</v>
       </c>
@@ -2421,9 +2459,11 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J52" t="n">
         <v>2.7</v>
       </c>
@@ -2460,9 +2500,11 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J53" t="n">
         <v>2.7</v>
       </c>
@@ -2655,9 +2697,11 @@
         <v>-1311107.4635</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J58" t="n">
         <v>2.7</v>
       </c>
@@ -2694,9 +2738,11 @@
         <v>-1317785.4729</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J59" t="n">
         <v>2.7</v>
       </c>
@@ -2772,9 +2818,11 @@
         <v>-1309152.48</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J61" t="n">
         <v>2.7</v>
       </c>
@@ -2928,9 +2976,11 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J65" t="n">
         <v>2.7</v>
       </c>
@@ -2967,9 +3017,11 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.71</v>
+      </c>
       <c r="J66" t="n">
         <v>2.7</v>
       </c>
@@ -3088,11 +3140,9 @@
         <v>-139860.5738000005</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>2.7</v>
       </c>
@@ -3168,11 +3218,9 @@
         <v>1197344.517099999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>2.7</v>
       </c>
@@ -5354,7 +5402,7 @@
         <v>7482825.979599999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
@@ -5362,15 +5410,13 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.065370370370371</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1.003703703703704</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5398,8 +5444,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5428,11 +5480,17 @@
         <v>7466701.118499999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5494,11 +5558,17 @@
         <v>7612866.048899999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5527,11 +5597,17 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5560,11 +5636,17 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5596,8 +5678,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5626,11 +5714,17 @@
         <v>10001149.5832</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5659,11 +5753,17 @@
         <v>10001149.5832</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5792,17 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5831,17 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5758,11 +5870,17 @@
         <v>10153944.2114</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5791,11 +5909,17 @@
         <v>10153944.2114</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5824,11 +5948,17 @@
         <v>10330495.0705</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5857,11 +5987,17 @@
         <v>10330495.0705</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5890,11 +6026,17 @@
         <v>10713718.6418</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5923,11 +6065,17 @@
         <v>10677265.6389</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5956,11 +6104,17 @@
         <v>10794761.4633</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5989,11 +6143,17 @@
         <v>10523373.7127</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +6182,17 @@
         <v>10523373.7127</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +6221,17 @@
         <v>10518172.6711</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6088,11 +6260,17 @@
         <v>10049656.4394</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6121,11 +6299,17 @@
         <v>10067288.8182</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6341,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6380,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6419,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +6458,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6289,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6322,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6355,8 +6575,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6388,8 +6614,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6421,8 +6653,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6451,11 +6689,17 @@
         <v>11910553.86959999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +6731,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6517,11 +6767,17 @@
         <v>11882921.58319999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +6809,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6583,11 +6845,17 @@
         <v>11882932.58319999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +6887,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6923,17 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +6962,17 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +7001,17 @@
         <v>10520542.76329999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6748,11 +7040,17 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6781,11 +7079,17 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6817,8 +7121,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6850,8 +7160,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6883,8 +7199,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6916,8 +7238,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6949,8 +7277,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6982,8 +7316,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7015,8 +7355,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7048,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7081,8 +7433,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7114,8 +7472,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +7511,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7180,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7213,8 +7589,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7246,8 +7628,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7279,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7309,15 +7703,23 @@
         <v>11503654.8879</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>1.098703703703704</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1.003703703703704</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7375,7 +7777,7 @@
         <v>14215441.1802</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7804,7 +8206,7 @@
         <v>17105760.0745</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7903,7 +8305,7 @@
         <v>18138305.9438</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7936,7 +8338,7 @@
         <v>18133146.5388</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8002,7 +8404,7 @@
         <v>17500566.5892</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8035,7 +8437,7 @@
         <v>17478114.4849</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8068,7 +8470,7 @@
         <v>17478114.4849</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8101,7 +8503,7 @@
         <v>17570943.9755</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8167,7 +8569,7 @@
         <v>17066133.9166</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8233,7 +8635,7 @@
         <v>16946997.7106</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8596,7 +8998,7 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8629,7 +9031,7 @@
         <v>16829494.02499999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8827,7 +9229,7 @@
         <v>17041205.0337</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8860,7 +9262,7 @@
         <v>17039705.7837</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -10345,7 +10747,7 @@
         <v>20770333.46917785</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10411,7 +10813,7 @@
         <v>22740002.75685162</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10444,7 +10846,7 @@
         <v>22578669.48340323</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10477,7 +10879,7 @@
         <v>21662928.1054974</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10510,7 +10912,7 @@
         <v>21485580.26559741</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10543,7 +10945,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10576,7 +10978,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10609,7 +11011,7 @@
         <v>23490158.53649741</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10642,7 +11044,7 @@
         <v>23326082.3796974</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10675,7 +11077,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10708,7 +11110,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10741,7 +11143,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10774,7 +11176,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10807,7 +11209,7 @@
         <v>23268684.2373974</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10840,7 +11242,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10873,7 +11275,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10906,7 +11308,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10939,7 +11341,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10972,7 +11374,7 @@
         <v>23365123.6934974</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11005,7 +11407,7 @@
         <v>23367133.6934974</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11038,7 +11440,7 @@
         <v>23261411.1027974</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11071,7 +11473,7 @@
         <v>22309987.1326974</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
